--- a/datasets/TotalExercise.xlsx
+++ b/datasets/TotalExercise.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="TotalExercise" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/datasets/TotalExercise.xlsx
+++ b/datasets/TotalExercise.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -906,16 +906,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
@@ -926,9 +926,10 @@
     <col min="12" max="12" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -939,43 +940,52 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42979</v>
       </c>
@@ -985,49 +995,58 @@
       <c r="C2">
         <v>13030</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
+        <v>42979</v>
+      </c>
+      <c r="E2">
+        <v>3721</v>
+      </c>
+      <c r="F2">
+        <v>13030</v>
+      </c>
+      <c r="G2">
         <v>9.91</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>498</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>460</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>13</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>2266</v>
       </c>
-      <c r="K2" t="str">
+      <c r="N2" t="str">
         <f>IF(C2&gt;8000,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="L2" t="str">
+      <c r="O2" t="str">
         <f>IF(B2&gt;3400,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="M2" t="str">
-        <f>IF(I2&gt;30,"Yes","No")</f>
-        <v>No</v>
-      </c>
-      <c r="N2" t="str">
-        <f>IF(I2+H2&lt;30,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
-      <c r="O2" t="str">
-        <f>IF(D2&gt;5,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" t="str">
+        <f>IF(L2&gt;30,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(L2+K2&lt;30,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="R2" t="str">
+        <f>IF(G2&gt;5,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42980</v>
       </c>
@@ -1037,49 +1056,58 @@
       <c r="C3">
         <v>8147</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <v>42980</v>
+      </c>
+      <c r="E3">
+        <v>3015</v>
+      </c>
+      <c r="F3">
+        <v>8147</v>
+      </c>
+      <c r="G3">
         <v>6.35</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>732</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>223</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>32</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>1245</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="0">IF(C3&gt;8000,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L66" si="1">IF(B3&gt;3400,"Yes","No")</f>
-        <v>No</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="2">IF(I3&gt;30,"Yes","No")</f>
-        <v>No</v>
-      </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N66" si="3">IF(I3+H3&lt;30,"Yes","No")</f>
-        <v>No</v>
+        <f>IF(C3&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O66" si="4">IF(D3&gt;5,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <f>IF(B3&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P66" si="0">IF(L3&gt;30,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q66" si="1">IF(L3+K3&lt;30,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R66" si="2">IF(G3&gt;5,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42981</v>
       </c>
@@ -1089,49 +1117,58 @@
       <c r="C4">
         <v>13857</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
+        <v>42981</v>
+      </c>
+      <c r="E4">
+        <v>3837</v>
+      </c>
+      <c r="F4">
+        <v>13857</v>
+      </c>
+      <c r="G4">
         <v>10.79</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>480</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>414</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>26</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>25</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>2379</v>
       </c>
-      <c r="K4" t="str">
+      <c r="N4" t="str">
+        <f>IF(C4&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O4" t="str">
+        <f>IF(B4&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L4" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q4" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M4" t="str">
+        <v>No</v>
+      </c>
+      <c r="R4" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N4" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42982</v>
       </c>
@@ -1141,49 +1178,58 @@
       <c r="C5">
         <v>12846</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
+        <v>42982</v>
+      </c>
+      <c r="E5">
+        <v>4274</v>
+      </c>
+      <c r="F5">
+        <v>12846</v>
+      </c>
+      <c r="G5">
         <v>9.7899999999999991</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>593</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>334</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>18</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>87</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>2757</v>
       </c>
-      <c r="K5" t="str">
+      <c r="N5" t="str">
+        <f>IF(C5&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O5" t="str">
+        <f>IF(B5&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P5" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="L5" t="str">
+      <c r="Q5" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M5" t="str">
+        <v>No</v>
+      </c>
+      <c r="R5" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42983</v>
       </c>
@@ -1193,49 +1239,58 @@
       <c r="C6">
         <v>11041</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <v>42983</v>
+      </c>
+      <c r="E6">
+        <v>3519</v>
+      </c>
+      <c r="F6">
+        <v>11041</v>
+      </c>
+      <c r="G6">
         <v>8.6199999999999992</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>7</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>1044</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>380</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>1947</v>
       </c>
-      <c r="K6" t="str">
+      <c r="N6" t="str">
+        <f>IF(C6&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O6" t="str">
+        <f>IF(B6&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P6" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L6" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="M6" t="str">
+      <c r="R6" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>42984</v>
       </c>
@@ -1245,49 +1300,58 @@
       <c r="C7">
         <v>7639</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
+        <v>42984</v>
+      </c>
+      <c r="E7">
+        <v>3062</v>
+      </c>
+      <c r="F7">
+        <v>7639</v>
+      </c>
+      <c r="G7">
         <v>5.96</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>697</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>326</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>1398</v>
       </c>
-      <c r="K7" t="str">
+      <c r="N7" t="str">
+        <f>IF(C7&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O7" t="str">
+        <f>IF(B7&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P7" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L7" t="str">
+      <c r="Q7" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M7" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R7" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42985</v>
       </c>
@@ -1297,49 +1361,58 @@
       <c r="C8">
         <v>12523</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
+        <v>42985</v>
+      </c>
+      <c r="E8">
+        <v>4091</v>
+      </c>
+      <c r="F8">
+        <v>12523</v>
+      </c>
+      <c r="G8">
         <v>9.27</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>620</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>295</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>42</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>77</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>2530</v>
       </c>
-      <c r="K8" t="str">
+      <c r="N8" t="str">
+        <f>IF(C8&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O8" t="str">
+        <f>IF(B8&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P8" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="L8" t="str">
+      <c r="Q8" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M8" t="str">
+        <v>No</v>
+      </c>
+      <c r="R8" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>42986</v>
       </c>
@@ -1349,49 +1422,58 @@
       <c r="C9">
         <v>8540</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
+        <v>42986</v>
+      </c>
+      <c r="E9">
+        <v>3480</v>
+      </c>
+      <c r="F9">
+        <v>8540</v>
+      </c>
+      <c r="G9">
         <v>6.34</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>666</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>258</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>32</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>36</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>1776</v>
       </c>
-      <c r="K9" t="str">
+      <c r="N9" t="str">
+        <f>IF(C9&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O9" t="str">
+        <f>IF(B9&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="L9" t="str">
+      <c r="Q9" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M9" t="str">
+        <v>No</v>
+      </c>
+      <c r="R9" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N9" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>42987</v>
       </c>
@@ -1401,49 +1483,58 @@
       <c r="C10">
         <v>8436</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
+        <v>42987</v>
+      </c>
+      <c r="E10">
+        <v>3139</v>
+      </c>
+      <c r="F10">
+        <v>8436</v>
+      </c>
+      <c r="G10">
         <v>6.58</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>624</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>347</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>1508</v>
       </c>
-      <c r="K10" t="str">
+      <c r="N10" t="str">
+        <f>IF(C10&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O10" t="str">
+        <f>IF(B10&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L10" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q10" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M10" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R10" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>42988</v>
       </c>
@@ -1453,49 +1544,58 @@
       <c r="C11">
         <v>6921</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
+        <v>42988</v>
+      </c>
+      <c r="E11">
+        <v>2998</v>
+      </c>
+      <c r="F11">
+        <v>6921</v>
+      </c>
+      <c r="G11">
         <v>5.2</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>693</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>254</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>9</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>9</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>1304</v>
       </c>
-      <c r="K11" t="str">
+      <c r="N11" t="str">
+        <f>IF(C11&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O11" t="str">
+        <f>IF(B11&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P11" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L11" t="str">
+      <c r="Q11" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M11" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R11" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>42989</v>
       </c>
@@ -1505,49 +1605,58 @@
       <c r="C12">
         <v>12009</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
+        <v>42989</v>
+      </c>
+      <c r="E12">
+        <v>3793</v>
+      </c>
+      <c r="F12">
+        <v>12009</v>
+      </c>
+      <c r="G12">
         <v>8.91</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>595</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>326</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>31</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>45</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>2186</v>
       </c>
-      <c r="K12" t="str">
+      <c r="N12" t="str">
+        <f>IF(C12&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O12" t="str">
+        <f>IF(B12&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P12" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="L12" t="str">
+      <c r="Q12" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M12" t="str">
+        <v>No</v>
+      </c>
+      <c r="R12" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N12" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>42990</v>
       </c>
@@ -1557,49 +1666,58 @@
       <c r="C13">
         <v>7696</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
+        <v>42990</v>
+      </c>
+      <c r="E13">
+        <v>3109</v>
+      </c>
+      <c r="F13">
+        <v>7696</v>
+      </c>
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>708</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>335</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>1453</v>
       </c>
-      <c r="K13" t="str">
+      <c r="N13" t="str">
+        <f>IF(C13&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O13" t="str">
+        <f>IF(B13&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L13" t="str">
+      <c r="Q13" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M13" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R13" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>42991</v>
       </c>
@@ -1609,49 +1727,58 @@
       <c r="C14">
         <v>11483</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
+        <v>42991</v>
+      </c>
+      <c r="E14">
+        <v>4006</v>
+      </c>
+      <c r="F14">
+        <v>11483</v>
+      </c>
+      <c r="G14">
         <v>8.48</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>14</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>596</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>312</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>37</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>60</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>2394</v>
       </c>
-      <c r="K14" t="str">
+      <c r="N14" t="str">
+        <f>IF(C14&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O14" t="str">
+        <f>IF(B14&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P14" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="L14" t="str">
+      <c r="Q14" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M14" t="str">
+        <v>No</v>
+      </c>
+      <c r="R14" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N14" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>42992</v>
       </c>
@@ -1661,49 +1788,58 @@
       <c r="C15">
         <v>10634</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
+        <v>42992</v>
+      </c>
+      <c r="E15">
+        <v>3573</v>
+      </c>
+      <c r="F15">
+        <v>10634</v>
+      </c>
+      <c r="G15">
         <v>8.07</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>600</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>328</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>19</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>29</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>1940</v>
       </c>
-      <c r="K15" t="str">
+      <c r="N15" t="str">
+        <f>IF(C15&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O15" t="str">
+        <f>IF(B15&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P15" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L15" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q15" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M15" t="str">
+        <v>No</v>
+      </c>
+      <c r="R15" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>42993</v>
       </c>
@@ -1713,49 +1849,58 @@
       <c r="C16">
         <v>8198</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
+        <v>42993</v>
+      </c>
+      <c r="E16">
+        <v>3102</v>
+      </c>
+      <c r="F16">
+        <v>8198</v>
+      </c>
+      <c r="G16">
         <v>6.39</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>645</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>343</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>1473</v>
       </c>
-      <c r="K16" t="str">
+      <c r="N16" t="str">
+        <f>IF(C16&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O16" t="str">
+        <f>IF(B16&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P16" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L16" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q16" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M16" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R16" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>42994</v>
       </c>
@@ -1765,49 +1910,58 @@
       <c r="C17">
         <v>975</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
+        <v>42994</v>
+      </c>
+      <c r="E17">
+        <v>2190</v>
+      </c>
+      <c r="F17">
+        <v>975</v>
+      </c>
+      <c r="G17">
         <v>0.76</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>922</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>45</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>197</v>
       </c>
-      <c r="K17" t="str">
+      <c r="N17" t="str">
+        <f>IF(C17&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O17" t="str">
+        <f>IF(B17&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P17" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L17" t="str">
+      <c r="Q17" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M17" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R17" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N17" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>42995</v>
       </c>
@@ -1817,49 +1971,58 @@
       <c r="C18">
         <v>4870</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
+        <v>42995</v>
+      </c>
+      <c r="E18">
+        <v>2710</v>
+      </c>
+      <c r="F18">
+        <v>4870</v>
+      </c>
+      <c r="G18">
         <v>3.8</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>1226</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>214</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>904</v>
       </c>
-      <c r="K18" t="str">
+      <c r="N18" t="str">
+        <f>IF(C18&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O18" t="str">
+        <f>IF(B18&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P18" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L18" t="str">
+      <c r="Q18" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M18" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R18" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N18" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>42996</v>
       </c>
@@ -1869,49 +2032,58 @@
       <c r="C19">
         <v>9510</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
+        <v>42996</v>
+      </c>
+      <c r="E19">
+        <v>3158</v>
+      </c>
+      <c r="F19">
+        <v>9510</v>
+      </c>
+      <c r="G19">
         <v>7.42</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>706</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>333</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>1514</v>
       </c>
-      <c r="K19" t="str">
+      <c r="N19" t="str">
+        <f>IF(C19&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O19" t="str">
+        <f>IF(B19&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P19" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L19" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q19" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M19" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R19" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>42997</v>
       </c>
@@ -1921,49 +2093,58 @@
       <c r="C20">
         <v>9901</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
+        <v>42997</v>
+      </c>
+      <c r="E20">
+        <v>3771</v>
+      </c>
+      <c r="F20">
+        <v>9901</v>
+      </c>
+      <c r="G20">
         <v>7.49</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>600</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>305</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>31</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>48</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>2149</v>
       </c>
-      <c r="K20" t="str">
+      <c r="N20" t="str">
+        <f>IF(C20&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O20" t="str">
+        <f>IF(B20&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P20" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="L20" t="str">
+      <c r="Q20" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M20" t="str">
+        <v>No</v>
+      </c>
+      <c r="R20" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N20" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>42998</v>
       </c>
@@ -1973,49 +2154,58 @@
       <c r="C21">
         <v>4106</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
+        <v>42998</v>
+      </c>
+      <c r="E21">
+        <v>2694</v>
+      </c>
+      <c r="F21">
+        <v>4106</v>
+      </c>
+      <c r="G21">
         <v>3.2</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>862</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>211</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>868</v>
       </c>
-      <c r="K21" t="str">
+      <c r="N21" t="str">
+        <f>IF(C21&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O21" t="str">
+        <f>IF(B21&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P21" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L21" t="str">
+      <c r="Q21" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M21" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R21" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N21" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>42999</v>
       </c>
@@ -2025,49 +2215,58 @@
       <c r="C22">
         <v>9664</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
+        <v>42999</v>
+      </c>
+      <c r="E22">
+        <v>3477</v>
+      </c>
+      <c r="F22">
+        <v>9664</v>
+      </c>
+      <c r="G22">
         <v>7.38</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>4</v>
       </c>
-      <c r="F22">
+      <c r="I22">
         <v>613</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>329</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>12</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>19</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>1843</v>
       </c>
-      <c r="K22" t="str">
+      <c r="N22" t="str">
+        <f>IF(C22&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O22" t="str">
+        <f>IF(B22&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P22" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L22" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q22" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M22" t="str">
+        <v>No</v>
+      </c>
+      <c r="R22" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43000</v>
       </c>
@@ -2077,49 +2276,58 @@
       <c r="C23">
         <v>4428</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
+        <v>43000</v>
+      </c>
+      <c r="E23">
+        <v>2736</v>
+      </c>
+      <c r="F23">
+        <v>4428</v>
+      </c>
+      <c r="G23">
         <v>3.45</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>772</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>217</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>916</v>
       </c>
-      <c r="K23" t="str">
+      <c r="N23" t="str">
+        <f>IF(C23&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O23" t="str">
+        <f>IF(B23&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P23" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L23" t="str">
+      <c r="Q23" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M23" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R23" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N23" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43001</v>
       </c>
@@ -2129,49 +2337,58 @@
       <c r="C24">
         <v>4994</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
+        <v>43001</v>
+      </c>
+      <c r="E24">
+        <v>2816</v>
+      </c>
+      <c r="F24">
+        <v>4994</v>
+      </c>
+      <c r="G24">
         <v>3.9</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="I24">
         <v>1062</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>230</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>1003</v>
       </c>
-      <c r="K24" t="str">
+      <c r="N24" t="str">
+        <f>IF(C24&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O24" t="str">
+        <f>IF(B24&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P24" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L24" t="str">
+      <c r="Q24" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M24" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R24" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N24" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43002</v>
       </c>
@@ -2181,49 +2398,58 @@
       <c r="C25">
         <v>7123</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
+        <v>43002</v>
+      </c>
+      <c r="E25">
+        <v>3168</v>
+      </c>
+      <c r="F25">
+        <v>7123</v>
+      </c>
+      <c r="G25">
         <v>5.35</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>7</v>
       </c>
-      <c r="F25">
+      <c r="I25">
         <v>797</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <v>126</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <v>34</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <v>48</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>1366</v>
       </c>
-      <c r="K25" t="str">
+      <c r="N25" t="str">
+        <f>IF(C25&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O25" t="str">
+        <f>IF(B25&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P25" t="str">
         <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="L25" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="Q25" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="M25" t="str">
+      <c r="R25" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N25" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43003</v>
       </c>
@@ -2233,49 +2459,58 @@
       <c r="C26">
         <v>5370</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
+        <v>43003</v>
+      </c>
+      <c r="E26">
+        <v>3034</v>
+      </c>
+      <c r="F26">
+        <v>5370</v>
+      </c>
+      <c r="G26">
         <v>3.92</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>8</v>
       </c>
-      <c r="F26">
+      <c r="I26">
         <v>820</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>86</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>31</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>48</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>1144</v>
       </c>
-      <c r="K26" t="str">
+      <c r="N26" t="str">
+        <f>IF(C26&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O26" t="str">
+        <f>IF(B26&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P26" t="str">
         <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="L26" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="Q26" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="M26" t="str">
+      <c r="R26" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43004</v>
       </c>
@@ -2285,49 +2520,58 @@
       <c r="C27">
         <v>7118</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
+        <v>43004</v>
+      </c>
+      <c r="E27">
+        <v>2997</v>
+      </c>
+      <c r="F27">
+        <v>7118</v>
+      </c>
+      <c r="G27">
         <v>5.55</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>743</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>271</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>1222</v>
       </c>
-      <c r="K27" t="str">
+      <c r="N27" t="str">
+        <f>IF(C27&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O27" t="str">
+        <f>IF(B27&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P27" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L27" t="str">
+      <c r="Q27" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M27" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R27" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43005</v>
       </c>
@@ -2337,49 +2581,58 @@
       <c r="C28">
         <v>5788</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
+        <v>43005</v>
+      </c>
+      <c r="E28">
+        <v>4184</v>
+      </c>
+      <c r="F28">
+        <v>5788</v>
+      </c>
+      <c r="G28">
         <v>4.51</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>8</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>993</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>397</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>25</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>25</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>2534</v>
       </c>
-      <c r="K28" t="str">
+      <c r="N28" t="str">
+        <f>IF(C28&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O28" t="str">
+        <f>IF(B28&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P28" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L28" t="str">
+      <c r="Q28" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M28" t="str">
+        <v>No</v>
+      </c>
+      <c r="R28" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N28" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43006</v>
       </c>
@@ -2389,49 +2642,58 @@
       <c r="C29">
         <v>6336</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
+        <v>43006</v>
+      </c>
+      <c r="E29">
+        <v>2990</v>
+      </c>
+      <c r="F29">
+        <v>6336</v>
+      </c>
+      <c r="G29">
         <v>4.9400000000000004</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29">
-        <v>1171</v>
-      </c>
-      <c r="G29">
-        <v>186</v>
       </c>
       <c r="H29">
         <v>6</v>
       </c>
       <c r="I29">
+        <v>1171</v>
+      </c>
+      <c r="J29">
+        <v>186</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
         <v>13</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>1046</v>
       </c>
-      <c r="K29" t="str">
+      <c r="N29" t="str">
+        <f>IF(C29&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O29" t="str">
+        <f>IF(B29&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P29" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L29" t="str">
+      <c r="Q29" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M29" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R29" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N29" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43007</v>
       </c>
@@ -2441,49 +2703,58 @@
       <c r="C30">
         <v>7618</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
+        <v>43007</v>
+      </c>
+      <c r="E30">
+        <v>2878</v>
+      </c>
+      <c r="F30">
+        <v>7618</v>
+      </c>
+      <c r="G30">
         <v>5.94</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <v>5</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>1000</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>201</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>3</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <v>8</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>1084</v>
       </c>
-      <c r="K30" t="str">
+      <c r="N30" t="str">
+        <f>IF(C30&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O30" t="str">
+        <f>IF(B30&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P30" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L30" t="str">
+      <c r="Q30" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M30" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R30" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43008</v>
       </c>
@@ -2493,49 +2764,58 @@
       <c r="C31">
         <v>4053</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
+        <v>43008</v>
+      </c>
+      <c r="E31">
+        <v>2805</v>
+      </c>
+      <c r="F31">
+        <v>4053</v>
+      </c>
+      <c r="G31">
         <v>3.09</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="F31">
+      <c r="I31">
         <v>913</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>174</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>5</v>
       </c>
-      <c r="I31">
+      <c r="L31">
         <v>14</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>913</v>
       </c>
-      <c r="K31" t="str">
+      <c r="N31" t="str">
+        <f>IF(C31&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O31" t="str">
+        <f>IF(B31&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P31" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L31" t="str">
+      <c r="Q31" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M31" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R31" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N31" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43009</v>
       </c>
@@ -2545,49 +2825,58 @@
       <c r="C32">
         <v>4851</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
+        <v>43009</v>
+      </c>
+      <c r="E32">
+        <v>2710</v>
+      </c>
+      <c r="F32">
+        <v>4851</v>
+      </c>
+      <c r="G32">
         <v>3.78</v>
       </c>
-      <c r="E32">
+      <c r="H32">
         <v>3</v>
       </c>
-      <c r="F32">
+      <c r="I32">
         <v>627</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>184</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>853</v>
       </c>
-      <c r="K32" t="str">
+      <c r="N32" t="str">
+        <f>IF(C32&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O32" t="str">
+        <f>IF(B32&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P32" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L32" t="str">
+      <c r="Q32" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M32" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R32" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N32" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43010</v>
       </c>
@@ -2597,49 +2886,58 @@
       <c r="C33">
         <v>10148</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
+        <v>43010</v>
+      </c>
+      <c r="E33">
+        <v>3385</v>
+      </c>
+      <c r="F33">
+        <v>10148</v>
+      </c>
+      <c r="G33">
         <v>7.92</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>29</v>
       </c>
-      <c r="F33">
+      <c r="I33">
         <v>888</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>320</v>
       </c>
-      <c r="H33">
+      <c r="K33">
         <v>7</v>
       </c>
-      <c r="I33">
+      <c r="L33">
         <v>11</v>
       </c>
-      <c r="J33">
+      <c r="M33">
         <v>1693</v>
       </c>
-      <c r="K33" t="str">
+      <c r="N33" t="str">
+        <f>IF(C33&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O33" t="str">
+        <f>IF(B33&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P33" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L33" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q33" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M33" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R33" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43011</v>
       </c>
@@ -2649,49 +2947,58 @@
       <c r="C34">
         <v>3549</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
+        <v>43011</v>
+      </c>
+      <c r="E34">
+        <v>2513</v>
+      </c>
+      <c r="F34">
+        <v>3549</v>
+      </c>
+      <c r="G34">
         <v>2.77</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="I34">
         <v>691</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>121</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <v>6</v>
       </c>
-      <c r="I34">
+      <c r="L34">
         <v>4</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>596</v>
       </c>
-      <c r="K34" t="str">
+      <c r="N34" t="str">
+        <f>IF(C34&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O34" t="str">
+        <f>IF(B34&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P34" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L34" t="str">
+      <c r="Q34" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M34" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R34" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N34" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43012</v>
       </c>
@@ -2701,49 +3008,58 @@
       <c r="C35">
         <v>9441</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
+        <v>43012</v>
+      </c>
+      <c r="E35">
+        <v>3169</v>
+      </c>
+      <c r="F35">
+        <v>9441</v>
+      </c>
+      <c r="G35">
         <v>7.36</v>
       </c>
-      <c r="E35">
+      <c r="H35">
         <v>24</v>
       </c>
-      <c r="F35">
+      <c r="I35">
         <v>867</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>204</v>
       </c>
-      <c r="H35">
+      <c r="K35">
         <v>15</v>
       </c>
-      <c r="I35">
+      <c r="L35">
         <v>23</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>1367</v>
       </c>
-      <c r="K35" t="str">
+      <c r="N35" t="str">
+        <f>IF(C35&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O35" t="str">
+        <f>IF(B35&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P35" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L35" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q35" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="M35" t="str">
+      <c r="R35" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43013</v>
       </c>
@@ -2753,49 +3069,58 @@
       <c r="C36">
         <v>12475</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
+        <v>43013</v>
+      </c>
+      <c r="E36">
+        <v>3628</v>
+      </c>
+      <c r="F36">
+        <v>12475</v>
+      </c>
+      <c r="G36">
         <v>9.73</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>13</v>
       </c>
-      <c r="F36">
+      <c r="I36">
         <v>601</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>373</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>17</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>4</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>1980</v>
       </c>
-      <c r="K36" t="str">
+      <c r="N36" t="str">
+        <f>IF(C36&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O36" t="str">
+        <f>IF(B36&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P36" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L36" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q36" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="M36" t="str">
+      <c r="R36" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43014</v>
       </c>
@@ -2805,49 +3130,58 @@
       <c r="C37">
         <v>7937</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
+        <v>43014</v>
+      </c>
+      <c r="E37">
+        <v>3159</v>
+      </c>
+      <c r="F37">
+        <v>7937</v>
+      </c>
+      <c r="G37">
         <v>6.19</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>3</v>
       </c>
-      <c r="F37">
+      <c r="I37">
         <v>749</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>354</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>1516</v>
       </c>
-      <c r="K37" t="str">
+      <c r="N37" t="str">
+        <f>IF(C37&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O37" t="str">
+        <f>IF(B37&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P37" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L37" t="str">
+      <c r="Q37" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M37" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R37" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43015</v>
       </c>
@@ -2857,49 +3191,58 @@
       <c r="C38">
         <v>7129</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
+        <v>43015</v>
+      </c>
+      <c r="E38">
+        <v>3391</v>
+      </c>
+      <c r="F38">
+        <v>7129</v>
+      </c>
+      <c r="G38">
         <v>5.29</v>
       </c>
-      <c r="E38">
+      <c r="H38">
         <v>10</v>
       </c>
-      <c r="F38">
+      <c r="I38">
         <v>765</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>132</v>
       </c>
-      <c r="H38">
+      <c r="K38">
         <v>45</v>
       </c>
-      <c r="I38">
+      <c r="L38">
         <v>51</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>1588</v>
       </c>
-      <c r="K38" t="str">
+      <c r="N38" t="str">
+        <f>IF(C38&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O38" t="str">
+        <f>IF(B38&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P38" t="str">
         <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="L38" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="Q38" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="M38" t="str">
+      <c r="R38" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N38" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43016</v>
       </c>
@@ -2909,49 +3252,58 @@
       <c r="C39">
         <v>4711</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
+        <v>43016</v>
+      </c>
+      <c r="E39">
+        <v>2723</v>
+      </c>
+      <c r="F39">
+        <v>4711</v>
+      </c>
+      <c r="G39">
         <v>3.67</v>
       </c>
-      <c r="E39">
+      <c r="H39">
         <v>1</v>
       </c>
-      <c r="F39">
+      <c r="I39">
         <v>1269</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>171</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>813</v>
       </c>
-      <c r="K39" t="str">
+      <c r="N39" t="str">
+        <f>IF(C39&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O39" t="str">
+        <f>IF(B39&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P39" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L39" t="str">
+      <c r="Q39" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M39" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R39" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N39" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43017</v>
       </c>
@@ -2961,49 +3313,58 @@
       <c r="C40">
         <v>3892</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
+        <v>43017</v>
+      </c>
+      <c r="E40">
+        <v>2706</v>
+      </c>
+      <c r="F40">
+        <v>3892</v>
+      </c>
+      <c r="G40">
         <v>3.04</v>
       </c>
-      <c r="E40">
+      <c r="H40">
         <v>2</v>
       </c>
-      <c r="F40">
+      <c r="I40">
         <v>718</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>160</v>
       </c>
-      <c r="H40">
+      <c r="K40">
         <v>9</v>
       </c>
-      <c r="I40">
+      <c r="L40">
         <v>2</v>
       </c>
-      <c r="J40">
+      <c r="M40">
         <v>809</v>
       </c>
-      <c r="K40" t="str">
+      <c r="N40" t="str">
+        <f>IF(C40&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O40" t="str">
+        <f>IF(B40&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P40" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L40" t="str">
+      <c r="Q40" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M40" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R40" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N40" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43018</v>
       </c>
@@ -3013,49 +3374,58 @@
       <c r="C41">
         <v>9181</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
+        <v>43018</v>
+      </c>
+      <c r="E41">
+        <v>3925</v>
+      </c>
+      <c r="F41">
+        <v>9181</v>
+      </c>
+      <c r="G41">
         <v>6.95</v>
       </c>
-      <c r="E41">
+      <c r="H41">
         <v>8</v>
       </c>
-      <c r="F41">
+      <c r="I41">
         <v>830</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>274</v>
       </c>
-      <c r="H41">
+      <c r="K41">
         <v>42</v>
       </c>
-      <c r="I41">
+      <c r="L41">
         <v>57</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>2245</v>
       </c>
-      <c r="K41" t="str">
+      <c r="N41" t="str">
+        <f>IF(C41&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O41" t="str">
+        <f>IF(B41&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P41" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="L41" t="str">
+      <c r="Q41" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M41" t="str">
+        <v>No</v>
+      </c>
+      <c r="R41" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N41" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43019</v>
       </c>
@@ -3065,49 +3435,58 @@
       <c r="C42">
         <v>6194</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
+        <v>43019</v>
+      </c>
+      <c r="E42">
+        <v>3046</v>
+      </c>
+      <c r="F42">
+        <v>6194</v>
+      </c>
+      <c r="G42">
         <v>4.83</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>14</v>
       </c>
-      <c r="F42">
+      <c r="I42">
         <v>881</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>171</v>
       </c>
-      <c r="H42">
+      <c r="K42">
         <v>23</v>
       </c>
-      <c r="I42">
+      <c r="L42">
         <v>11</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>1143</v>
       </c>
-      <c r="K42" t="str">
+      <c r="N42" t="str">
+        <f>IF(C42&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O42" t="str">
+        <f>IF(B42&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P42" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L42" t="str">
+      <c r="Q42" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="M42" t="str">
+      <c r="R42" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N42" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43020</v>
       </c>
@@ -3117,49 +3496,58 @@
       <c r="C43">
         <v>10408</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
+        <v>43020</v>
+      </c>
+      <c r="E43">
+        <v>3504</v>
+      </c>
+      <c r="F43">
+        <v>10408</v>
+      </c>
+      <c r="G43">
         <v>8.1199999999999992</v>
       </c>
-      <c r="E43">
+      <c r="H43">
         <v>2</v>
       </c>
-      <c r="F43">
+      <c r="I43">
         <v>1064</v>
       </c>
-      <c r="G43">
+      <c r="J43">
         <v>361</v>
       </c>
-      <c r="H43">
+      <c r="K43">
         <v>8</v>
       </c>
-      <c r="I43">
+      <c r="L43">
         <v>7</v>
       </c>
-      <c r="J43">
+      <c r="M43">
         <v>1860</v>
       </c>
-      <c r="K43" t="str">
+      <c r="N43" t="str">
+        <f>IF(C43&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O43" t="str">
+        <f>IF(B43&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P43" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L43" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q43" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="M43" t="str">
+      <c r="R43" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43021</v>
       </c>
@@ -3169,49 +3557,58 @@
       <c r="C44">
         <v>13987</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
+        <v>43021</v>
+      </c>
+      <c r="E44">
+        <v>3851</v>
+      </c>
+      <c r="F44">
+        <v>13987</v>
+      </c>
+      <c r="G44">
         <v>10.91</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>578</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>467</v>
       </c>
-      <c r="H44">
+      <c r="K44">
         <v>20</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
         <v>2369</v>
       </c>
-      <c r="K44" t="str">
+      <c r="N44" t="str">
+        <f>IF(C44&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O44" t="str">
+        <f>IF(B44&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P44" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L44" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q44" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="M44" t="str">
+      <c r="R44" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43022</v>
       </c>
@@ -3221,49 +3618,58 @@
       <c r="C45">
         <v>10068</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
+        <v>43022</v>
+      </c>
+      <c r="E45">
+        <v>3312</v>
+      </c>
+      <c r="F45">
+        <v>10068</v>
+      </c>
+      <c r="G45">
         <v>7.85</v>
       </c>
-      <c r="E45">
+      <c r="H45">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="I45">
         <v>757</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>337</v>
       </c>
-      <c r="H45">
+      <c r="K45">
         <v>4</v>
       </c>
-      <c r="I45">
+      <c r="L45">
         <v>9</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>1634</v>
       </c>
-      <c r="K45" t="str">
+      <c r="N45" t="str">
+        <f>IF(C45&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O45" t="str">
+        <f>IF(B45&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P45" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L45" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q45" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M45" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R45" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43023</v>
       </c>
@@ -3273,49 +3679,58 @@
       <c r="C46">
         <v>4271</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
+        <v>43023</v>
+      </c>
+      <c r="E46">
+        <v>2635</v>
+      </c>
+      <c r="F46">
+        <v>4271</v>
+      </c>
+      <c r="G46">
         <v>3.33</v>
       </c>
-      <c r="E46">
+      <c r="H46">
         <v>2</v>
       </c>
-      <c r="F46">
+      <c r="I46">
         <v>1190</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>147</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
         <v>726</v>
       </c>
-      <c r="K46" t="str">
+      <c r="N46" t="str">
+        <f>IF(C46&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O46" t="str">
+        <f>IF(B46&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P46" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L46" t="str">
+      <c r="Q46" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M46" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R46" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N46" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O46" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43024</v>
       </c>
@@ -3325,49 +3740,58 @@
       <c r="C47">
         <v>19350</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
+        <v>43024</v>
+      </c>
+      <c r="E47">
+        <v>4568</v>
+      </c>
+      <c r="F47">
+        <v>19350</v>
+      </c>
+      <c r="G47">
         <v>15.09</v>
       </c>
-      <c r="E47">
+      <c r="H47">
         <v>21</v>
       </c>
-      <c r="F47">
+      <c r="I47">
         <v>776</v>
       </c>
-      <c r="G47">
+      <c r="J47">
         <v>351</v>
       </c>
-      <c r="H47">
+      <c r="K47">
         <v>66</v>
       </c>
-      <c r="I47">
+      <c r="L47">
         <v>85</v>
       </c>
-      <c r="J47">
+      <c r="M47">
         <v>3069</v>
       </c>
-      <c r="K47" t="str">
+      <c r="N47" t="str">
+        <f>IF(C47&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O47" t="str">
+        <f>IF(B47&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P47" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="L47" t="str">
+      <c r="Q47" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M47" t="str">
+        <v>No</v>
+      </c>
+      <c r="R47" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N47" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O47" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43025</v>
       </c>
@@ -3377,49 +3801,58 @@
       <c r="C48">
         <v>15036</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
+        <v>43025</v>
+      </c>
+      <c r="E48">
+        <v>3741</v>
+      </c>
+      <c r="F48">
+        <v>15036</v>
+      </c>
+      <c r="G48">
         <v>11.73</v>
       </c>
-      <c r="E48">
+      <c r="H48">
         <v>22</v>
       </c>
-      <c r="F48">
+      <c r="I48">
         <v>596</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>330</v>
       </c>
-      <c r="H48">
+      <c r="K48">
         <v>16</v>
       </c>
-      <c r="I48">
+      <c r="L48">
         <v>35</v>
       </c>
-      <c r="J48">
+      <c r="M48">
         <v>2091</v>
       </c>
-      <c r="K48" t="str">
+      <c r="N48" t="str">
+        <f>IF(C48&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O48" t="str">
+        <f>IF(B48&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P48" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="L48" t="str">
+      <c r="Q48" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M48" t="str">
+        <v>No</v>
+      </c>
+      <c r="R48" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N48" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O48" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43026</v>
       </c>
@@ -3429,49 +3862,58 @@
       <c r="C49">
         <v>4550</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
+        <v>43026</v>
+      </c>
+      <c r="E49">
+        <v>2708</v>
+      </c>
+      <c r="F49">
+        <v>4550</v>
+      </c>
+      <c r="G49">
         <v>3.54</v>
       </c>
-      <c r="E49">
+      <c r="H49">
         <v>6</v>
       </c>
-      <c r="F49">
+      <c r="I49">
         <v>1260</v>
       </c>
-      <c r="G49">
+      <c r="J49">
         <v>172</v>
       </c>
-      <c r="H49">
+      <c r="K49">
         <v>5</v>
       </c>
-      <c r="I49">
+      <c r="L49">
         <v>3</v>
       </c>
-      <c r="J49">
+      <c r="M49">
         <v>837</v>
       </c>
-      <c r="K49" t="str">
+      <c r="N49" t="str">
+        <f>IF(C49&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O49" t="str">
+        <f>IF(B49&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P49" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L49" t="str">
+      <c r="Q49" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M49" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R49" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N49" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O49" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43027</v>
       </c>
@@ -3481,49 +3923,58 @@
       <c r="C50">
         <v>6710</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
+        <v>43027</v>
+      </c>
+      <c r="E50">
+        <v>2915</v>
+      </c>
+      <c r="F50">
+        <v>6710</v>
+      </c>
+      <c r="G50">
         <v>5.23</v>
       </c>
-      <c r="E50">
+      <c r="H50">
         <v>3</v>
       </c>
-      <c r="F50">
+      <c r="I50">
         <v>1085</v>
       </c>
-      <c r="G50">
+      <c r="J50">
         <v>267</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
         <v>1208</v>
       </c>
-      <c r="K50" t="str">
+      <c r="N50" t="str">
+        <f>IF(C50&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O50" t="str">
+        <f>IF(B50&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P50" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L50" t="str">
+      <c r="Q50" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M50" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R50" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O50" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43028</v>
       </c>
@@ -3533,49 +3984,58 @@
       <c r="C51">
         <v>5433</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
+        <v>43028</v>
+      </c>
+      <c r="E51">
+        <v>2827</v>
+      </c>
+      <c r="F51">
+        <v>5433</v>
+      </c>
+      <c r="G51">
         <v>4.24</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>945</v>
       </c>
-      <c r="G51">
+      <c r="J51">
         <v>253</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
         <v>1069</v>
       </c>
-      <c r="K51" t="str">
+      <c r="N51" t="str">
+        <f>IF(C51&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O51" t="str">
+        <f>IF(B51&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P51" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L51" t="str">
+      <c r="Q51" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M51" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R51" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N51" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O51" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43029</v>
       </c>
@@ -3585,49 +4045,58 @@
       <c r="C52">
         <v>8824</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
+        <v>43029</v>
+      </c>
+      <c r="E52">
+        <v>3258</v>
+      </c>
+      <c r="F52">
+        <v>8824</v>
+      </c>
+      <c r="G52">
         <v>6.88</v>
       </c>
-      <c r="E52">
+      <c r="H52">
         <v>9</v>
       </c>
-      <c r="F52">
+      <c r="I52">
         <v>702</v>
       </c>
-      <c r="G52">
+      <c r="J52">
         <v>386</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
         <v>1669</v>
       </c>
-      <c r="K52" t="str">
+      <c r="N52" t="str">
+        <f>IF(C52&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O52" t="str">
+        <f>IF(B52&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P52" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="L52" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q52" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M52" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R52" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N52" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O52" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43030</v>
       </c>
@@ -3637,49 +4106,58 @@
       <c r="C53">
         <v>7760</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
+        <v>43030</v>
+      </c>
+      <c r="E53">
+        <v>3198</v>
+      </c>
+      <c r="F53">
+        <v>7760</v>
+      </c>
+      <c r="G53">
         <v>6.05</v>
       </c>
-      <c r="E53">
+      <c r="H53">
         <v>8</v>
       </c>
-      <c r="F53">
+      <c r="I53">
         <v>699</v>
       </c>
-      <c r="G53">
+      <c r="J53">
         <v>307</v>
       </c>
-      <c r="H53">
+      <c r="K53">
         <v>14</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
         <v>1449</v>
       </c>
-      <c r="K53" t="str">
+      <c r="N53" t="str">
+        <f>IF(C53&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O53" t="str">
+        <f>IF(B53&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P53" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L53" t="str">
+      <c r="Q53" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M53" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R53" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N53" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O53" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43031</v>
       </c>
@@ -3689,49 +4167,58 @@
       <c r="C54">
         <v>10208</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
+        <v>43031</v>
+      </c>
+      <c r="E54">
+        <v>3880</v>
+      </c>
+      <c r="F54">
+        <v>10208</v>
+      </c>
+      <c r="G54">
         <v>7.43</v>
       </c>
-      <c r="E54">
+      <c r="H54">
         <v>4</v>
       </c>
-      <c r="F54">
+      <c r="I54">
         <v>592</v>
       </c>
-      <c r="G54">
+      <c r="J54">
         <v>349</v>
       </c>
-      <c r="H54">
+      <c r="K54">
         <v>21</v>
       </c>
-      <c r="I54">
+      <c r="L54">
         <v>51</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>2319</v>
       </c>
-      <c r="K54" t="str">
+      <c r="N54" t="str">
+        <f>IF(C54&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O54" t="str">
+        <f>IF(B54&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P54" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="L54" t="str">
+      <c r="Q54" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M54" t="str">
+        <v>No</v>
+      </c>
+      <c r="R54" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N54" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O54" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43032</v>
       </c>
@@ -3741,49 +4228,58 @@
       <c r="C55">
         <v>6042</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
+        <v>43032</v>
+      </c>
+      <c r="E55">
+        <v>2884</v>
+      </c>
+      <c r="F55">
+        <v>6042</v>
+      </c>
+      <c r="G55">
         <v>4.71</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>822</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>278</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
         <v>1174</v>
       </c>
-      <c r="K55" t="str">
+      <c r="N55" t="str">
+        <f>IF(C55&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O55" t="str">
+        <f>IF(B55&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P55" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L55" t="str">
+      <c r="Q55" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M55" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R55" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N55" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O55" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43033</v>
       </c>
@@ -3793,49 +4289,58 @@
       <c r="C56">
         <v>10689</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
+        <v>43033</v>
+      </c>
+      <c r="E56">
+        <v>4157</v>
+      </c>
+      <c r="F56">
+        <v>10689</v>
+      </c>
+      <c r="G56">
         <v>8.0500000000000007</v>
       </c>
-      <c r="E56">
+      <c r="H56">
         <v>6</v>
       </c>
-      <c r="F56">
+      <c r="I56">
         <v>616</v>
       </c>
-      <c r="G56">
+      <c r="J56">
         <v>353</v>
       </c>
-      <c r="H56">
+      <c r="K56">
         <v>39</v>
       </c>
-      <c r="I56">
+      <c r="L56">
         <v>51</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>2559</v>
       </c>
-      <c r="K56" t="str">
+      <c r="N56" t="str">
+        <f>IF(C56&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O56" t="str">
+        <f>IF(B56&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P56" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="L56" t="str">
+      <c r="Q56" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M56" t="str">
+        <v>No</v>
+      </c>
+      <c r="R56" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N56" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O56" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43034</v>
       </c>
@@ -3845,49 +4350,58 @@
       <c r="C57">
         <v>5823</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
+        <v>43034</v>
+      </c>
+      <c r="E57">
+        <v>2895</v>
+      </c>
+      <c r="F57">
+        <v>5823</v>
+      </c>
+      <c r="G57">
         <v>4.54</v>
       </c>
-      <c r="E57">
+      <c r="H57">
         <v>1</v>
       </c>
-      <c r="F57">
+      <c r="I57">
         <v>733</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>255</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
         <v>1107</v>
       </c>
-      <c r="K57" t="str">
+      <c r="N57" t="str">
+        <f>IF(C57&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O57" t="str">
+        <f>IF(B57&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P57" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L57" t="str">
+      <c r="Q57" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M57" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R57" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N57" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O57" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43035</v>
       </c>
@@ -3897,49 +4411,58 @@
       <c r="C58">
         <v>4081</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
+        <v>43035</v>
+      </c>
+      <c r="E58">
+        <v>2686</v>
+      </c>
+      <c r="F58">
+        <v>4081</v>
+      </c>
+      <c r="G58">
         <v>3.18</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>802</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>208</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
         <v>874</v>
       </c>
-      <c r="K58" t="str">
+      <c r="N58" t="str">
+        <f>IF(C58&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O58" t="str">
+        <f>IF(B58&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P58" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L58" t="str">
+      <c r="Q58" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M58" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R58" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N58" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O58" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43036</v>
       </c>
@@ -3949,49 +4472,58 @@
       <c r="C59">
         <v>3948</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
+        <v>43036</v>
+      </c>
+      <c r="E59">
+        <v>2679</v>
+      </c>
+      <c r="F59">
+        <v>3948</v>
+      </c>
+      <c r="G59">
         <v>3.08</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>815</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>200</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
         <v>854</v>
       </c>
-      <c r="K59" t="str">
+      <c r="N59" t="str">
+        <f>IF(C59&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O59" t="str">
+        <f>IF(B59&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P59" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L59" t="str">
+      <c r="Q59" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M59" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R59" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N59" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O59" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43037</v>
       </c>
@@ -4001,49 +4533,58 @@
       <c r="C60">
         <v>5083</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
+        <v>43037</v>
+      </c>
+      <c r="E60">
+        <v>3006</v>
+      </c>
+      <c r="F60">
+        <v>5083</v>
+      </c>
+      <c r="G60">
         <v>3.96</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
         <v>809</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>250</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
         <v>1100</v>
       </c>
-      <c r="K60" t="str">
+      <c r="N60" t="str">
+        <f>IF(C60&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O60" t="str">
+        <f>IF(B60&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P60" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L60" t="str">
+      <c r="Q60" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M60" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R60" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N60" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O60" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43038</v>
       </c>
@@ -4053,49 +4594,58 @@
       <c r="C61">
         <v>9117</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
+        <v>43038</v>
+      </c>
+      <c r="E61">
+        <v>3124</v>
+      </c>
+      <c r="F61">
+        <v>9117</v>
+      </c>
+      <c r="G61">
         <v>7.46</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-      <c r="F61">
-        <v>762</v>
-      </c>
-      <c r="G61">
-        <v>220</v>
       </c>
       <c r="H61">
         <v>3</v>
       </c>
       <c r="I61">
+        <v>762</v>
+      </c>
+      <c r="J61">
+        <v>220</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
         <v>35</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>1359</v>
       </c>
-      <c r="K61" t="str">
+      <c r="N61" t="str">
+        <f>IF(C61&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O61" t="str">
+        <f>IF(B61&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P61" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="L61" t="str">
+      <c r="Q61" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="M61" t="str">
+      <c r="R61" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N61" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O61" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43039</v>
       </c>
@@ -4105,49 +4655,58 @@
       <c r="C62">
         <v>6554</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
+        <v>43039</v>
+      </c>
+      <c r="E62">
+        <v>2943</v>
+      </c>
+      <c r="F62">
+        <v>6554</v>
+      </c>
+      <c r="G62">
         <v>5.1100000000000003</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
         <v>786</v>
       </c>
-      <c r="G62">
+      <c r="J62">
         <v>269</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
         <v>1192</v>
       </c>
-      <c r="K62" t="str">
+      <c r="N62" t="str">
+        <f>IF(C62&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O62" t="str">
+        <f>IF(B62&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P62" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L62" t="str">
+      <c r="Q62" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M62" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R62" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
-      </c>
-      <c r="N62" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O62" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43040</v>
       </c>
@@ -4157,49 +4716,58 @@
       <c r="C63" s="2">
         <v>15351</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
+        <v>43040</v>
+      </c>
+      <c r="E63" s="2">
+        <v>4038</v>
+      </c>
+      <c r="F63" s="2">
+        <v>15351</v>
+      </c>
+      <c r="G63">
         <v>12.3</v>
       </c>
-      <c r="E63">
+      <c r="H63">
         <v>12</v>
       </c>
-      <c r="F63">
+      <c r="I63">
         <v>488</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>412</v>
       </c>
-      <c r="H63">
+      <c r="K63">
         <v>18</v>
       </c>
-      <c r="I63">
+      <c r="L63">
         <v>51</v>
       </c>
-      <c r="J63" s="2">
+      <c r="M63" s="2">
         <v>2486</v>
       </c>
-      <c r="K63" t="str">
+      <c r="N63" t="str">
+        <f>IF(C63&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O63" t="str">
+        <f>IF(B63&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P63" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="L63" t="str">
+      <c r="Q63" t="str">
         <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="M63" t="str">
+        <v>No</v>
+      </c>
+      <c r="R63" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="N63" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O63" t="str">
-        <f t="shared" si="4"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43041</v>
       </c>
@@ -4209,49 +4777,58 @@
       <c r="C64" s="2">
         <v>5197</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
+        <v>43041</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2831</v>
+      </c>
+      <c r="F64" s="2">
+        <v>5197</v>
+      </c>
+      <c r="G64">
         <v>4.05</v>
       </c>
-      <c r="E64">
+      <c r="H64">
         <v>1</v>
       </c>
-      <c r="F64">
+      <c r="I64">
         <v>850</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>245</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
         <v>1051</v>
       </c>
-      <c r="K64" t="str">
+      <c r="N64" t="str">
+        <f>IF(C64&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O64" t="str">
+        <f>IF(B64&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P64" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L64" t="str">
+      <c r="Q64" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M64" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R64" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N64" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O64" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43042</v>
       </c>
@@ -4261,49 +4838,58 @@
       <c r="C65" s="2">
         <v>5061</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
+        <v>43042</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2731</v>
+      </c>
+      <c r="F65" s="2">
+        <v>5061</v>
+      </c>
+      <c r="G65">
         <v>3.95</v>
       </c>
-      <c r="E65">
+      <c r="H65">
         <v>1</v>
       </c>
-      <c r="F65">
+      <c r="I65">
         <v>765</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>222</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
         <v>936</v>
       </c>
-      <c r="K65" t="str">
+      <c r="N65" t="str">
+        <f>IF(C65&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O65" t="str">
+        <f>IF(B65&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P65" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="L65" t="str">
+      <c r="Q65" t="str">
         <f t="shared" si="1"/>
-        <v>No</v>
-      </c>
-      <c r="M65" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R65" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="N65" t="str">
-        <f t="shared" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="O65" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43043</v>
       </c>
@@ -4313,49 +4899,58 @@
       <c r="C66" s="2">
         <v>5894</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
+        <v>43043</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3263</v>
+      </c>
+      <c r="F66" s="2">
+        <v>5894</v>
+      </c>
+      <c r="G66">
         <v>4.4400000000000004</v>
       </c>
-      <c r="E66">
+      <c r="H66">
         <v>6</v>
       </c>
-      <c r="F66" s="2">
+      <c r="I66" s="2">
         <v>1164</v>
       </c>
-      <c r="G66">
+      <c r="J66">
         <v>215</v>
       </c>
-      <c r="H66">
+      <c r="K66">
         <v>27</v>
       </c>
-      <c r="I66">
+      <c r="L66">
         <v>34</v>
       </c>
-      <c r="J66" s="2">
+      <c r="M66" s="2">
         <v>1517</v>
       </c>
-      <c r="K66" t="str">
+      <c r="N66" t="str">
+        <f>IF(C66&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O66" t="str">
+        <f>IF(B66&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P66" t="str">
         <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="L66" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="Q66" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="M66" t="str">
+      <c r="R66" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
-      </c>
-      <c r="N66" t="str">
-        <f t="shared" si="3"/>
-        <v>No</v>
-      </c>
-      <c r="O66" t="str">
-        <f t="shared" si="4"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43044</v>
       </c>
@@ -4365,49 +4960,58 @@
       <c r="C67" s="2">
         <v>7449</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
+        <v>43044</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3148</v>
+      </c>
+      <c r="F67" s="2">
+        <v>7449</v>
+      </c>
+      <c r="G67">
         <v>5.46</v>
       </c>
-      <c r="E67">
+      <c r="H67">
         <v>6</v>
       </c>
-      <c r="F67">
+      <c r="I67">
         <v>700</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>241</v>
       </c>
-      <c r="H67">
+      <c r="K67">
         <v>26</v>
       </c>
-      <c r="I67">
+      <c r="L67">
         <v>14</v>
       </c>
-      <c r="J67" s="2">
+      <c r="M67" s="2">
         <v>1436</v>
       </c>
-      <c r="K67" t="str">
-        <f t="shared" ref="K67:K92" si="5">IF(C67&gt;8000,"Yes","No")</f>
-        <v>No</v>
-      </c>
-      <c r="L67" t="str">
-        <f t="shared" ref="L67:L92" si="6">IF(B67&gt;3400,"Yes","No")</f>
-        <v>No</v>
-      </c>
-      <c r="M67" t="str">
-        <f t="shared" ref="M67:M92" si="7">IF(I67&gt;30,"Yes","No")</f>
-        <v>No</v>
-      </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67:N92" si="8">IF(I67+H67&lt;30,"Yes","No")</f>
+        <f>IF(C67&gt;8000,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O92" si="9">IF(D67&gt;5,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+        <f>IF(B67&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" ref="P67:P92" si="3">IF(L67&gt;30,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" ref="Q67:Q92" si="4">IF(L67+K67&lt;30,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="R67" t="str">
+        <f t="shared" ref="R67:R92" si="5">IF(G67&gt;5,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43045</v>
       </c>
@@ -4417,49 +5021,58 @@
       <c r="C68" s="2">
         <v>9041</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
+        <v>43045</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3402</v>
+      </c>
+      <c r="F68" s="2">
+        <v>9041</v>
+      </c>
+      <c r="G68">
         <v>6.8</v>
       </c>
-      <c r="E68">
+      <c r="H68">
         <v>4</v>
       </c>
-      <c r="F68">
+      <c r="I68">
         <v>784</v>
       </c>
-      <c r="G68">
+      <c r="J68">
         <v>318</v>
       </c>
-      <c r="H68">
+      <c r="K68">
         <v>21</v>
       </c>
-      <c r="I68">
+      <c r="L68">
         <v>19</v>
       </c>
-      <c r="J68" s="2">
+      <c r="M68" s="2">
         <v>1758</v>
       </c>
-      <c r="K68" t="str">
+      <c r="N68" t="str">
+        <f>IF(C68&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O68" t="str">
+        <f>IF(B68&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R68" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L68" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M68" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
-      <c r="N68" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O68" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43046</v>
       </c>
@@ -4469,49 +5082,58 @@
       <c r="C69" s="2">
         <v>2322</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
+        <v>43046</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2423</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2322</v>
+      </c>
+      <c r="G69">
         <v>1.81</v>
       </c>
-      <c r="E69">
+      <c r="H69">
         <v>1</v>
       </c>
-      <c r="F69">
+      <c r="I69">
         <v>821</v>
       </c>
-      <c r="G69">
+      <c r="J69">
         <v>105</v>
       </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
         <v>457</v>
       </c>
-      <c r="K69" t="str">
+      <c r="N69" t="str">
+        <f>IF(C69&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O69" t="str">
+        <f>IF(B69&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="R69" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="L69" t="str">
-        <f t="shared" si="6"/>
-        <v>No</v>
-      </c>
-      <c r="M69" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
-      <c r="N69" t="str">
-        <f t="shared" si="8"/>
-        <v>Yes</v>
-      </c>
-      <c r="O69" t="str">
-        <f t="shared" si="9"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43047</v>
       </c>
@@ -4521,49 +5143,58 @@
       <c r="C70" s="2">
         <v>7867</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
+        <v>43047</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3454</v>
+      </c>
+      <c r="F70" s="2">
+        <v>7867</v>
+      </c>
+      <c r="G70">
         <v>5.8</v>
       </c>
-      <c r="E70">
+      <c r="H70">
         <v>8</v>
       </c>
-      <c r="F70">
+      <c r="I70">
         <v>702</v>
       </c>
-      <c r="G70">
+      <c r="J70">
         <v>265</v>
       </c>
-      <c r="H70">
+      <c r="K70">
         <v>20</v>
       </c>
-      <c r="I70">
+      <c r="L70">
         <v>36</v>
       </c>
-      <c r="J70" s="2">
+      <c r="M70" s="2">
         <v>1727</v>
       </c>
-      <c r="K70" t="str">
+      <c r="N70" t="str">
+        <f>IF(C70&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O70" t="str">
+        <f>IF(B70&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R70" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
-      </c>
-      <c r="L70" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M70" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N70" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O70" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43048</v>
       </c>
@@ -4573,49 +5204,58 @@
       <c r="C71" s="2">
         <v>7820</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
+        <v>43048</v>
+      </c>
+      <c r="E71" s="2">
+        <v>3360</v>
+      </c>
+      <c r="F71" s="2">
+        <v>7820</v>
+      </c>
+      <c r="G71">
         <v>5.89</v>
       </c>
-      <c r="E71">
+      <c r="H71">
         <v>4</v>
       </c>
-      <c r="F71">
+      <c r="I71">
         <v>725</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>272</v>
       </c>
-      <c r="H71">
+      <c r="K71">
         <v>34</v>
       </c>
-      <c r="I71">
+      <c r="L71">
         <v>24</v>
       </c>
-      <c r="J71" s="2">
+      <c r="M71" s="2">
         <v>1674</v>
       </c>
-      <c r="K71" t="str">
+      <c r="N71" t="str">
+        <f>IF(C71&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O71" t="str">
+        <f>IF(B71&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R71" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
-      </c>
-      <c r="L71" t="str">
-        <f t="shared" si="6"/>
-        <v>No</v>
-      </c>
-      <c r="M71" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
-      <c r="N71" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O71" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43049</v>
       </c>
@@ -4625,49 +5265,58 @@
       <c r="C72" s="2">
         <v>8588</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
+        <v>43049</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3192</v>
+      </c>
+      <c r="F72" s="2">
+        <v>8588</v>
+      </c>
+      <c r="G72">
         <v>6.7</v>
       </c>
-      <c r="E72">
+      <c r="H72">
         <v>1</v>
       </c>
-      <c r="F72">
+      <c r="I72">
         <v>664</v>
       </c>
-      <c r="G72">
+      <c r="J72">
         <v>371</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72" s="2">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
         <v>1606</v>
       </c>
-      <c r="K72" t="str">
+      <c r="N72" t="str">
+        <f>IF(C72&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O72" t="str">
+        <f>IF(B72&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="R72" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L72" t="str">
-        <f t="shared" si="6"/>
-        <v>No</v>
-      </c>
-      <c r="M72" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
-      <c r="N72" t="str">
-        <f t="shared" si="8"/>
-        <v>Yes</v>
-      </c>
-      <c r="O72" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43050</v>
       </c>
@@ -4677,49 +5326,58 @@
       <c r="C73" s="2">
         <v>8069</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
+        <v>43050</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3773</v>
+      </c>
+      <c r="F73" s="2">
+        <v>8069</v>
+      </c>
+      <c r="G73">
         <v>6.16</v>
       </c>
-      <c r="E73">
+      <c r="H73">
         <v>6</v>
       </c>
-      <c r="F73">
+      <c r="I73">
         <v>568</v>
       </c>
-      <c r="G73">
+      <c r="J73">
         <v>327</v>
       </c>
-      <c r="H73">
+      <c r="K73">
         <v>34</v>
       </c>
-      <c r="I73">
+      <c r="L73">
         <v>39</v>
       </c>
-      <c r="J73" s="2">
+      <c r="M73" s="2">
         <v>2146</v>
       </c>
-      <c r="K73" t="str">
+      <c r="N73" t="str">
+        <f>IF(C73&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O73" t="str">
+        <f>IF(B73&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R73" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L73" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M73" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N73" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O73" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43051</v>
       </c>
@@ -4729,49 +5387,58 @@
       <c r="C74" s="2">
         <v>8482</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
+        <v>43051</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3369</v>
+      </c>
+      <c r="F74" s="2">
+        <v>8482</v>
+      </c>
+      <c r="G74">
         <v>6.41</v>
       </c>
-      <c r="E74">
+      <c r="H74">
         <v>6</v>
       </c>
-      <c r="F74">
+      <c r="I74">
         <v>645</v>
       </c>
-      <c r="G74">
+      <c r="J74">
         <v>254</v>
       </c>
-      <c r="H74">
+      <c r="K74">
         <v>20</v>
       </c>
-      <c r="I74">
+      <c r="L74">
         <v>31</v>
       </c>
-      <c r="J74" s="2">
+      <c r="M74" s="2">
         <v>1689</v>
       </c>
-      <c r="K74" t="str">
+      <c r="N74" t="str">
+        <f>IF(C74&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O74" t="str">
+        <f>IF(B74&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R74" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L74" t="str">
-        <f t="shared" si="6"/>
-        <v>No</v>
-      </c>
-      <c r="M74" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N74" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O74" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43052</v>
       </c>
@@ -4781,49 +5448,58 @@
       <c r="C75" s="2">
         <v>13500</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
+        <v>43052</v>
+      </c>
+      <c r="E75" s="2">
+        <v>4112</v>
+      </c>
+      <c r="F75" s="2">
+        <v>13500</v>
+      </c>
+      <c r="G75">
         <v>10.39</v>
       </c>
-      <c r="E75">
+      <c r="H75">
         <v>7</v>
       </c>
-      <c r="F75">
+      <c r="I75">
         <v>570</v>
       </c>
-      <c r="G75">
+      <c r="J75">
         <v>353</v>
       </c>
-      <c r="H75">
+      <c r="K75">
         <v>35</v>
       </c>
-      <c r="I75">
+      <c r="L75">
         <v>56</v>
       </c>
-      <c r="J75" s="2">
+      <c r="M75" s="2">
         <v>2597</v>
       </c>
-      <c r="K75" t="str">
+      <c r="N75" t="str">
+        <f>IF(C75&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O75" t="str">
+        <f>IF(B75&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R75" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L75" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M75" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N75" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O75" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43053</v>
       </c>
@@ -4833,49 +5509,58 @@
       <c r="C76" s="2">
         <v>16888</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
+        <v>43053</v>
+      </c>
+      <c r="E76" s="2">
+        <v>4622</v>
+      </c>
+      <c r="F76" s="2">
+        <v>16888</v>
+      </c>
+      <c r="G76">
         <v>13.04</v>
       </c>
-      <c r="E76">
+      <c r="H76">
         <v>5</v>
       </c>
-      <c r="F76">
+      <c r="I76">
         <v>484</v>
       </c>
-      <c r="G76">
+      <c r="J76">
         <v>449</v>
       </c>
-      <c r="H76">
+      <c r="K76">
         <v>32</v>
       </c>
-      <c r="I76">
+      <c r="L76">
         <v>70</v>
       </c>
-      <c r="J76" s="2">
+      <c r="M76" s="2">
         <v>3246</v>
       </c>
-      <c r="K76" t="str">
+      <c r="N76" t="str">
+        <f>IF(C76&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O76" t="str">
+        <f>IF(B76&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R76" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L76" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M76" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N76" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O76" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43054</v>
       </c>
@@ -4885,49 +5570,58 @@
       <c r="C77" s="2">
         <v>9599</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
+        <v>43054</v>
+      </c>
+      <c r="E77" s="2">
+        <v>3349</v>
+      </c>
+      <c r="F77" s="2">
+        <v>9599</v>
+      </c>
+      <c r="G77">
         <v>7.49</v>
       </c>
-      <c r="E77">
+      <c r="H77">
         <v>1</v>
       </c>
-      <c r="F77">
+      <c r="I77">
         <v>507</v>
       </c>
-      <c r="G77">
+      <c r="J77">
         <v>421</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2">
         <v>1823</v>
       </c>
-      <c r="K77" t="str">
+      <c r="N77" t="str">
+        <f>IF(C77&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O77" t="str">
+        <f>IF(B77&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="R77" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L77" t="str">
-        <f t="shared" si="6"/>
-        <v>No</v>
-      </c>
-      <c r="M77" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
-      <c r="N77" t="str">
-        <f t="shared" si="8"/>
-        <v>Yes</v>
-      </c>
-      <c r="O77" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43055</v>
       </c>
@@ -4937,49 +5631,58 @@
       <c r="C78" s="2">
         <v>10091</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
+        <v>43055</v>
+      </c>
+      <c r="E78" s="2">
+        <v>3821</v>
+      </c>
+      <c r="F78" s="2">
+        <v>10091</v>
+      </c>
+      <c r="G78">
         <v>7.47</v>
       </c>
-      <c r="E78">
+      <c r="H78">
         <v>7</v>
       </c>
-      <c r="F78">
+      <c r="I78">
         <v>796</v>
       </c>
-      <c r="G78">
+      <c r="J78">
         <v>337</v>
       </c>
-      <c r="H78">
+      <c r="K78">
         <v>33</v>
       </c>
-      <c r="I78">
+      <c r="L78">
         <v>50</v>
       </c>
-      <c r="J78" s="2">
+      <c r="M78" s="2">
         <v>2282</v>
       </c>
-      <c r="K78" t="str">
+      <c r="N78" t="str">
+        <f>IF(C78&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O78" t="str">
+        <f>IF(B78&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R78" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L78" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M78" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N78" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O78" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43056</v>
       </c>
@@ -4989,49 +5692,58 @@
       <c r="C79" s="2">
         <v>13565</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
+        <v>43056</v>
+      </c>
+      <c r="E79" s="2">
+        <v>4066</v>
+      </c>
+      <c r="F79" s="2">
+        <v>13565</v>
+      </c>
+      <c r="G79">
         <v>10.46</v>
       </c>
-      <c r="E79">
+      <c r="H79">
         <v>8</v>
       </c>
-      <c r="F79">
+      <c r="I79">
         <v>520</v>
       </c>
-      <c r="G79">
+      <c r="J79">
         <v>412</v>
       </c>
-      <c r="H79">
+      <c r="K79">
         <v>23</v>
       </c>
-      <c r="I79">
+      <c r="L79">
         <v>45</v>
       </c>
-      <c r="J79" s="2">
+      <c r="M79" s="2">
         <v>2602</v>
       </c>
-      <c r="K79" t="str">
+      <c r="N79" t="str">
+        <f>IF(C79&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O79" t="str">
+        <f>IF(B79&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R79" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L79" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M79" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N79" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O79" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43057</v>
       </c>
@@ -5041,49 +5753,58 @@
       <c r="C80" s="2">
         <v>5920</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
+        <v>43057</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2987</v>
+      </c>
+      <c r="F80" s="2">
+        <v>5920</v>
+      </c>
+      <c r="G80">
         <v>4.62</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>696</v>
       </c>
-      <c r="G80">
+      <c r="J80">
         <v>312</v>
       </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
         <v>1296</v>
       </c>
-      <c r="K80" t="str">
+      <c r="N80" t="str">
+        <f>IF(C80&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O80" t="str">
+        <f>IF(B80&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="R80" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="L80" t="str">
-        <f t="shared" si="6"/>
-        <v>No</v>
-      </c>
-      <c r="M80" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
-      <c r="N80" t="str">
-        <f t="shared" si="8"/>
-        <v>Yes</v>
-      </c>
-      <c r="O80" t="str">
-        <f t="shared" si="9"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43058</v>
       </c>
@@ -5093,49 +5814,58 @@
       <c r="C81" s="2">
         <v>6708</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
+        <v>43058</v>
+      </c>
+      <c r="E81" s="2">
+        <v>3106</v>
+      </c>
+      <c r="F81" s="2">
+        <v>6708</v>
+      </c>
+      <c r="G81">
         <v>4.95</v>
       </c>
-      <c r="E81">
+      <c r="H81">
         <v>6</v>
       </c>
-      <c r="F81">
+      <c r="I81">
         <v>758</v>
       </c>
-      <c r="G81">
+      <c r="J81">
         <v>228</v>
       </c>
-      <c r="H81">
+      <c r="K81">
         <v>27</v>
       </c>
-      <c r="I81">
+      <c r="L81">
         <v>19</v>
       </c>
-      <c r="J81" s="2">
+      <c r="M81" s="2">
         <v>1396</v>
       </c>
-      <c r="K81" t="str">
+      <c r="N81" t="str">
+        <f>IF(C81&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O81" t="str">
+        <f>IF(B81&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R81" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="L81" t="str">
-        <f t="shared" si="6"/>
-        <v>No</v>
-      </c>
-      <c r="M81" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
-      <c r="N81" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O81" t="str">
-        <f t="shared" si="9"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43059</v>
       </c>
@@ -5145,49 +5875,58 @@
       <c r="C82" s="2">
         <v>11094</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
+        <v>43059</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3975</v>
+      </c>
+      <c r="F82" s="2">
+        <v>11094</v>
+      </c>
+      <c r="G82">
         <v>8.56</v>
       </c>
-      <c r="E82">
+      <c r="H82">
         <v>6</v>
       </c>
-      <c r="F82">
+      <c r="I82">
         <v>618</v>
       </c>
-      <c r="G82">
+      <c r="J82">
         <v>292</v>
       </c>
-      <c r="H82">
+      <c r="K82">
         <v>30</v>
       </c>
-      <c r="I82">
+      <c r="L82">
         <v>66</v>
       </c>
-      <c r="J82" s="2">
+      <c r="M82" s="2">
         <v>2341</v>
       </c>
-      <c r="K82" t="str">
+      <c r="N82" t="str">
+        <f>IF(C82&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O82" t="str">
+        <f>IF(B82&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R82" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L82" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M82" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N82" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O82" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43060</v>
       </c>
@@ -5197,49 +5936,58 @@
       <c r="C83" s="2">
         <v>9984</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
+        <v>43060</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3897</v>
+      </c>
+      <c r="F83" s="2">
+        <v>9984</v>
+      </c>
+      <c r="G83">
         <v>7.8</v>
       </c>
-      <c r="E83">
+      <c r="H83">
         <v>7</v>
       </c>
-      <c r="F83">
+      <c r="I83">
         <v>682</v>
       </c>
-      <c r="G83">
+      <c r="J83">
         <v>285</v>
       </c>
-      <c r="H83">
+      <c r="K83">
         <v>12</v>
       </c>
-      <c r="I83">
+      <c r="L83">
         <v>73</v>
       </c>
-      <c r="J83" s="2">
+      <c r="M83" s="2">
         <v>2236</v>
       </c>
-      <c r="K83" t="str">
+      <c r="N83" t="str">
+        <f>IF(C83&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O83" t="str">
+        <f>IF(B83&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R83" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L83" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M83" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N83" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O83" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43061</v>
       </c>
@@ -5249,49 +5997,58 @@
       <c r="C84" s="2">
         <v>7346</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
+        <v>43061</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3063</v>
+      </c>
+      <c r="F84" s="2">
+        <v>7346</v>
+      </c>
+      <c r="G84">
         <v>5.73</v>
       </c>
-      <c r="E84">
+      <c r="H84">
         <v>15</v>
       </c>
-      <c r="F84">
+      <c r="I84">
         <v>713</v>
       </c>
-      <c r="G84">
+      <c r="J84">
         <v>302</v>
       </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2">
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
         <v>1351</v>
       </c>
-      <c r="K84" t="str">
+      <c r="N84" t="str">
+        <f>IF(C84&gt;8000,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O84" t="str">
+        <f>IF(B84&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="R84" t="str">
         <f t="shared" si="5"/>
-        <v>No</v>
-      </c>
-      <c r="L84" t="str">
-        <f t="shared" si="6"/>
-        <v>No</v>
-      </c>
-      <c r="M84" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
-      <c r="N84" t="str">
-        <f t="shared" si="8"/>
-        <v>Yes</v>
-      </c>
-      <c r="O84" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43062</v>
       </c>
@@ -5301,49 +6058,58 @@
       <c r="C85" s="2">
         <v>12596</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
+        <v>43062</v>
+      </c>
+      <c r="E85" s="2">
+        <v>3889</v>
+      </c>
+      <c r="F85" s="2">
+        <v>12596</v>
+      </c>
+      <c r="G85">
         <v>9.4499999999999993</v>
       </c>
-      <c r="E85">
+      <c r="H85">
         <v>11</v>
       </c>
-      <c r="F85">
+      <c r="I85">
         <v>570</v>
       </c>
-      <c r="G85">
+      <c r="J85">
         <v>394</v>
       </c>
-      <c r="H85">
+      <c r="K85">
         <v>37</v>
       </c>
-      <c r="I85">
+      <c r="L85">
         <v>27</v>
       </c>
-      <c r="J85" s="2">
+      <c r="M85" s="2">
         <v>2381</v>
       </c>
-      <c r="K85" t="str">
+      <c r="N85" t="str">
+        <f>IF(C85&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O85" t="str">
+        <f>IF(B85&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R85" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L85" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M85" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
-      <c r="N85" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O85" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43063</v>
       </c>
@@ -5353,49 +6119,58 @@
       <c r="C86" s="2">
         <v>9755</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
+        <v>43063</v>
+      </c>
+      <c r="E86" s="2">
+        <v>3617</v>
+      </c>
+      <c r="F86" s="2">
+        <v>9755</v>
+      </c>
+      <c r="G86">
         <v>7.52</v>
       </c>
-      <c r="E86">
+      <c r="H86">
         <v>5</v>
       </c>
-      <c r="F86">
+      <c r="I86">
         <v>679</v>
       </c>
-      <c r="G86">
+      <c r="J86">
         <v>265</v>
       </c>
-      <c r="H86">
+      <c r="K86">
         <v>26</v>
       </c>
-      <c r="I86">
+      <c r="L86">
         <v>49</v>
       </c>
-      <c r="J86" s="2">
+      <c r="M86" s="2">
         <v>1967</v>
       </c>
-      <c r="K86" t="str">
+      <c r="N86" t="str">
+        <f>IF(C86&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O86" t="str">
+        <f>IF(B86&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R86" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L86" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M86" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N86" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O86" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43064</v>
       </c>
@@ -5405,49 +6180,58 @@
       <c r="C87" s="2">
         <v>13141</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
+        <v>43064</v>
+      </c>
+      <c r="E87" s="2">
+        <v>4028</v>
+      </c>
+      <c r="F87" s="2">
+        <v>13141</v>
+      </c>
+      <c r="G87">
         <v>9.86</v>
       </c>
-      <c r="E87">
+      <c r="H87">
         <v>7</v>
       </c>
-      <c r="F87">
+      <c r="I87">
         <v>560</v>
       </c>
-      <c r="G87">
+      <c r="J87">
         <v>415</v>
       </c>
-      <c r="H87">
+      <c r="K87">
         <v>33</v>
       </c>
-      <c r="I87">
+      <c r="L87">
         <v>43</v>
       </c>
-      <c r="J87" s="2">
+      <c r="M87" s="2">
         <v>2565</v>
       </c>
-      <c r="K87" t="str">
+      <c r="N87" t="str">
+        <f>IF(C87&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O87" t="str">
+        <f>IF(B87&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R87" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L87" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M87" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N87" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O87" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43065</v>
       </c>
@@ -5457,49 +6241,58 @@
       <c r="C88" s="2">
         <v>10559</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
+        <v>43065</v>
+      </c>
+      <c r="E88" s="2">
+        <v>3372</v>
+      </c>
+      <c r="F88" s="2">
+        <v>10559</v>
+      </c>
+      <c r="G88">
         <v>8.24</v>
       </c>
-      <c r="E88">
+      <c r="H88">
         <v>3</v>
       </c>
-      <c r="F88">
+      <c r="I88">
         <v>774</v>
       </c>
-      <c r="G88">
+      <c r="J88">
         <v>370</v>
       </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2">
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
         <v>1741</v>
       </c>
-      <c r="K88" t="str">
+      <c r="N88" t="str">
+        <f>IF(C88&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O88" t="str">
+        <f>IF(B88&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="R88" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L88" t="str">
-        <f t="shared" si="6"/>
-        <v>No</v>
-      </c>
-      <c r="M88" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
-      <c r="N88" t="str">
-        <f t="shared" si="8"/>
-        <v>Yes</v>
-      </c>
-      <c r="O88" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43066</v>
       </c>
@@ -5509,49 +6302,58 @@
       <c r="C89" s="2">
         <v>10634</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
+        <v>43066</v>
+      </c>
+      <c r="E89" s="2">
+        <v>3712</v>
+      </c>
+      <c r="F89" s="2">
+        <v>10634</v>
+      </c>
+      <c r="G89">
         <v>7.94</v>
       </c>
-      <c r="E89">
+      <c r="H89">
         <v>5</v>
       </c>
-      <c r="F89">
+      <c r="I89">
         <v>531</v>
       </c>
-      <c r="G89">
+      <c r="J89">
         <v>318</v>
       </c>
-      <c r="H89">
+      <c r="K89">
         <v>32</v>
       </c>
-      <c r="I89">
+      <c r="L89">
         <v>50</v>
       </c>
-      <c r="J89" s="2">
+      <c r="M89" s="2">
         <v>2146</v>
       </c>
-      <c r="K89" t="str">
+      <c r="N89" t="str">
+        <f>IF(C89&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O89" t="str">
+        <f>IF(B89&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R89" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L89" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M89" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N89" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O89" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43067</v>
       </c>
@@ -5561,49 +6363,58 @@
       <c r="C90" s="2">
         <v>15373</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
+        <v>43067</v>
+      </c>
+      <c r="E90" s="2">
+        <v>4376</v>
+      </c>
+      <c r="F90" s="2">
+        <v>15373</v>
+      </c>
+      <c r="G90">
         <v>11.87</v>
       </c>
-      <c r="E90">
+      <c r="H90">
         <v>6</v>
       </c>
-      <c r="F90">
+      <c r="I90">
         <v>526</v>
       </c>
-      <c r="G90">
+      <c r="J90">
         <v>409</v>
       </c>
-      <c r="H90">
+      <c r="K90">
         <v>17</v>
       </c>
-      <c r="I90">
+      <c r="L90">
         <v>83</v>
       </c>
-      <c r="J90" s="2">
+      <c r="M90" s="2">
         <v>2954</v>
       </c>
-      <c r="K90" t="str">
+      <c r="N90" t="str">
+        <f>IF(C90&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O90" t="str">
+        <f>IF(B90&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R90" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L90" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M90" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N90" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O90" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43068</v>
       </c>
@@ -5613,49 +6424,58 @@
       <c r="C91" s="2">
         <v>9700</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
+        <v>43068</v>
+      </c>
+      <c r="E91" s="2">
+        <v>3411</v>
+      </c>
+      <c r="F91" s="2">
+        <v>9700</v>
+      </c>
+      <c r="G91">
         <v>7.57</v>
       </c>
-      <c r="E91">
+      <c r="H91">
         <v>1</v>
       </c>
-      <c r="F91">
+      <c r="I91">
         <v>577</v>
       </c>
-      <c r="G91">
+      <c r="J91">
         <v>454</v>
       </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" s="2">
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
         <v>1917</v>
       </c>
-      <c r="K91" t="str">
+      <c r="N91" t="str">
+        <f>IF(C91&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O91" t="str">
+        <f>IF(B91&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="Q91" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="R91" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="L91" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M91" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
-      <c r="N91" t="str">
-        <f t="shared" si="8"/>
-        <v>Yes</v>
-      </c>
-      <c r="O91" t="str">
-        <f t="shared" si="9"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43069</v>
       </c>
@@ -5665,45 +6485,54 @@
       <c r="C92" s="2">
         <v>15834</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
+        <v>43069</v>
+      </c>
+      <c r="E92" s="2">
+        <v>4445</v>
+      </c>
+      <c r="F92" s="2">
+        <v>15834</v>
+      </c>
+      <c r="G92">
         <v>11.91</v>
       </c>
-      <c r="E92">
+      <c r="H92">
         <v>8</v>
       </c>
-      <c r="F92">
+      <c r="I92">
         <v>389</v>
       </c>
-      <c r="G92">
+      <c r="J92">
         <v>486</v>
       </c>
-      <c r="H92">
+      <c r="K92">
         <v>36</v>
       </c>
-      <c r="I92">
+      <c r="L92">
         <v>60</v>
       </c>
-      <c r="J92" s="2">
+      <c r="M92" s="2">
         <v>3139</v>
       </c>
-      <c r="K92" t="str">
+      <c r="N92" t="str">
+        <f>IF(C92&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O92" t="str">
+        <f>IF(B92&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="R92" t="str">
         <f t="shared" si="5"/>
-        <v>Yes</v>
-      </c>
-      <c r="L92" t="str">
-        <f t="shared" si="6"/>
-        <v>Yes</v>
-      </c>
-      <c r="M92" t="str">
-        <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="N92" t="str">
-        <f t="shared" si="8"/>
-        <v>No</v>
-      </c>
-      <c r="O92" t="str">
-        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
     </row>

--- a/datasets/TotalExercise.xlsx
+++ b/datasets/TotalExercise.xlsx
@@ -547,10 +547,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -909,14 +910,14 @@
   <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
@@ -998,39 +999,39 @@
       <c r="D2" s="1">
         <v>42979</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>3721</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>13030</v>
       </c>
       <c r="G2">
         <v>9.91</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>498</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>460</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>13</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>2266</v>
       </c>
       <c r="N2" t="str">
-        <f>IF(C2&gt;8000,"Yes","No")</f>
+        <f t="shared" ref="N2:N33" si="0">IF(C2&gt;8000,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="O2" t="str">
-        <f>IF(B2&gt;3400,"Yes","No")</f>
+        <f t="shared" ref="O2:O33" si="1">IF(B2&gt;3400,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="P2" t="str">
@@ -1059,51 +1060,51 @@
       <c r="D3" s="1">
         <v>42980</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>3015</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>8147</v>
       </c>
       <c r="G3">
         <v>6.35</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>732</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>223</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>32</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>1245</v>
       </c>
       <c r="N3" t="str">
-        <f>IF(C3&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O3" t="str">
-        <f>IF(B3&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P66" si="0">IF(L3&gt;30,"Yes","No")</f>
+        <f t="shared" ref="P3:P66" si="2">IF(L3&gt;30,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q66" si="1">IF(L3+K3&lt;30,"Yes","No")</f>
+        <f t="shared" ref="Q3:Q66" si="3">IF(L3+K3&lt;30,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R66" si="2">IF(G3&gt;5,"Yes","No")</f>
+        <f t="shared" ref="R3:R66" si="4">IF(G3&gt;5,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1120,51 +1121,51 @@
       <c r="D4" s="1">
         <v>42981</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>3837</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>13857</v>
       </c>
       <c r="G4">
         <v>10.79</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>480</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>414</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>26</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>25</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>2379</v>
       </c>
       <c r="N4" t="str">
-        <f>IF(C4&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O4" t="str">
-        <f>IF(B4&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1181,51 +1182,51 @@
       <c r="D5" s="1">
         <v>42982</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>4274</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>12846</v>
       </c>
       <c r="G5">
         <v>9.7899999999999991</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>8</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>593</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>334</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>18</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>87</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>2757</v>
       </c>
       <c r="N5" t="str">
-        <f>IF(C5&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O5" t="str">
-        <f>IF(B5&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1242,51 +1243,51 @@
       <c r="D6" s="1">
         <v>42983</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>3519</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>11041</v>
       </c>
       <c r="G6">
         <v>8.6199999999999992</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>7</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>1044</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>380</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>6</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>1947</v>
       </c>
       <c r="N6" t="str">
-        <f>IF(C6&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O6" t="str">
-        <f>IF(B6&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1303,51 +1304,51 @@
       <c r="D7" s="1">
         <v>42984</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>3062</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>7639</v>
       </c>
       <c r="G7">
         <v>5.96</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>697</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>326</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
         <v>1398</v>
       </c>
       <c r="N7" t="str">
-        <f>IF(C7&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O7" t="str">
-        <f>IF(B7&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1364,51 +1365,51 @@
       <c r="D8" s="1">
         <v>42985</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>4091</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>12523</v>
       </c>
       <c r="G8">
         <v>9.27</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>620</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>295</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>42</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>77</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>2530</v>
       </c>
       <c r="N8" t="str">
-        <f>IF(C8&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O8" t="str">
-        <f>IF(B8&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1425,51 +1426,51 @@
       <c r="D9" s="1">
         <v>42986</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>3480</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>8540</v>
       </c>
       <c r="G9">
         <v>6.34</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>666</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>258</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>32</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>36</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>1776</v>
       </c>
       <c r="N9" t="str">
-        <f>IF(C9&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O9" t="str">
-        <f>IF(B9&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1486,51 +1487,51 @@
       <c r="D10" s="1">
         <v>42987</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>3139</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>8436</v>
       </c>
       <c r="G10">
         <v>6.58</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>4</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>624</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>347</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>1508</v>
       </c>
       <c r="N10" t="str">
-        <f>IF(C10&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O10" t="str">
-        <f>IF(B10&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1547,51 +1548,51 @@
       <c r="D11" s="1">
         <v>42988</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>2998</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>6921</v>
       </c>
       <c r="G11">
         <v>5.2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>5</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>693</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>254</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>9</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>9</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>1304</v>
       </c>
       <c r="N11" t="str">
-        <f>IF(C11&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O11" t="str">
-        <f>IF(B11&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1608,51 +1609,51 @@
       <c r="D12" s="1">
         <v>42989</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>3793</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>12009</v>
       </c>
       <c r="G12">
         <v>8.91</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>11</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>595</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>326</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>31</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>45</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>2186</v>
       </c>
       <c r="N12" t="str">
-        <f>IF(C12&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O12" t="str">
-        <f>IF(B12&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1669,51 +1670,51 @@
       <c r="D13" s="1">
         <v>42990</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>3109</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>7696</v>
       </c>
       <c r="G13">
         <v>6</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <v>708</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>335</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
         <v>1453</v>
       </c>
       <c r="N13" t="str">
-        <f>IF(C13&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O13" t="str">
-        <f>IF(B13&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1730,51 +1731,51 @@
       <c r="D14" s="1">
         <v>42991</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>4006</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>11483</v>
       </c>
       <c r="G14">
         <v>8.48</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>14</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>596</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>312</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>37</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>60</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <v>2394</v>
       </c>
       <c r="N14" t="str">
-        <f>IF(C14&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O14" t="str">
-        <f>IF(B14&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1791,51 +1792,51 @@
       <c r="D15" s="1">
         <v>42992</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>3573</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>10634</v>
       </c>
       <c r="G15">
         <v>8.07</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>10</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>600</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>328</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>19</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>29</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>1940</v>
       </c>
       <c r="N15" t="str">
-        <f>IF(C15&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O15" t="str">
-        <f>IF(B15&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1852,51 +1853,51 @@
       <c r="D16" s="1">
         <v>42993</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>3102</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>8198</v>
       </c>
       <c r="G16">
         <v>6.39</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>645</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>343</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
         <v>1473</v>
       </c>
       <c r="N16" t="str">
-        <f>IF(C16&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O16" t="str">
-        <f>IF(B16&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1913,51 +1914,51 @@
       <c r="D17" s="1">
         <v>42994</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>2190</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>975</v>
       </c>
       <c r="G17">
         <v>0.76</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>922</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>45</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>197</v>
       </c>
       <c r="N17" t="str">
-        <f>IF(C17&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O17" t="str">
-        <f>IF(B17&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -1974,51 +1975,51 @@
       <c r="D18" s="1">
         <v>42995</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>2710</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>4870</v>
       </c>
       <c r="G18">
         <v>3.8</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>1226</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>214</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>904</v>
       </c>
       <c r="N18" t="str">
-        <f>IF(C18&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O18" t="str">
-        <f>IF(B18&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -2035,51 +2036,51 @@
       <c r="D19" s="1">
         <v>42996</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>3158</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>9510</v>
       </c>
       <c r="G19">
         <v>7.42</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <v>706</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>333</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
         <v>1514</v>
       </c>
       <c r="N19" t="str">
-        <f>IF(C19&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O19" t="str">
-        <f>IF(B19&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -2096,51 +2097,51 @@
       <c r="D20" s="1">
         <v>42997</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>3771</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>9901</v>
       </c>
       <c r="G20">
         <v>7.49</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>4</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>305</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>31</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>48</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>2149</v>
       </c>
       <c r="N20" t="str">
-        <f>IF(C20&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O20" t="str">
-        <f>IF(B20&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -2157,51 +2158,51 @@
       <c r="D21" s="1">
         <v>42998</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>2694</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>4106</v>
       </c>
       <c r="G21">
         <v>3.2</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>862</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>211</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>868</v>
       </c>
       <c r="N21" t="str">
-        <f>IF(C21&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O21" t="str">
-        <f>IF(B21&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -2218,51 +2219,51 @@
       <c r="D22" s="1">
         <v>42999</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>3477</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>9664</v>
       </c>
       <c r="G22">
         <v>7.38</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>4</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>613</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>329</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>12</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>19</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>1843</v>
       </c>
       <c r="N22" t="str">
-        <f>IF(C22&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O22" t="str">
-        <f>IF(B22&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -2279,51 +2280,51 @@
       <c r="D23" s="1">
         <v>43000</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>2736</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>4428</v>
       </c>
       <c r="G23">
         <v>3.45</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>772</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>217</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>916</v>
       </c>
       <c r="N23" t="str">
-        <f>IF(C23&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O23" t="str">
-        <f>IF(B23&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -2340,51 +2341,51 @@
       <c r="D24" s="1">
         <v>43001</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>2816</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>4994</v>
       </c>
       <c r="G24">
         <v>3.9</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>1</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>1062</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>230</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>1003</v>
       </c>
       <c r="N24" t="str">
-        <f>IF(C24&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O24" t="str">
-        <f>IF(B24&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -2401,51 +2402,51 @@
       <c r="D25" s="1">
         <v>43002</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>3168</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>7123</v>
       </c>
       <c r="G25">
         <v>5.35</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>7</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>797</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>126</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>34</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>48</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="3">
         <v>1366</v>
       </c>
       <c r="N25" t="str">
-        <f>IF(C25&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O25" t="str">
-        <f>IF(B25&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -2462,51 +2463,51 @@
       <c r="D26" s="1">
         <v>43003</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>3034</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>5370</v>
       </c>
       <c r="G26">
         <v>3.92</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>8</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>820</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>86</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>31</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>48</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="3">
         <v>1144</v>
       </c>
       <c r="N26" t="str">
-        <f>IF(C26&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O26" t="str">
-        <f>IF(B26&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -2523,51 +2524,51 @@
       <c r="D27" s="1">
         <v>43004</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>2997</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>7118</v>
       </c>
       <c r="G27">
         <v>5.55</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>743</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>271</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>1222</v>
       </c>
       <c r="N27" t="str">
-        <f>IF(C27&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O27" t="str">
-        <f>IF(B27&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -2584,51 +2585,51 @@
       <c r="D28" s="1">
         <v>43005</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>4184</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>5788</v>
       </c>
       <c r="G28">
         <v>4.51</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>8</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>993</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>397</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>25</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>25</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="3">
         <v>2534</v>
       </c>
       <c r="N28" t="str">
-        <f>IF(C28&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O28" t="str">
-        <f>IF(B28&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -2645,51 +2646,51 @@
       <c r="D29" s="1">
         <v>43006</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>2990</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>6336</v>
       </c>
       <c r="G29">
         <v>4.9400000000000004</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>6</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>1171</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>186</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>6</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>13</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="3">
         <v>1046</v>
       </c>
       <c r="N29" t="str">
-        <f>IF(C29&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O29" t="str">
-        <f>IF(B29&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -2706,51 +2707,51 @@
       <c r="D30" s="1">
         <v>43007</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>2878</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>7618</v>
       </c>
       <c r="G30">
         <v>5.94</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>5</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>1000</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>201</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>3</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>8</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="3">
         <v>1084</v>
       </c>
       <c r="N30" t="str">
-        <f>IF(C30&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O30" t="str">
-        <f>IF(B30&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -2767,51 +2768,51 @@
       <c r="D31" s="1">
         <v>43008</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>2805</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>4053</v>
       </c>
       <c r="G31">
         <v>3.09</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>2</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>913</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>174</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>5</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>14</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="3">
         <v>913</v>
       </c>
       <c r="N31" t="str">
-        <f>IF(C31&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O31" t="str">
-        <f>IF(B31&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -2828,51 +2829,51 @@
       <c r="D32" s="1">
         <v>43009</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>2710</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>4851</v>
       </c>
       <c r="G32">
         <v>3.78</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>3</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>627</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>184</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>853</v>
       </c>
       <c r="N32" t="str">
-        <f>IF(C32&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="O32" t="str">
-        <f>IF(B32&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -2889,51 +2890,51 @@
       <c r="D33" s="1">
         <v>43010</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>3385</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>10148</v>
       </c>
       <c r="G33">
         <v>7.92</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>29</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>888</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>320</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>7</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <v>11</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="3">
         <v>1693</v>
       </c>
       <c r="N33" t="str">
-        <f>IF(C33&gt;8000,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="O33" t="str">
-        <f>IF(B33&gt;3400,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -2950,51 +2951,51 @@
       <c r="D34" s="1">
         <v>43011</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>2513</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>3549</v>
       </c>
       <c r="G34">
         <v>2.77</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>2</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>691</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>121</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>6</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <v>4</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="3">
         <v>596</v>
       </c>
       <c r="N34" t="str">
-        <f>IF(C34&gt;8000,"Yes","No")</f>
+        <f t="shared" ref="N34:N65" si="5">IF(C34&gt;8000,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="O34" t="str">
-        <f>IF(B34&gt;3400,"Yes","No")</f>
+        <f t="shared" ref="O34:O65" si="6">IF(B34&gt;3400,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -3011,51 +3012,51 @@
       <c r="D35" s="1">
         <v>43012</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>3169</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>9441</v>
       </c>
       <c r="G35">
         <v>7.36</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>24</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>867</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>204</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>15</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>23</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="3">
         <v>1367</v>
       </c>
       <c r="N35" t="str">
-        <f>IF(C35&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="O35" t="str">
-        <f>IF(B35&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3072,51 +3073,51 @@
       <c r="D36" s="1">
         <v>43013</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>3628</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>12475</v>
       </c>
       <c r="G36">
         <v>9.73</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>13</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>601</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>373</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <v>17</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <v>4</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="3">
         <v>1980</v>
       </c>
       <c r="N36" t="str">
-        <f>IF(C36&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="O36" t="str">
-        <f>IF(B36&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3133,51 +3134,51 @@
       <c r="D37" s="1">
         <v>43014</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>3159</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>7937</v>
       </c>
       <c r="G37">
         <v>6.19</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>3</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>749</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>354</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
         <v>1516</v>
       </c>
       <c r="N37" t="str">
-        <f>IF(C37&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O37" t="str">
-        <f>IF(B37&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3194,51 +3195,51 @@
       <c r="D38" s="1">
         <v>43015</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>3391</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>7129</v>
       </c>
       <c r="G38">
         <v>5.29</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>10</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>765</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>132</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <v>45</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <v>51</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="3">
         <v>1588</v>
       </c>
       <c r="N38" t="str">
-        <f>IF(C38&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O38" t="str">
-        <f>IF(B38&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3255,51 +3256,51 @@
       <c r="D39" s="1">
         <v>43016</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>2723</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>4711</v>
       </c>
       <c r="G39">
         <v>3.67</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <v>1</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <v>1269</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>171</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
         <v>813</v>
       </c>
       <c r="N39" t="str">
-        <f>IF(C39&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O39" t="str">
-        <f>IF(B39&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -3316,51 +3317,51 @@
       <c r="D40" s="1">
         <v>43017</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>2706</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>3892</v>
       </c>
       <c r="G40">
         <v>3.04</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>2</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>718</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>160</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <v>9</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="3">
         <v>2</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="3">
         <v>809</v>
       </c>
       <c r="N40" t="str">
-        <f>IF(C40&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O40" t="str">
-        <f>IF(B40&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -3377,51 +3378,51 @@
       <c r="D41" s="1">
         <v>43018</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>3925</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>9181</v>
       </c>
       <c r="G41">
         <v>6.95</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <v>8</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>830</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>274</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>42</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="3">
         <v>57</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="3">
         <v>2245</v>
       </c>
       <c r="N41" t="str">
-        <f>IF(C41&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="O41" t="str">
-        <f>IF(B41&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3438,51 +3439,51 @@
       <c r="D42" s="1">
         <v>43019</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>3046</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>6194</v>
       </c>
       <c r="G42">
         <v>4.83</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>14</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>881</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>171</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <v>23</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="3">
         <v>11</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="3">
         <v>1143</v>
       </c>
       <c r="N42" t="str">
-        <f>IF(C42&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O42" t="str">
-        <f>IF(B42&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -3499,51 +3500,51 @@
       <c r="D43" s="1">
         <v>43020</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>3504</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>10408</v>
       </c>
       <c r="G43">
         <v>8.1199999999999992</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <v>2</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>1064</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>361</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <v>8</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="3">
         <v>7</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="3">
         <v>1860</v>
       </c>
       <c r="N43" t="str">
-        <f>IF(C43&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="O43" t="str">
-        <f>IF(B43&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3560,51 +3561,51 @@
       <c r="D44" s="1">
         <v>43021</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>3851</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>13987</v>
       </c>
       <c r="G44">
         <v>10.91</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>578</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>467</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <v>20</v>
       </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>2369</v>
       </c>
       <c r="N44" t="str">
-        <f>IF(C44&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="O44" t="str">
-        <f>IF(B44&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3621,51 +3622,51 @@
       <c r="D45" s="1">
         <v>43022</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>3312</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>10068</v>
       </c>
       <c r="G45">
         <v>7.85</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>3</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>757</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>337</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <v>4</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="3">
         <v>9</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="3">
         <v>1634</v>
       </c>
       <c r="N45" t="str">
-        <f>IF(C45&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="O45" t="str">
-        <f>IF(B45&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3682,51 +3683,51 @@
       <c r="D46" s="1">
         <v>43023</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>2635</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>4271</v>
       </c>
       <c r="G46">
         <v>3.33</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <v>2</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <v>1190</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>147</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>726</v>
       </c>
       <c r="N46" t="str">
-        <f>IF(C46&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O46" t="str">
-        <f>IF(B46&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -3743,51 +3744,51 @@
       <c r="D47" s="1">
         <v>43024</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>4568</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>19350</v>
       </c>
       <c r="G47">
         <v>15.09</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>21</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>776</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>351</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>66</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="3">
         <v>85</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="3">
         <v>3069</v>
       </c>
       <c r="N47" t="str">
-        <f>IF(C47&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="O47" t="str">
-        <f>IF(B47&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3804,51 +3805,51 @@
       <c r="D48" s="1">
         <v>43025</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>3741</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>15036</v>
       </c>
       <c r="G48">
         <v>11.73</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>22</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>596</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="3">
         <v>330</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <v>16</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="3">
         <v>35</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="3">
         <v>2091</v>
       </c>
       <c r="N48" t="str">
-        <f>IF(C48&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="O48" t="str">
-        <f>IF(B48&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3865,51 +3866,51 @@
       <c r="D49" s="1">
         <v>43026</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>2708</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>4550</v>
       </c>
       <c r="G49">
         <v>3.54</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>6</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>1260</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>172</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>5</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="3">
         <v>3</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="3">
         <v>837</v>
       </c>
       <c r="N49" t="str">
-        <f>IF(C49&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O49" t="str">
-        <f>IF(B49&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -3926,51 +3927,51 @@
       <c r="D50" s="1">
         <v>43027</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>2915</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>6710</v>
       </c>
       <c r="G50">
         <v>5.23</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <v>3</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>1085</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>267</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
         <v>1208</v>
       </c>
       <c r="N50" t="str">
-        <f>IF(C50&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O50" t="str">
-        <f>IF(B50&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3987,51 +3988,51 @@
       <c r="D51" s="1">
         <v>43028</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>2827</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>5433</v>
       </c>
       <c r="G51">
         <v>4.24</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
         <v>945</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>253</v>
       </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
         <v>1069</v>
       </c>
       <c r="N51" t="str">
-        <f>IF(C51&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O51" t="str">
-        <f>IF(B51&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -4048,51 +4049,51 @@
       <c r="D52" s="1">
         <v>43029</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>3258</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>8824</v>
       </c>
       <c r="G52">
         <v>6.88</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <v>9</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <v>702</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>386</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>1669</v>
       </c>
       <c r="N52" t="str">
-        <f>IF(C52&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="O52" t="str">
-        <f>IF(B52&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4109,51 +4110,51 @@
       <c r="D53" s="1">
         <v>43030</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>3198</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>7760</v>
       </c>
       <c r="G53">
         <v>6.05</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="3">
         <v>8</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <v>699</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="3">
         <v>307</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <v>14</v>
       </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
         <v>1449</v>
       </c>
       <c r="N53" t="str">
-        <f>IF(C53&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O53" t="str">
-        <f>IF(B53&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4170,51 +4171,51 @@
       <c r="D54" s="1">
         <v>43031</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>3880</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>10208</v>
       </c>
       <c r="G54">
         <v>7.43</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="3">
         <v>4</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <v>592</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="3">
         <v>349</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <v>21</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="3">
         <v>51</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="3">
         <v>2319</v>
       </c>
       <c r="N54" t="str">
-        <f>IF(C54&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="O54" t="str">
-        <f>IF(B54&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4231,51 +4232,51 @@
       <c r="D55" s="1">
         <v>43032</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>2884</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>6042</v>
       </c>
       <c r="G55">
         <v>4.71</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
         <v>822</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="3">
         <v>278</v>
       </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
         <v>1174</v>
       </c>
       <c r="N55" t="str">
-        <f>IF(C55&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O55" t="str">
-        <f>IF(B55&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -4292,51 +4293,51 @@
       <c r="D56" s="1">
         <v>43033</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>4157</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>10689</v>
       </c>
       <c r="G56">
         <v>8.0500000000000007</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <v>6</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>616</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>353</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <v>39</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="3">
         <v>51</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="3">
         <v>2559</v>
       </c>
       <c r="N56" t="str">
-        <f>IF(C56&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="O56" t="str">
-        <f>IF(B56&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4353,51 +4354,51 @@
       <c r="D57" s="1">
         <v>43034</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>2895</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>5823</v>
       </c>
       <c r="G57">
         <v>4.54</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="3">
         <v>1</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <v>733</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="3">
         <v>255</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>1107</v>
       </c>
       <c r="N57" t="str">
-        <f>IF(C57&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O57" t="str">
-        <f>IF(B57&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -4414,51 +4415,51 @@
       <c r="D58" s="1">
         <v>43035</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>2686</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>4081</v>
       </c>
       <c r="G58">
         <v>3.18</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>802</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="3">
         <v>208</v>
       </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>874</v>
       </c>
       <c r="N58" t="str">
-        <f>IF(C58&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O58" t="str">
-        <f>IF(B58&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -4475,51 +4476,51 @@
       <c r="D59" s="1">
         <v>43036</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>2679</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>3948</v>
       </c>
       <c r="G59">
         <v>3.08</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>815</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>854</v>
       </c>
       <c r="N59" t="str">
-        <f>IF(C59&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O59" t="str">
-        <f>IF(B59&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -4536,51 +4537,51 @@
       <c r="D60" s="1">
         <v>43037</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>3006</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>5083</v>
       </c>
       <c r="G60">
         <v>3.96</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>809</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="3">
         <v>250</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
       <c r="N60" t="str">
-        <f>IF(C60&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O60" t="str">
-        <f>IF(B60&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -4597,51 +4598,51 @@
       <c r="D61" s="1">
         <v>43038</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>3124</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>9117</v>
       </c>
       <c r="G61">
         <v>7.46</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="3">
         <v>3</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="3">
         <v>762</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="3">
         <v>220</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
         <v>3</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="3">
         <v>35</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="3">
         <v>1359</v>
       </c>
       <c r="N61" t="str">
-        <f>IF(C61&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="O61" t="str">
-        <f>IF(B61&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4658,51 +4659,51 @@
       <c r="D62" s="1">
         <v>43039</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>2943</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>6554</v>
       </c>
       <c r="G62">
         <v>5.1100000000000003</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>786</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="3">
         <v>269</v>
       </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>1192</v>
       </c>
       <c r="N62" t="str">
-        <f>IF(C62&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O62" t="str">
-        <f>IF(B62&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4719,51 +4720,51 @@
       <c r="D63" s="1">
         <v>43040</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>4038</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>15351</v>
       </c>
       <c r="G63">
         <v>12.3</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="3">
         <v>12</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="3">
         <v>488</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="3">
         <v>412</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="3">
         <v>18</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="3">
         <v>51</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="3">
         <v>2486</v>
       </c>
       <c r="N63" t="str">
-        <f>IF(C63&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="O63" t="str">
-        <f>IF(B63&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4780,51 +4781,51 @@
       <c r="D64" s="1">
         <v>43041</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>2831</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>5197</v>
       </c>
       <c r="G64">
         <v>4.05</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="3">
         <v>1</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="3">
         <v>850</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="3">
         <v>245</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64" s="2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
         <v>1051</v>
       </c>
       <c r="N64" t="str">
-        <f>IF(C64&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O64" t="str">
-        <f>IF(B64&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -4841,51 +4842,51 @@
       <c r="D65" s="1">
         <v>43042</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>2731</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>5061</v>
       </c>
       <c r="G65">
         <v>3.95</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="3">
         <v>1</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>765</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="3">
         <v>222</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
         <v>936</v>
       </c>
       <c r="N65" t="str">
-        <f>IF(C65&gt;8000,"Yes","No")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="O65" t="str">
-        <f>IF(B65&gt;3400,"Yes","No")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="R65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -4902,51 +4903,51 @@
       <c r="D66" s="1">
         <v>43043</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>3263</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>5894</v>
       </c>
       <c r="G66">
         <v>4.4400000000000004</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="3">
         <v>6</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="3">
         <v>1164</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="3">
         <v>215</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="3">
         <v>27</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="3">
         <v>34</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="3">
         <v>1517</v>
       </c>
       <c r="N66" t="str">
-        <f>IF(C66&gt;8000,"Yes","No")</f>
+        <f t="shared" ref="N66:N92" si="7">IF(C66&gt;8000,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="O66" t="str">
-        <f>IF(B66&gt;3400,"Yes","No")</f>
+        <f t="shared" ref="O66:O92" si="8">IF(B66&gt;3400,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="R66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
@@ -4963,51 +4964,51 @@
       <c r="D67" s="1">
         <v>43044</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>3148</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>7449</v>
       </c>
       <c r="G67">
         <v>5.46</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="3">
         <v>6</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="3">
         <v>700</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="3">
         <v>241</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="3">
         <v>26</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="3">
         <v>14</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="3">
         <v>1436</v>
       </c>
       <c r="N67" t="str">
-        <f>IF(C67&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="O67" t="str">
-        <f>IF(B67&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P92" si="3">IF(L67&gt;30,"Yes","No")</f>
+        <f t="shared" ref="P67:P92" si="9">IF(L67&gt;30,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" ref="Q67:Q92" si="4">IF(L67+K67&lt;30,"Yes","No")</f>
+        <f t="shared" ref="Q67:Q92" si="10">IF(L67+K67&lt;30,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" ref="R67:R92" si="5">IF(G67&gt;5,"Yes","No")</f>
+        <f t="shared" ref="R67:R92" si="11">IF(G67&gt;5,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5024,51 +5025,51 @@
       <c r="D68" s="1">
         <v>43045</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="3">
         <v>3402</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="3">
         <v>9041</v>
       </c>
       <c r="G68">
         <v>6.8</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="3">
         <v>4</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="3">
         <v>784</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="3">
         <v>318</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="3">
         <v>21</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="3">
         <v>19</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="3">
         <v>1758</v>
       </c>
       <c r="N68" t="str">
-        <f>IF(C68&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O68" t="str">
-        <f>IF(B68&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5085,51 +5086,51 @@
       <c r="D69" s="1">
         <v>43046</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="3">
         <v>2423</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="3">
         <v>2322</v>
       </c>
       <c r="G69">
         <v>1.81</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="3">
         <v>1</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="3">
         <v>821</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="3">
         <v>105</v>
       </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
         <v>457</v>
       </c>
       <c r="N69" t="str">
-        <f>IF(C69&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="O69" t="str">
-        <f>IF(B69&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -5146,51 +5147,51 @@
       <c r="D70" s="1">
         <v>43047</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="3">
         <v>3454</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="3">
         <v>7867</v>
       </c>
       <c r="G70">
         <v>5.8</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="3">
         <v>8</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="3">
         <v>702</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="3">
         <v>265</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="3">
         <v>20</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="3">
         <v>36</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="3">
         <v>1727</v>
       </c>
       <c r="N70" t="str">
-        <f>IF(C70&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="O70" t="str">
-        <f>IF(B70&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5207,51 +5208,51 @@
       <c r="D71" s="1">
         <v>43048</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="3">
         <v>3360</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="3">
         <v>7820</v>
       </c>
       <c r="G71">
         <v>5.89</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="3">
         <v>4</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="3">
         <v>725</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="3">
         <v>272</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="3">
         <v>34</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="3">
         <v>24</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="3">
         <v>1674</v>
       </c>
       <c r="N71" t="str">
-        <f>IF(C71&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="O71" t="str">
-        <f>IF(B71&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5268,51 +5269,51 @@
       <c r="D72" s="1">
         <v>43049</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="3">
         <v>3192</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="3">
         <v>8588</v>
       </c>
       <c r="G72">
         <v>6.7</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="3">
         <v>1</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="3">
         <v>664</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="3">
         <v>371</v>
       </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72" s="2">
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
         <v>1606</v>
       </c>
       <c r="N72" t="str">
-        <f>IF(C72&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O72" t="str">
-        <f>IF(B72&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="R72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5329,51 +5330,51 @@
       <c r="D73" s="1">
         <v>43050</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="3">
         <v>3773</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="3">
         <v>8069</v>
       </c>
       <c r="G73">
         <v>6.16</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="3">
         <v>6</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="3">
         <v>568</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="3">
         <v>327</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="3">
         <v>34</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="3">
         <v>39</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73" s="3">
         <v>2146</v>
       </c>
       <c r="N73" t="str">
-        <f>IF(C73&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O73" t="str">
-        <f>IF(B73&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5390,51 +5391,51 @@
       <c r="D74" s="1">
         <v>43051</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="3">
         <v>3369</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="3">
         <v>8482</v>
       </c>
       <c r="G74">
         <v>6.41</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="3">
         <v>6</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="3">
         <v>645</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="3">
         <v>254</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="3">
         <v>20</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="3">
         <v>31</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74" s="3">
         <v>1689</v>
       </c>
       <c r="N74" t="str">
-        <f>IF(C74&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O74" t="str">
-        <f>IF(B74&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5451,51 +5452,51 @@
       <c r="D75" s="1">
         <v>43052</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="3">
         <v>4112</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="3">
         <v>13500</v>
       </c>
       <c r="G75">
         <v>10.39</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="3">
         <v>7</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="3">
         <v>570</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="3">
         <v>353</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="3">
         <v>35</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="3">
         <v>56</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75" s="3">
         <v>2597</v>
       </c>
       <c r="N75" t="str">
-        <f>IF(C75&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O75" t="str">
-        <f>IF(B75&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5512,51 +5513,51 @@
       <c r="D76" s="1">
         <v>43053</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="3">
         <v>4622</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="3">
         <v>16888</v>
       </c>
       <c r="G76">
         <v>13.04</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="3">
         <v>5</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="3">
         <v>484</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="3">
         <v>449</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="3">
         <v>32</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="3">
         <v>70</v>
       </c>
-      <c r="M76" s="2">
+      <c r="M76" s="3">
         <v>3246</v>
       </c>
       <c r="N76" t="str">
-        <f>IF(C76&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O76" t="str">
-        <f>IF(B76&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5573,51 +5574,51 @@
       <c r="D77" s="1">
         <v>43054</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="3">
         <v>3349</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="3">
         <v>9599</v>
       </c>
       <c r="G77">
         <v>7.49</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="3">
         <v>1</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="3">
         <v>507</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="3">
         <v>421</v>
       </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77" s="2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
         <v>1823</v>
       </c>
       <c r="N77" t="str">
-        <f>IF(C77&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O77" t="str">
-        <f>IF(B77&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="Q77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="R77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5634,51 +5635,51 @@
       <c r="D78" s="1">
         <v>43055</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="3">
         <v>3821</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="3">
         <v>10091</v>
       </c>
       <c r="G78">
         <v>7.47</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="3">
         <v>7</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="3">
         <v>796</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="3">
         <v>337</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="3">
         <v>33</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="3">
         <v>50</v>
       </c>
-      <c r="M78" s="2">
+      <c r="M78" s="3">
         <v>2282</v>
       </c>
       <c r="N78" t="str">
-        <f>IF(C78&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O78" t="str">
-        <f>IF(B78&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5695,51 +5696,51 @@
       <c r="D79" s="1">
         <v>43056</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="3">
         <v>4066</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="3">
         <v>13565</v>
       </c>
       <c r="G79">
         <v>10.46</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="3">
         <v>8</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="3">
         <v>520</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="3">
         <v>412</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="3">
         <v>23</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="3">
         <v>45</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79" s="3">
         <v>2602</v>
       </c>
       <c r="N79" t="str">
-        <f>IF(C79&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O79" t="str">
-        <f>IF(B79&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5756,51 +5757,51 @@
       <c r="D80" s="1">
         <v>43057</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="3">
         <v>2987</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="3">
         <v>5920</v>
       </c>
       <c r="G80">
         <v>4.62</v>
       </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
+      <c r="H80" s="3">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3">
         <v>696</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="3">
         <v>312</v>
       </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80" s="2">
+      <c r="K80" s="3">
+        <v>0</v>
+      </c>
+      <c r="L80" s="3">
+        <v>0</v>
+      </c>
+      <c r="M80" s="3">
         <v>1296</v>
       </c>
       <c r="N80" t="str">
-        <f>IF(C80&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="O80" t="str">
-        <f>IF(B80&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="Q80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="R80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -5817,51 +5818,51 @@
       <c r="D81" s="1">
         <v>43058</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="3">
         <v>3106</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="3">
         <v>6708</v>
       </c>
       <c r="G81">
         <v>4.95</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="3">
         <v>6</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="3">
         <v>758</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="3">
         <v>228</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="3">
         <v>27</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="3">
         <v>19</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81" s="3">
         <v>1396</v>
       </c>
       <c r="N81" t="str">
-        <f>IF(C81&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="O81" t="str">
-        <f>IF(B81&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="Q81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -5878,51 +5879,51 @@
       <c r="D82" s="1">
         <v>43059</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="3">
         <v>3975</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="3">
         <v>11094</v>
       </c>
       <c r="G82">
         <v>8.56</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="3">
         <v>6</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="3">
         <v>618</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="3">
         <v>292</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="3">
         <v>30</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="3">
         <v>66</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82" s="3">
         <v>2341</v>
       </c>
       <c r="N82" t="str">
-        <f>IF(C82&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O82" t="str">
-        <f>IF(B82&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5939,51 +5940,51 @@
       <c r="D83" s="1">
         <v>43060</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="3">
         <v>3897</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="3">
         <v>9984</v>
       </c>
       <c r="G83">
         <v>7.8</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="3">
         <v>7</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="3">
         <v>682</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="3">
         <v>285</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="3">
         <v>12</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="3">
         <v>73</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83" s="3">
         <v>2236</v>
       </c>
       <c r="N83" t="str">
-        <f>IF(C83&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O83" t="str">
-        <f>IF(B83&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6000,51 +6001,51 @@
       <c r="D84" s="1">
         <v>43061</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="3">
         <v>3063</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="3">
         <v>7346</v>
       </c>
       <c r="G84">
         <v>5.73</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="3">
         <v>15</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="3">
         <v>713</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="3">
         <v>302</v>
       </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84" s="2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
         <v>1351</v>
       </c>
       <c r="N84" t="str">
-        <f>IF(C84&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="O84" t="str">
-        <f>IF(B84&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="Q84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="R84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6061,51 +6062,51 @@
       <c r="D85" s="1">
         <v>43062</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="3">
         <v>3889</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="3">
         <v>12596</v>
       </c>
       <c r="G85">
         <v>9.4499999999999993</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="3">
         <v>11</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="3">
         <v>570</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="3">
         <v>394</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="3">
         <v>37</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="3">
         <v>27</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85" s="3">
         <v>2381</v>
       </c>
       <c r="N85" t="str">
-        <f>IF(C85&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O85" t="str">
-        <f>IF(B85&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="Q85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6122,51 +6123,51 @@
       <c r="D86" s="1">
         <v>43063</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="3">
         <v>3617</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="3">
         <v>9755</v>
       </c>
       <c r="G86">
         <v>7.52</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="3">
         <v>5</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="3">
         <v>679</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="3">
         <v>265</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="3">
         <v>26</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="3">
         <v>49</v>
       </c>
-      <c r="M86" s="2">
+      <c r="M86" s="3">
         <v>1967</v>
       </c>
       <c r="N86" t="str">
-        <f>IF(C86&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O86" t="str">
-        <f>IF(B86&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6183,51 +6184,51 @@
       <c r="D87" s="1">
         <v>43064</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="3">
         <v>4028</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="3">
         <v>13141</v>
       </c>
       <c r="G87">
         <v>9.86</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="3">
         <v>7</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="3">
         <v>560</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="3">
         <v>415</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="3">
         <v>33</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="3">
         <v>43</v>
       </c>
-      <c r="M87" s="2">
+      <c r="M87" s="3">
         <v>2565</v>
       </c>
       <c r="N87" t="str">
-        <f>IF(C87&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O87" t="str">
-        <f>IF(B87&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6244,51 +6245,51 @@
       <c r="D88" s="1">
         <v>43065</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="3">
         <v>3372</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="3">
         <v>10559</v>
       </c>
       <c r="G88">
         <v>8.24</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="3">
         <v>3</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="3">
         <v>774</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="3">
         <v>370</v>
       </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88" s="2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
         <v>1741</v>
       </c>
       <c r="N88" t="str">
-        <f>IF(C88&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O88" t="str">
-        <f>IF(B88&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6305,51 +6306,51 @@
       <c r="D89" s="1">
         <v>43066</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="3">
         <v>3712</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="3">
         <v>10634</v>
       </c>
       <c r="G89">
         <v>7.94</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="3">
         <v>5</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="3">
         <v>531</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="3">
         <v>318</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
         <v>32</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="3">
         <v>50</v>
       </c>
-      <c r="M89" s="2">
+      <c r="M89" s="3">
         <v>2146</v>
       </c>
       <c r="N89" t="str">
-        <f>IF(C89&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O89" t="str">
-        <f>IF(B89&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6366,51 +6367,51 @@
       <c r="D90" s="1">
         <v>43067</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="3">
         <v>4376</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="3">
         <v>15373</v>
       </c>
       <c r="G90">
         <v>11.87</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="3">
         <v>6</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="3">
         <v>526</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="3">
         <v>409</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <v>17</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="3">
         <v>83</v>
       </c>
-      <c r="M90" s="2">
+      <c r="M90" s="3">
         <v>2954</v>
       </c>
       <c r="N90" t="str">
-        <f>IF(C90&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O90" t="str">
-        <f>IF(B90&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6427,51 +6428,51 @@
       <c r="D91" s="1">
         <v>43068</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="3">
         <v>3411</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="3">
         <v>9700</v>
       </c>
       <c r="G91">
         <v>7.57</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="3">
         <v>1</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="3">
         <v>577</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="3">
         <v>454</v>
       </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91" s="2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>1917</v>
       </c>
       <c r="N91" t="str">
-        <f>IF(C91&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O91" t="str">
-        <f>IF(B91&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="Q91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
       <c r="R91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6488,55 +6489,56 @@
       <c r="D92" s="1">
         <v>43069</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="3">
         <v>4445</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="3">
         <v>15834</v>
       </c>
       <c r="G92">
         <v>11.91</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="3">
         <v>8</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="3">
         <v>389</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="3">
         <v>486</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <v>36</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="3">
         <v>60</v>
       </c>
-      <c r="M92" s="2">
+      <c r="M92" s="3">
         <v>3139</v>
       </c>
       <c r="N92" t="str">
-        <f>IF(C92&gt;8000,"Yes","No")</f>
+        <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
       <c r="O92" t="str">
-        <f>IF(B92&gt;3400,"Yes","No")</f>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="P92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
       <c r="Q92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
       <c r="R92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datasets/TotalExercise.xlsx
+++ b/datasets/TotalExercise.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalExercise" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -65,11 +65,14 @@
   <si>
     <t>Distance Achieved</t>
   </si>
+  <si>
+    <t>TotalExerciseId</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -906,31 +909,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -941,52 +945,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42979</v>
       </c>
@@ -996,58 +1003,61 @@
       <c r="C2">
         <v>13030</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>42979</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>3721</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>13030</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9.91</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>5</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>498</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>460</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>13</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>10</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>2266</v>
       </c>
-      <c r="N2" t="str">
-        <f t="shared" ref="N2:N33" si="0">IF(C2&gt;8000,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:O33" si="1">IF(B2&gt;3400,"Yes","No")</f>
+        <f t="shared" ref="O2:O33" si="0">IF(C2&gt;8000,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="P2" t="str">
-        <f>IF(L2&gt;30,"Yes","No")</f>
-        <v>No</v>
+        <f t="shared" ref="P2:P33" si="1">IF(B2&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="Q2" t="str">
-        <f>IF(L2+K2&lt;30,"Yes","No")</f>
-        <v>Yes</v>
+        <f>IF(M2&gt;30,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="R2" t="str">
-        <f>IF(G2&gt;5,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+        <f>IF(M2+L2&lt;30,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="S2" t="str">
+        <f>IF(H2&gt;5,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42980</v>
       </c>
@@ -1057,58 +1067,61 @@
       <c r="C3">
         <v>8147</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
         <v>42980</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>3015</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>8147</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>6.35</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>732</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>223</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>32</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>1245</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P66" si="2">IF(L3&gt;30,"Yes","No")</f>
-        <v>No</v>
-      </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q66" si="3">IF(L3+K3&lt;30,"Yes","No")</f>
+        <f t="shared" ref="Q3:Q66" si="2">IF(M3&gt;30,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R66" si="4">IF(G3&gt;5,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ref="R3:R66" si="3">IF(M3+L3&lt;30,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S66" si="4">IF(H3&gt;5,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42981</v>
       </c>
@@ -1118,58 +1131,61 @@
       <c r="C4">
         <v>13857</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
         <v>42981</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>3837</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>13857</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>10.79</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>8</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>480</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>414</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>26</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>25</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>2379</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R4" t="str">
+      <c r="S4" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42982</v>
       </c>
@@ -1179,58 +1195,61 @@
       <c r="C5">
         <v>12846</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
         <v>42982</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>4274</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>12846</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>9.7899999999999991</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>8</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>593</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>334</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>18</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>87</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>2757</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R5" t="str">
+      <c r="S5" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42983</v>
       </c>
@@ -1240,58 +1259,61 @@
       <c r="C6">
         <v>11041</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
         <v>42983</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>3519</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>11041</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>8.6199999999999992</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>7</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>1044</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>380</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>10</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>6</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>1947</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R6" t="str">
+      <c r="S6" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>42984</v>
       </c>
@@ -1301,58 +1323,61 @@
       <c r="C7">
         <v>7639</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
         <v>42984</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>3062</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>7639</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5.96</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>697</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>326</v>
       </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <v>1398</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="R7" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R7" t="str">
+      <c r="S7" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42985</v>
       </c>
@@ -1362,58 +1387,61 @@
       <c r="C8">
         <v>12523</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
         <v>42985</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4091</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12523</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9.27</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>620</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>295</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>42</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>77</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2530</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R8" t="str">
+      <c r="S8" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>42986</v>
       </c>
@@ -1423,58 +1451,61 @@
       <c r="C9">
         <v>8540</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
         <v>42986</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3480</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8540</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6.34</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>666</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>258</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1776</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="R9" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R9" t="str">
+      <c r="S9" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>42987</v>
       </c>
@@ -1484,58 +1515,61 @@
       <c r="C10">
         <v>8436</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
         <v>42987</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3139</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8436</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6.58</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>624</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>347</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>1508</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="R10" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R10" t="str">
+      <c r="S10" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>42988</v>
       </c>
@@ -1545,58 +1579,61 @@
       <c r="C11">
         <v>6921</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
         <v>42988</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>2998</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>6921</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5.2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>5</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>693</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>254</v>
-      </c>
-      <c r="K11" s="3">
-        <v>9</v>
       </c>
       <c r="L11" s="3">
         <v>9</v>
       </c>
       <c r="M11" s="3">
+        <v>9</v>
+      </c>
+      <c r="N11" s="3">
         <v>1304</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="R11" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R11" t="str">
+      <c r="S11" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>42989</v>
       </c>
@@ -1606,58 +1643,61 @@
       <c r="C12">
         <v>12009</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
         <v>42989</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3793</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12009</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>8.91</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>595</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>326</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>45</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2186</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="R12" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R12" t="str">
+      <c r="S12" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>42990</v>
       </c>
@@ -1667,58 +1707,61 @@
       <c r="C13">
         <v>7696</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
         <v>42990</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>3109</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>7696</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>6</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
       <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
         <v>708</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>335</v>
       </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
       <c r="L13" s="3">
         <v>0</v>
       </c>
       <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
         <v>1453</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="R13" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R13" t="str">
+      <c r="S13" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>42991</v>
       </c>
@@ -1728,58 +1771,61 @@
       <c r="C14">
         <v>11483</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1">
         <v>42991</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4006</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11483</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>8.48</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>596</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>312</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>37</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>60</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2394</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="R14" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R14" t="str">
+      <c r="S14" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>42992</v>
       </c>
@@ -1789,58 +1835,61 @@
       <c r="C15">
         <v>10634</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
         <v>42992</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3573</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10634</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>8.07</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>328</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>29</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1940</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="R15" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R15" t="str">
+      <c r="S15" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>42993</v>
       </c>
@@ -1850,58 +1899,61 @@
       <c r="C16">
         <v>8198</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1">
         <v>42993</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>3102</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>8198</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>6.39</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>645</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>343</v>
       </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
       <c r="L16" s="3">
         <v>0</v>
       </c>
       <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
         <v>1473</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O16" t="str">
+      <c r="P16" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="R16" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R16" t="str">
+      <c r="S16" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>42994</v>
       </c>
@@ -1911,58 +1963,61 @@
       <c r="C17">
         <v>975</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1">
         <v>42994</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2190</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>975</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.76</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>922</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>197</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O17" t="str">
+      <c r="P17" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="R17" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R17" t="str">
+      <c r="S17" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>42995</v>
       </c>
@@ -1972,58 +2027,61 @@
       <c r="C18">
         <v>4870</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
         <v>42995</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2710</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4870</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>3.8</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1226</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>214</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>904</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O18" t="str">
+      <c r="P18" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="R18" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R18" t="str">
+      <c r="S18" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>42996</v>
       </c>
@@ -2033,58 +2091,61 @@
       <c r="C19">
         <v>9510</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1">
         <v>42996</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>3158</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>9510</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>7.42</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
       <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
         <v>706</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>333</v>
       </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
       <c r="L19" s="3">
         <v>0</v>
       </c>
       <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
         <v>1514</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="R19" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R19" t="str">
+      <c r="S19" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>42997</v>
       </c>
@@ -2094,58 +2155,61 @@
       <c r="C20">
         <v>9901</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1">
         <v>42997</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3771</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9901</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>7.49</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>305</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>31</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>48</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2149</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="R20" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R20" t="str">
+      <c r="S20" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>42998</v>
       </c>
@@ -2155,58 +2219,61 @@
       <c r="C21">
         <v>4106</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1">
         <v>42998</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2694</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4106</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3.2</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>862</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>211</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>868</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="R21" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R21" t="str">
+      <c r="S21" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>42999</v>
       </c>
@@ -2216,58 +2283,61 @@
       <c r="C22">
         <v>9664</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1">
         <v>42999</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3477</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9664</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>7.38</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>613</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>329</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1843</v>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O22" t="str">
+      <c r="P22" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q22" t="str">
+      <c r="R22" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R22" t="str">
+      <c r="S22" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43000</v>
       </c>
@@ -2277,58 +2347,61 @@
       <c r="C23">
         <v>4428</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1">
         <v>43000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2736</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4428</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>3.45</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>772</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>217</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>916</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O23" t="str">
+      <c r="P23" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="R23" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R23" t="str">
+      <c r="S23" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43001</v>
       </c>
@@ -2338,58 +2411,61 @@
       <c r="C24">
         <v>4994</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1">
         <v>43001</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2816</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4994</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>3.9</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1062</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>230</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>1003</v>
       </c>
-      <c r="N24" t="str">
+      <c r="O24" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O24" t="str">
+      <c r="P24" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P24" t="str">
+      <c r="Q24" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="R24" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R24" t="str">
+      <c r="S24" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43002</v>
       </c>
@@ -2399,58 +2475,61 @@
       <c r="C25">
         <v>7123</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1">
         <v>43002</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>3168</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>7123</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5.35</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>7</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>797</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>126</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>34</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <v>48</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <v>1366</v>
       </c>
-      <c r="N25" t="str">
+      <c r="O25" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O25" t="str">
+      <c r="P25" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P25" t="str">
+      <c r="Q25" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="R25" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R25" t="str">
+      <c r="S25" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43003</v>
       </c>
@@ -2460,58 +2539,61 @@
       <c r="C26">
         <v>5370</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1">
         <v>43003</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3034</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5370</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3.92</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>820</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>86</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1144</v>
       </c>
-      <c r="N26" t="str">
+      <c r="O26" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O26" t="str">
+      <c r="P26" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P26" t="str">
+      <c r="Q26" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q26" t="str">
+      <c r="R26" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R26" t="str">
+      <c r="S26" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43004</v>
       </c>
@@ -2521,58 +2603,61 @@
       <c r="C27">
         <v>7118</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1">
         <v>43004</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2997</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7118</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>5.55</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>743</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>271</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>1222</v>
       </c>
-      <c r="N27" t="str">
+      <c r="O27" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O27" t="str">
+      <c r="P27" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P27" t="str">
+      <c r="Q27" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q27" t="str">
+      <c r="R27" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R27" t="str">
+      <c r="S27" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43005</v>
       </c>
@@ -2582,58 +2667,61 @@
       <c r="C28">
         <v>5788</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1">
         <v>43005</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>4184</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>5788</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>4.51</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>8</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>993</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>397</v>
-      </c>
-      <c r="K28" s="3">
-        <v>25</v>
       </c>
       <c r="L28" s="3">
         <v>25</v>
       </c>
       <c r="M28" s="3">
+        <v>25</v>
+      </c>
+      <c r="N28" s="3">
         <v>2534</v>
       </c>
-      <c r="N28" t="str">
+      <c r="O28" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O28" t="str">
+      <c r="P28" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="P28" t="str">
+      <c r="Q28" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q28" t="str">
+      <c r="R28" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R28" t="str">
+      <c r="S28" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43006</v>
       </c>
@@ -2643,58 +2731,61 @@
       <c r="C29">
         <v>6336</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1">
         <v>43006</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>2990</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>6336</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>4.9400000000000004</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>6</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1171</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>186</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>6</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>13</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1046</v>
       </c>
-      <c r="N29" t="str">
+      <c r="O29" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O29" t="str">
+      <c r="P29" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P29" t="str">
+      <c r="Q29" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q29" t="str">
+      <c r="R29" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R29" t="str">
+      <c r="S29" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43007</v>
       </c>
@@ -2704,58 +2795,61 @@
       <c r="C30">
         <v>7618</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1">
         <v>43007</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>2878</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>7618</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>5.94</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>5</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
         <v>1000</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>201</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <v>3</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <v>8</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N30" s="3">
         <v>1084</v>
       </c>
-      <c r="N30" t="str">
+      <c r="O30" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O30" t="str">
+      <c r="P30" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P30" t="str">
+      <c r="Q30" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q30" t="str">
+      <c r="R30" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R30" t="str">
+      <c r="S30" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43008</v>
       </c>
@@ -2765,58 +2859,61 @@
       <c r="C31">
         <v>4053</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1">
         <v>43008</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>2805</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>4053</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>3.09</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>2</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>913</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>174</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <v>5</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <v>14</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
         <v>913</v>
       </c>
-      <c r="N31" t="str">
+      <c r="O31" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O31" t="str">
+      <c r="P31" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P31" t="str">
+      <c r="Q31" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q31" t="str">
+      <c r="R31" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R31" t="str">
+      <c r="S31" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43009</v>
       </c>
@@ -2826,58 +2923,61 @@
       <c r="C32">
         <v>4851</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1">
         <v>43009</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2710</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4851</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>3.78</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>627</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>184</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>853</v>
       </c>
-      <c r="N32" t="str">
+      <c r="O32" t="str">
         <f t="shared" si="0"/>
         <v>No</v>
       </c>
-      <c r="O32" t="str">
+      <c r="P32" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P32" t="str">
+      <c r="Q32" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q32" t="str">
+      <c r="R32" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R32" t="str">
+      <c r="S32" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43010</v>
       </c>
@@ -2887,58 +2987,61 @@
       <c r="C33">
         <v>10148</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1">
         <v>43010</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3385</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10148</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>7.92</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>29</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>888</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>320</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1693</v>
       </c>
-      <c r="N33" t="str">
+      <c r="O33" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O33" t="str">
+      <c r="P33" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="P33" t="str">
+      <c r="Q33" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q33" t="str">
+      <c r="R33" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R33" t="str">
+      <c r="S33" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43011</v>
       </c>
@@ -2948,58 +3051,61 @@
       <c r="C34">
         <v>3549</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1">
         <v>43011</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="3">
         <v>2513</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>3549</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>2.77</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="3">
         <v>2</v>
       </c>
-      <c r="I34" s="3">
+      <c r="J34" s="3">
         <v>691</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <v>121</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="3">
         <v>6</v>
       </c>
-      <c r="L34" s="3">
+      <c r="M34" s="3">
         <v>4</v>
       </c>
-      <c r="M34" s="3">
+      <c r="N34" s="3">
         <v>596</v>
       </c>
-      <c r="N34" t="str">
-        <f t="shared" ref="N34:N65" si="5">IF(C34&gt;8000,"Yes","No")</f>
-        <v>No</v>
-      </c>
       <c r="O34" t="str">
-        <f t="shared" ref="O34:O65" si="6">IF(B34&gt;3400,"Yes","No")</f>
+        <f t="shared" ref="O34:O65" si="5">IF(C34&gt;8000,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="P34" t="str">
+        <f t="shared" ref="P34:P65" si="6">IF(B34&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q34" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q34" t="str">
+      <c r="R34" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R34" t="str">
+      <c r="S34" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43012</v>
       </c>
@@ -3009,58 +3115,61 @@
       <c r="C35">
         <v>9441</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1">
         <v>43012</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3169</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9441</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>7.36</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>867</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>204</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1367</v>
       </c>
-      <c r="N35" t="str">
+      <c r="O35" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="O35" t="str">
+      <c r="P35" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P35" t="str">
+      <c r="Q35" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q35" t="str">
+      <c r="R35" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R35" t="str">
+      <c r="S35" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43013</v>
       </c>
@@ -3070,58 +3179,61 @@
       <c r="C36">
         <v>12475</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1">
         <v>43013</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>3628</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>12475</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>9.73</v>
       </c>
-      <c r="H36" s="3">
+      <c r="I36" s="3">
         <v>13</v>
       </c>
-      <c r="I36" s="3">
+      <c r="J36" s="3">
         <v>601</v>
       </c>
-      <c r="J36" s="3">
+      <c r="K36" s="3">
         <v>373</v>
       </c>
-      <c r="K36" s="3">
+      <c r="L36" s="3">
         <v>17</v>
       </c>
-      <c r="L36" s="3">
+      <c r="M36" s="3">
         <v>4</v>
       </c>
-      <c r="M36" s="3">
+      <c r="N36" s="3">
         <v>1980</v>
       </c>
-      <c r="N36" t="str">
+      <c r="O36" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="O36" t="str">
+      <c r="P36" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="P36" t="str">
+      <c r="Q36" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q36" t="str">
+      <c r="R36" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R36" t="str">
+      <c r="S36" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43014</v>
       </c>
@@ -3131,58 +3243,61 @@
       <c r="C37">
         <v>7937</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1">
         <v>43014</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>3159</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>7937</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>6.19</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>3</v>
       </c>
-      <c r="I37" s="3">
+      <c r="J37" s="3">
         <v>749</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <v>354</v>
       </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
       <c r="L37" s="3">
         <v>0</v>
       </c>
       <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
         <v>1516</v>
       </c>
-      <c r="N37" t="str">
+      <c r="O37" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O37" t="str">
+      <c r="P37" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P37" t="str">
+      <c r="Q37" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q37" t="str">
+      <c r="R37" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R37" t="str">
+      <c r="S37" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43015</v>
       </c>
@@ -3192,58 +3307,61 @@
       <c r="C38">
         <v>7129</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38" s="1">
         <v>43015</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="3">
         <v>3391</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>7129</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>5.29</v>
       </c>
-      <c r="H38" s="3">
+      <c r="I38" s="3">
         <v>10</v>
       </c>
-      <c r="I38" s="3">
+      <c r="J38" s="3">
         <v>765</v>
       </c>
-      <c r="J38" s="3">
+      <c r="K38" s="3">
         <v>132</v>
       </c>
-      <c r="K38" s="3">
+      <c r="L38" s="3">
         <v>45</v>
       </c>
-      <c r="L38" s="3">
+      <c r="M38" s="3">
         <v>51</v>
       </c>
-      <c r="M38" s="3">
+      <c r="N38" s="3">
         <v>1588</v>
       </c>
-      <c r="N38" t="str">
+      <c r="O38" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O38" t="str">
+      <c r="P38" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P38" t="str">
+      <c r="Q38" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q38" t="str">
+      <c r="R38" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R38" t="str">
+      <c r="S38" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43016</v>
       </c>
@@ -3253,58 +3371,61 @@
       <c r="C39">
         <v>4711</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1">
         <v>43016</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>2723</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>4711</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>3.67</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="3">
         <v>1</v>
       </c>
-      <c r="I39" s="3">
+      <c r="J39" s="3">
         <v>1269</v>
       </c>
-      <c r="J39" s="3">
+      <c r="K39" s="3">
         <v>171</v>
       </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
       <c r="L39" s="3">
         <v>0</v>
       </c>
       <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
         <v>813</v>
       </c>
-      <c r="N39" t="str">
+      <c r="O39" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O39" t="str">
+      <c r="P39" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P39" t="str">
+      <c r="Q39" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q39" t="str">
+      <c r="R39" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R39" t="str">
+      <c r="S39" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43017</v>
       </c>
@@ -3314,58 +3435,61 @@
       <c r="C40">
         <v>3892</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1">
         <v>43017</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>2706</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>3892</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>3.04</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I40" s="3">
         <v>2</v>
       </c>
-      <c r="I40" s="3">
+      <c r="J40" s="3">
         <v>718</v>
       </c>
-      <c r="J40" s="3">
+      <c r="K40" s="3">
         <v>160</v>
       </c>
-      <c r="K40" s="3">
+      <c r="L40" s="3">
         <v>9</v>
       </c>
-      <c r="L40" s="3">
+      <c r="M40" s="3">
         <v>2</v>
       </c>
-      <c r="M40" s="3">
+      <c r="N40" s="3">
         <v>809</v>
       </c>
-      <c r="N40" t="str">
+      <c r="O40" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O40" t="str">
+      <c r="P40" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P40" t="str">
+      <c r="Q40" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q40" t="str">
+      <c r="R40" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R40" t="str">
+      <c r="S40" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43018</v>
       </c>
@@ -3375,58 +3499,61 @@
       <c r="C41">
         <v>9181</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1">
         <v>43018</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3925</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9181</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>6.95</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>830</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>274</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>42</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>57</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2245</v>
       </c>
-      <c r="N41" t="str">
+      <c r="O41" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="O41" t="str">
+      <c r="P41" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="P41" t="str">
+      <c r="Q41" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q41" t="str">
+      <c r="R41" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R41" t="str">
+      <c r="S41" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43019</v>
       </c>
@@ -3436,58 +3563,61 @@
       <c r="C42">
         <v>6194</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1">
         <v>43019</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3046</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6194</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>4.83</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>881</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>171</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>23</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1143</v>
       </c>
-      <c r="N42" t="str">
+      <c r="O42" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O42" t="str">
+      <c r="P42" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P42" t="str">
+      <c r="Q42" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q42" t="str">
+      <c r="R42" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R42" t="str">
+      <c r="S42" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43020</v>
       </c>
@@ -3497,58 +3627,61 @@
       <c r="C43">
         <v>10408</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43" s="1">
         <v>43020</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3504</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10408</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>8.1199999999999992</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1064</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>361</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1860</v>
       </c>
-      <c r="N43" t="str">
+      <c r="O43" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="O43" t="str">
+      <c r="P43" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="P43" t="str">
+      <c r="Q43" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q43" t="str">
+      <c r="R43" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R43" t="str">
+      <c r="S43" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43021</v>
       </c>
@@ -3558,58 +3691,61 @@
       <c r="C44">
         <v>13987</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44" s="1">
         <v>43021</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3851</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13987</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>10.91</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>578</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>467</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>20</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>2369</v>
       </c>
-      <c r="N44" t="str">
+      <c r="O44" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="O44" t="str">
+      <c r="P44" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="P44" t="str">
+      <c r="Q44" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q44" t="str">
+      <c r="R44" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R44" t="str">
+      <c r="S44" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43022</v>
       </c>
@@ -3619,58 +3755,61 @@
       <c r="C45">
         <v>10068</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45" s="1">
         <v>43022</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3312</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10068</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>7.85</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>757</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>337</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1634</v>
       </c>
-      <c r="N45" t="str">
+      <c r="O45" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="O45" t="str">
+      <c r="P45" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P45" t="str">
+      <c r="Q45" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q45" t="str">
+      <c r="R45" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R45" t="str">
+      <c r="S45" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43023</v>
       </c>
@@ -3680,58 +3819,61 @@
       <c r="C46">
         <v>4271</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46" s="1">
         <v>43023</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2635</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4271</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>3.33</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1190</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>147</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>726</v>
       </c>
-      <c r="N46" t="str">
+      <c r="O46" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O46" t="str">
+      <c r="P46" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P46" t="str">
+      <c r="Q46" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q46" t="str">
+      <c r="R46" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R46" t="str">
+      <c r="S46" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43024</v>
       </c>
@@ -3741,58 +3883,61 @@
       <c r="C47">
         <v>19350</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47" s="1">
         <v>43024</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4568</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19350</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>15.09</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>21</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>776</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>351</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>66</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>85</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3069</v>
       </c>
-      <c r="N47" t="str">
+      <c r="O47" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="O47" t="str">
+      <c r="P47" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="P47" t="str">
+      <c r="Q47" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q47" t="str">
+      <c r="R47" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R47" t="str">
+      <c r="S47" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43025</v>
       </c>
@@ -3802,58 +3947,61 @@
       <c r="C48">
         <v>15036</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48" s="1">
         <v>43025</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3741</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15036</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>11.73</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>596</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>330</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2091</v>
       </c>
-      <c r="N48" t="str">
+      <c r="O48" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="O48" t="str">
+      <c r="P48" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="P48" t="str">
+      <c r="Q48" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q48" t="str">
+      <c r="R48" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R48" t="str">
+      <c r="S48" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43026</v>
       </c>
@@ -3863,58 +4011,61 @@
       <c r="C49">
         <v>4550</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1">
         <v>43026</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2708</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4550</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>3.54</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1260</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>172</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>837</v>
       </c>
-      <c r="N49" t="str">
+      <c r="O49" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O49" t="str">
+      <c r="P49" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P49" t="str">
+      <c r="Q49" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q49" t="str">
+      <c r="R49" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R49" t="str">
+      <c r="S49" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43027</v>
       </c>
@@ -3924,58 +4075,61 @@
       <c r="C50">
         <v>6710</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50" s="1">
         <v>43027</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="3">
         <v>2915</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>6710</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>5.23</v>
       </c>
-      <c r="H50" s="3">
+      <c r="I50" s="3">
         <v>3</v>
       </c>
-      <c r="I50" s="3">
+      <c r="J50" s="3">
         <v>1085</v>
       </c>
-      <c r="J50" s="3">
+      <c r="K50" s="3">
         <v>267</v>
       </c>
-      <c r="K50" s="3">
-        <v>0</v>
-      </c>
       <c r="L50" s="3">
         <v>0</v>
       </c>
       <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
         <v>1208</v>
       </c>
-      <c r="N50" t="str">
+      <c r="O50" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O50" t="str">
+      <c r="P50" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P50" t="str">
+      <c r="Q50" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q50" t="str">
+      <c r="R50" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R50" t="str">
+      <c r="S50" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43028</v>
       </c>
@@ -3985,58 +4139,61 @@
       <c r="C51">
         <v>5433</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51" s="1">
         <v>43028</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="3">
         <v>2827</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>5433</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>4.24</v>
       </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
       <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
         <v>945</v>
       </c>
-      <c r="J51" s="3">
+      <c r="K51" s="3">
         <v>253</v>
       </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
       <c r="L51" s="3">
         <v>0</v>
       </c>
       <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
         <v>1069</v>
       </c>
-      <c r="N51" t="str">
+      <c r="O51" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O51" t="str">
+      <c r="P51" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P51" t="str">
+      <c r="Q51" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q51" t="str">
+      <c r="R51" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R51" t="str">
+      <c r="S51" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43029</v>
       </c>
@@ -4046,58 +4203,61 @@
       <c r="C52">
         <v>8824</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
+        <v>51</v>
+      </c>
+      <c r="E52" s="1">
         <v>43029</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3258</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8824</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>6.88</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>702</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>386</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>1669</v>
       </c>
-      <c r="N52" t="str">
+      <c r="O52" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="O52" t="str">
+      <c r="P52" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P52" t="str">
+      <c r="Q52" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q52" t="str">
+      <c r="R52" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R52" t="str">
+      <c r="S52" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43030</v>
       </c>
@@ -4107,58 +4267,61 @@
       <c r="C53">
         <v>7760</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
+        <v>52</v>
+      </c>
+      <c r="E53" s="1">
         <v>43030</v>
       </c>
-      <c r="E53" s="3">
+      <c r="F53" s="3">
         <v>3198</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
         <v>7760</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>6.05</v>
       </c>
-      <c r="H53" s="3">
+      <c r="I53" s="3">
         <v>8</v>
       </c>
-      <c r="I53" s="3">
+      <c r="J53" s="3">
         <v>699</v>
       </c>
-      <c r="J53" s="3">
+      <c r="K53" s="3">
         <v>307</v>
       </c>
-      <c r="K53" s="3">
+      <c r="L53" s="3">
         <v>14</v>
       </c>
-      <c r="L53" s="3">
-        <v>0</v>
-      </c>
       <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
         <v>1449</v>
       </c>
-      <c r="N53" t="str">
+      <c r="O53" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O53" t="str">
+      <c r="P53" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P53" t="str">
+      <c r="Q53" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q53" t="str">
+      <c r="R53" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R53" t="str">
+      <c r="S53" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43031</v>
       </c>
@@ -4168,58 +4331,61 @@
       <c r="C54">
         <v>10208</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
+        <v>53</v>
+      </c>
+      <c r="E54" s="1">
         <v>43031</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3880</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10208</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>7.43</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>592</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>349</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>51</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2319</v>
       </c>
-      <c r="N54" t="str">
+      <c r="O54" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="O54" t="str">
+      <c r="P54" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="P54" t="str">
+      <c r="Q54" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q54" t="str">
+      <c r="R54" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R54" t="str">
+      <c r="S54" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43032</v>
       </c>
@@ -4229,58 +4395,61 @@
       <c r="C55">
         <v>6042</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
+        <v>54</v>
+      </c>
+      <c r="E55" s="1">
         <v>43032</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="3">
         <v>2884</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>6042</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>4.71</v>
       </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
       <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
         <v>822</v>
       </c>
-      <c r="J55" s="3">
+      <c r="K55" s="3">
         <v>278</v>
       </c>
-      <c r="K55" s="3">
-        <v>0</v>
-      </c>
       <c r="L55" s="3">
         <v>0</v>
       </c>
       <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
         <v>1174</v>
       </c>
-      <c r="N55" t="str">
+      <c r="O55" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O55" t="str">
+      <c r="P55" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P55" t="str">
+      <c r="Q55" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q55" t="str">
+      <c r="R55" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R55" t="str">
+      <c r="S55" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43033</v>
       </c>
@@ -4290,58 +4459,61 @@
       <c r="C56">
         <v>10689</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
+        <v>55</v>
+      </c>
+      <c r="E56" s="1">
         <v>43033</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="3">
         <v>4157</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>10689</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>8.0500000000000007</v>
       </c>
-      <c r="H56" s="3">
+      <c r="I56" s="3">
         <v>6</v>
       </c>
-      <c r="I56" s="3">
+      <c r="J56" s="3">
         <v>616</v>
       </c>
-      <c r="J56" s="3">
+      <c r="K56" s="3">
         <v>353</v>
       </c>
-      <c r="K56" s="3">
+      <c r="L56" s="3">
         <v>39</v>
       </c>
-      <c r="L56" s="3">
+      <c r="M56" s="3">
         <v>51</v>
       </c>
-      <c r="M56" s="3">
+      <c r="N56" s="3">
         <v>2559</v>
       </c>
-      <c r="N56" t="str">
+      <c r="O56" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="O56" t="str">
+      <c r="P56" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="P56" t="str">
+      <c r="Q56" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q56" t="str">
+      <c r="R56" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R56" t="str">
+      <c r="S56" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43034</v>
       </c>
@@ -4351,58 +4523,61 @@
       <c r="C57">
         <v>5823</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
+        <v>56</v>
+      </c>
+      <c r="E57" s="1">
         <v>43034</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2895</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5823</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>4.54</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>733</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>255</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>1107</v>
       </c>
-      <c r="N57" t="str">
+      <c r="O57" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O57" t="str">
+      <c r="P57" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P57" t="str">
+      <c r="Q57" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q57" t="str">
+      <c r="R57" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R57" t="str">
+      <c r="S57" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43035</v>
       </c>
@@ -4412,58 +4587,61 @@
       <c r="C58">
         <v>4081</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
+        <v>57</v>
+      </c>
+      <c r="E58" s="1">
         <v>43035</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2686</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4081</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>3.18</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>802</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>208</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>874</v>
       </c>
-      <c r="N58" t="str">
+      <c r="O58" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O58" t="str">
+      <c r="P58" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P58" t="str">
+      <c r="Q58" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q58" t="str">
+      <c r="R58" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R58" t="str">
+      <c r="S58" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43036</v>
       </c>
@@ -4473,58 +4651,61 @@
       <c r="C59">
         <v>3948</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
+        <v>58</v>
+      </c>
+      <c r="E59" s="1">
         <v>43036</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2679</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3948</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>3.08</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>815</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>854</v>
       </c>
-      <c r="N59" t="str">
+      <c r="O59" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O59" t="str">
+      <c r="P59" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P59" t="str">
+      <c r="Q59" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q59" t="str">
+      <c r="R59" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R59" t="str">
+      <c r="S59" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43037</v>
       </c>
@@ -4534,58 +4715,61 @@
       <c r="C60">
         <v>5083</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
+        <v>59</v>
+      </c>
+      <c r="E60" s="1">
         <v>43037</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3006</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5083</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>3.96</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>809</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>250</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" t="str">
+      <c r="O60" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O60" t="str">
+      <c r="P60" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P60" t="str">
+      <c r="Q60" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q60" t="str">
+      <c r="R60" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R60" t="str">
+      <c r="S60" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43038</v>
       </c>
@@ -4595,58 +4779,61 @@
       <c r="C61">
         <v>9117</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
+        <v>60</v>
+      </c>
+      <c r="E61" s="1">
         <v>43038</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3124</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9117</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>7.46</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>762</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>220</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1359</v>
       </c>
-      <c r="N61" t="str">
+      <c r="O61" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="O61" t="str">
+      <c r="P61" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P61" t="str">
+      <c r="Q61" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q61" t="str">
+      <c r="R61" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R61" t="str">
+      <c r="S61" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43039</v>
       </c>
@@ -4656,58 +4843,61 @@
       <c r="C62">
         <v>6554</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
+        <v>61</v>
+      </c>
+      <c r="E62" s="1">
         <v>43039</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2943</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6554</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>5.1100000000000003</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>786</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>269</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>1192</v>
       </c>
-      <c r="N62" t="str">
+      <c r="O62" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O62" t="str">
+      <c r="P62" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P62" t="str">
+      <c r="Q62" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q62" t="str">
+      <c r="R62" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R62" t="str">
+      <c r="S62" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43040</v>
       </c>
@@ -4717,58 +4907,61 @@
       <c r="C63" s="2">
         <v>15351</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
+        <v>62</v>
+      </c>
+      <c r="E63" s="1">
         <v>43040</v>
       </c>
-      <c r="E63" s="3">
+      <c r="F63" s="3">
         <v>4038</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <v>15351</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>12.3</v>
       </c>
-      <c r="H63" s="3">
+      <c r="I63" s="3">
         <v>12</v>
       </c>
-      <c r="I63" s="3">
+      <c r="J63" s="3">
         <v>488</v>
       </c>
-      <c r="J63" s="3">
+      <c r="K63" s="3">
         <v>412</v>
       </c>
-      <c r="K63" s="3">
+      <c r="L63" s="3">
         <v>18</v>
       </c>
-      <c r="L63" s="3">
+      <c r="M63" s="3">
         <v>51</v>
       </c>
-      <c r="M63" s="3">
+      <c r="N63" s="3">
         <v>2486</v>
       </c>
-      <c r="N63" t="str">
+      <c r="O63" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="O63" t="str">
+      <c r="P63" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="P63" t="str">
+      <c r="Q63" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q63" t="str">
+      <c r="R63" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R63" t="str">
+      <c r="S63" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43041</v>
       </c>
@@ -4778,58 +4971,61 @@
       <c r="C64" s="2">
         <v>5197</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
+        <v>63</v>
+      </c>
+      <c r="E64" s="1">
         <v>43041</v>
       </c>
-      <c r="E64" s="3">
+      <c r="F64" s="3">
         <v>2831</v>
       </c>
-      <c r="F64" s="3">
+      <c r="G64" s="3">
         <v>5197</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>4.05</v>
       </c>
-      <c r="H64" s="3">
+      <c r="I64" s="3">
         <v>1</v>
       </c>
-      <c r="I64" s="3">
+      <c r="J64" s="3">
         <v>850</v>
       </c>
-      <c r="J64" s="3">
+      <c r="K64" s="3">
         <v>245</v>
       </c>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
       <c r="L64" s="3">
         <v>0</v>
       </c>
       <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
         <v>1051</v>
       </c>
-      <c r="N64" t="str">
+      <c r="O64" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O64" t="str">
+      <c r="P64" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P64" t="str">
+      <c r="Q64" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q64" t="str">
+      <c r="R64" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R64" t="str">
+      <c r="S64" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43042</v>
       </c>
@@ -4839,58 +5035,61 @@
       <c r="C65" s="2">
         <v>5061</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
+        <v>64</v>
+      </c>
+      <c r="E65" s="1">
         <v>43042</v>
       </c>
-      <c r="E65" s="3">
+      <c r="F65" s="3">
         <v>2731</v>
       </c>
-      <c r="F65" s="3">
+      <c r="G65" s="3">
         <v>5061</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>3.95</v>
       </c>
-      <c r="H65" s="3">
+      <c r="I65" s="3">
         <v>1</v>
       </c>
-      <c r="I65" s="3">
+      <c r="J65" s="3">
         <v>765</v>
       </c>
-      <c r="J65" s="3">
+      <c r="K65" s="3">
         <v>222</v>
       </c>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
       <c r="L65" s="3">
         <v>0</v>
       </c>
       <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
         <v>936</v>
       </c>
-      <c r="N65" t="str">
+      <c r="O65" t="str">
         <f t="shared" si="5"/>
         <v>No</v>
       </c>
-      <c r="O65" t="str">
+      <c r="P65" t="str">
         <f t="shared" si="6"/>
         <v>No</v>
       </c>
-      <c r="P65" t="str">
+      <c r="Q65" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
-      <c r="Q65" t="str">
+      <c r="R65" t="str">
         <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
-      <c r="R65" t="str">
+      <c r="S65" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43043</v>
       </c>
@@ -4900,58 +5099,61 @@
       <c r="C66" s="2">
         <v>5894</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
+        <v>65</v>
+      </c>
+      <c r="E66" s="1">
         <v>43043</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3263</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5894</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>4.4400000000000004</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1164</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>215</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1517</v>
       </c>
-      <c r="N66" t="str">
-        <f t="shared" ref="N66:N92" si="7">IF(C66&gt;8000,"Yes","No")</f>
-        <v>No</v>
-      </c>
       <c r="O66" t="str">
-        <f t="shared" ref="O66:O92" si="8">IF(B66&gt;3400,"Yes","No")</f>
+        <f t="shared" ref="O66:O92" si="7">IF(C66&gt;8000,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="P66" t="str">
+        <f t="shared" ref="P66:P92" si="8">IF(B66&gt;3400,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="Q66" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="Q66" t="str">
+      <c r="R66" t="str">
         <f t="shared" si="3"/>
         <v>No</v>
       </c>
-      <c r="R66" t="str">
+      <c r="S66" t="str">
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43044</v>
       </c>
@@ -4961,58 +5163,61 @@
       <c r="C67" s="2">
         <v>7449</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
+        <v>66</v>
+      </c>
+      <c r="E67" s="1">
         <v>43044</v>
       </c>
-      <c r="E67" s="3">
+      <c r="F67" s="3">
         <v>3148</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="3">
         <v>7449</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>5.46</v>
       </c>
-      <c r="H67" s="3">
+      <c r="I67" s="3">
         <v>6</v>
       </c>
-      <c r="I67" s="3">
+      <c r="J67" s="3">
         <v>700</v>
       </c>
-      <c r="J67" s="3">
+      <c r="K67" s="3">
         <v>241</v>
       </c>
-      <c r="K67" s="3">
+      <c r="L67" s="3">
         <v>26</v>
       </c>
-      <c r="L67" s="3">
+      <c r="M67" s="3">
         <v>14</v>
       </c>
-      <c r="M67" s="3">
+      <c r="N67" s="3">
         <v>1436</v>
       </c>
-      <c r="N67" t="str">
+      <c r="O67" t="str">
         <f t="shared" si="7"/>
         <v>No</v>
       </c>
-      <c r="O67" t="str">
+      <c r="P67" t="str">
         <f t="shared" si="8"/>
         <v>No</v>
       </c>
-      <c r="P67" t="str">
-        <f t="shared" ref="P67:P92" si="9">IF(L67&gt;30,"Yes","No")</f>
-        <v>No</v>
-      </c>
       <c r="Q67" t="str">
-        <f t="shared" ref="Q67:Q92" si="10">IF(L67+K67&lt;30,"Yes","No")</f>
+        <f t="shared" ref="Q67:Q92" si="9">IF(M67&gt;30,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" ref="R67:R92" si="11">IF(G67&gt;5,"Yes","No")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ref="R67:R92" si="10">IF(M67+L67&lt;30,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" ref="S67:S92" si="11">IF(H67&gt;5,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43045</v>
       </c>
@@ -5022,58 +5227,61 @@
       <c r="C68" s="2">
         <v>9041</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
+        <v>67</v>
+      </c>
+      <c r="E68" s="1">
         <v>43045</v>
       </c>
-      <c r="E68" s="3">
+      <c r="F68" s="3">
         <v>3402</v>
       </c>
-      <c r="F68" s="3">
+      <c r="G68" s="3">
         <v>9041</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>6.8</v>
       </c>
-      <c r="H68" s="3">
+      <c r="I68" s="3">
         <v>4</v>
       </c>
-      <c r="I68" s="3">
+      <c r="J68" s="3">
         <v>784</v>
       </c>
-      <c r="J68" s="3">
+      <c r="K68" s="3">
         <v>318</v>
       </c>
-      <c r="K68" s="3">
+      <c r="L68" s="3">
         <v>21</v>
       </c>
-      <c r="L68" s="3">
+      <c r="M68" s="3">
         <v>19</v>
       </c>
-      <c r="M68" s="3">
+      <c r="N68" s="3">
         <v>1758</v>
       </c>
-      <c r="N68" t="str">
+      <c r="O68" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O68" t="str">
+      <c r="P68" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P68" t="str">
+      <c r="Q68" t="str">
         <f t="shared" si="9"/>
         <v>No</v>
       </c>
-      <c r="Q68" t="str">
+      <c r="R68" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R68" t="str">
+      <c r="S68" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43046</v>
       </c>
@@ -5083,58 +5291,61 @@
       <c r="C69" s="2">
         <v>2322</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
+        <v>68</v>
+      </c>
+      <c r="E69" s="1">
         <v>43046</v>
       </c>
-      <c r="E69" s="3">
+      <c r="F69" s="3">
         <v>2423</v>
       </c>
-      <c r="F69" s="3">
+      <c r="G69" s="3">
         <v>2322</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>1.81</v>
       </c>
-      <c r="H69" s="3">
+      <c r="I69" s="3">
         <v>1</v>
       </c>
-      <c r="I69" s="3">
+      <c r="J69" s="3">
         <v>821</v>
       </c>
-      <c r="J69" s="3">
+      <c r="K69" s="3">
         <v>105</v>
       </c>
-      <c r="K69" s="3">
-        <v>0</v>
-      </c>
       <c r="L69" s="3">
         <v>0</v>
       </c>
       <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
         <v>457</v>
       </c>
-      <c r="N69" t="str">
+      <c r="O69" t="str">
         <f t="shared" si="7"/>
         <v>No</v>
       </c>
-      <c r="O69" t="str">
+      <c r="P69" t="str">
         <f t="shared" si="8"/>
         <v>No</v>
       </c>
-      <c r="P69" t="str">
+      <c r="Q69" t="str">
         <f t="shared" si="9"/>
         <v>No</v>
       </c>
-      <c r="Q69" t="str">
+      <c r="R69" t="str">
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="R69" t="str">
+      <c r="S69" t="str">
         <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43047</v>
       </c>
@@ -5144,58 +5355,61 @@
       <c r="C70" s="2">
         <v>7867</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
+        <v>69</v>
+      </c>
+      <c r="E70" s="1">
         <v>43047</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>3454</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>7867</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>5.8</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>8</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>702</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>265</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>20</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>36</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1727</v>
       </c>
-      <c r="N70" t="str">
+      <c r="O70" t="str">
         <f t="shared" si="7"/>
         <v>No</v>
       </c>
-      <c r="O70" t="str">
+      <c r="P70" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P70" t="str">
+      <c r="Q70" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q70" t="str">
+      <c r="R70" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R70" t="str">
+      <c r="S70" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43048</v>
       </c>
@@ -5205,58 +5419,61 @@
       <c r="C71" s="2">
         <v>7820</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
+        <v>70</v>
+      </c>
+      <c r="E71" s="1">
         <v>43048</v>
       </c>
-      <c r="E71" s="3">
+      <c r="F71" s="3">
         <v>3360</v>
       </c>
-      <c r="F71" s="3">
+      <c r="G71" s="3">
         <v>7820</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>5.89</v>
       </c>
-      <c r="H71" s="3">
+      <c r="I71" s="3">
         <v>4</v>
       </c>
-      <c r="I71" s="3">
+      <c r="J71" s="3">
         <v>725</v>
       </c>
-      <c r="J71" s="3">
+      <c r="K71" s="3">
         <v>272</v>
       </c>
-      <c r="K71" s="3">
+      <c r="L71" s="3">
         <v>34</v>
       </c>
-      <c r="L71" s="3">
+      <c r="M71" s="3">
         <v>24</v>
       </c>
-      <c r="M71" s="3">
+      <c r="N71" s="3">
         <v>1674</v>
       </c>
-      <c r="N71" t="str">
+      <c r="O71" t="str">
         <f t="shared" si="7"/>
         <v>No</v>
       </c>
-      <c r="O71" t="str">
+      <c r="P71" t="str">
         <f t="shared" si="8"/>
         <v>No</v>
       </c>
-      <c r="P71" t="str">
+      <c r="Q71" t="str">
         <f t="shared" si="9"/>
         <v>No</v>
       </c>
-      <c r="Q71" t="str">
+      <c r="R71" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R71" t="str">
+      <c r="S71" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43049</v>
       </c>
@@ -5266,58 +5483,61 @@
       <c r="C72" s="2">
         <v>8588</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
+        <v>71</v>
+      </c>
+      <c r="E72" s="1">
         <v>43049</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3192</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8588</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>6.7</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>664</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>371</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
       <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
         <v>1606</v>
       </c>
-      <c r="N72" t="str">
+      <c r="O72" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O72" t="str">
+      <c r="P72" t="str">
         <f t="shared" si="8"/>
         <v>No</v>
       </c>
-      <c r="P72" t="str">
+      <c r="Q72" t="str">
         <f t="shared" si="9"/>
         <v>No</v>
       </c>
-      <c r="Q72" t="str">
+      <c r="R72" t="str">
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="R72" t="str">
+      <c r="S72" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43050</v>
       </c>
@@ -5327,58 +5547,61 @@
       <c r="C73" s="2">
         <v>8069</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
+        <v>72</v>
+      </c>
+      <c r="E73" s="1">
         <v>43050</v>
       </c>
-      <c r="E73" s="3">
+      <c r="F73" s="3">
         <v>3773</v>
       </c>
-      <c r="F73" s="3">
+      <c r="G73" s="3">
         <v>8069</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>6.16</v>
       </c>
-      <c r="H73" s="3">
+      <c r="I73" s="3">
         <v>6</v>
       </c>
-      <c r="I73" s="3">
+      <c r="J73" s="3">
         <v>568</v>
       </c>
-      <c r="J73" s="3">
+      <c r="K73" s="3">
         <v>327</v>
       </c>
-      <c r="K73" s="3">
+      <c r="L73" s="3">
         <v>34</v>
       </c>
-      <c r="L73" s="3">
+      <c r="M73" s="3">
         <v>39</v>
       </c>
-      <c r="M73" s="3">
+      <c r="N73" s="3">
         <v>2146</v>
       </c>
-      <c r="N73" t="str">
+      <c r="O73" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O73" t="str">
+      <c r="P73" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P73" t="str">
+      <c r="Q73" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q73" t="str">
+      <c r="R73" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R73" t="str">
+      <c r="S73" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43051</v>
       </c>
@@ -5388,58 +5611,61 @@
       <c r="C74" s="2">
         <v>8482</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
+        <v>73</v>
+      </c>
+      <c r="E74" s="1">
         <v>43051</v>
       </c>
-      <c r="E74" s="3">
+      <c r="F74" s="3">
         <v>3369</v>
       </c>
-      <c r="F74" s="3">
+      <c r="G74" s="3">
         <v>8482</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>6.41</v>
       </c>
-      <c r="H74" s="3">
+      <c r="I74" s="3">
         <v>6</v>
       </c>
-      <c r="I74" s="3">
+      <c r="J74" s="3">
         <v>645</v>
       </c>
-      <c r="J74" s="3">
+      <c r="K74" s="3">
         <v>254</v>
       </c>
-      <c r="K74" s="3">
+      <c r="L74" s="3">
         <v>20</v>
       </c>
-      <c r="L74" s="3">
+      <c r="M74" s="3">
         <v>31</v>
       </c>
-      <c r="M74" s="3">
+      <c r="N74" s="3">
         <v>1689</v>
       </c>
-      <c r="N74" t="str">
+      <c r="O74" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O74" t="str">
+      <c r="P74" t="str">
         <f t="shared" si="8"/>
         <v>No</v>
       </c>
-      <c r="P74" t="str">
+      <c r="Q74" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q74" t="str">
+      <c r="R74" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R74" t="str">
+      <c r="S74" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43052</v>
       </c>
@@ -5449,58 +5675,61 @@
       <c r="C75" s="2">
         <v>13500</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
+        <v>74</v>
+      </c>
+      <c r="E75" s="1">
         <v>43052</v>
       </c>
-      <c r="E75" s="3">
+      <c r="F75" s="3">
         <v>4112</v>
       </c>
-      <c r="F75" s="3">
+      <c r="G75" s="3">
         <v>13500</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>10.39</v>
       </c>
-      <c r="H75" s="3">
+      <c r="I75" s="3">
         <v>7</v>
       </c>
-      <c r="I75" s="3">
+      <c r="J75" s="3">
         <v>570</v>
       </c>
-      <c r="J75" s="3">
+      <c r="K75" s="3">
         <v>353</v>
       </c>
-      <c r="K75" s="3">
+      <c r="L75" s="3">
         <v>35</v>
       </c>
-      <c r="L75" s="3">
+      <c r="M75" s="3">
         <v>56</v>
       </c>
-      <c r="M75" s="3">
+      <c r="N75" s="3">
         <v>2597</v>
       </c>
-      <c r="N75" t="str">
+      <c r="O75" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O75" t="str">
+      <c r="P75" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P75" t="str">
+      <c r="Q75" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q75" t="str">
+      <c r="R75" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R75" t="str">
+      <c r="S75" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43053</v>
       </c>
@@ -5510,58 +5739,61 @@
       <c r="C76" s="2">
         <v>16888</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="E76" s="1">
         <v>43053</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4622</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16888</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>13.04</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>484</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>449</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>70</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3246</v>
       </c>
-      <c r="N76" t="str">
+      <c r="O76" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O76" t="str">
+      <c r="P76" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P76" t="str">
+      <c r="Q76" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q76" t="str">
+      <c r="R76" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R76" t="str">
+      <c r="S76" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43054</v>
       </c>
@@ -5571,58 +5803,61 @@
       <c r="C77" s="2">
         <v>9599</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
+        <v>76</v>
+      </c>
+      <c r="E77" s="1">
         <v>43054</v>
       </c>
-      <c r="E77" s="3">
+      <c r="F77" s="3">
         <v>3349</v>
       </c>
-      <c r="F77" s="3">
+      <c r="G77" s="3">
         <v>9599</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>7.49</v>
       </c>
-      <c r="H77" s="3">
+      <c r="I77" s="3">
         <v>1</v>
       </c>
-      <c r="I77" s="3">
+      <c r="J77" s="3">
         <v>507</v>
       </c>
-      <c r="J77" s="3">
+      <c r="K77" s="3">
         <v>421</v>
       </c>
-      <c r="K77" s="3">
-        <v>0</v>
-      </c>
       <c r="L77" s="3">
         <v>0</v>
       </c>
       <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
         <v>1823</v>
       </c>
-      <c r="N77" t="str">
+      <c r="O77" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O77" t="str">
+      <c r="P77" t="str">
         <f t="shared" si="8"/>
         <v>No</v>
       </c>
-      <c r="P77" t="str">
+      <c r="Q77" t="str">
         <f t="shared" si="9"/>
         <v>No</v>
       </c>
-      <c r="Q77" t="str">
+      <c r="R77" t="str">
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="R77" t="str">
+      <c r="S77" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43055</v>
       </c>
@@ -5632,58 +5867,61 @@
       <c r="C78" s="2">
         <v>10091</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
+        <v>77</v>
+      </c>
+      <c r="E78" s="1">
         <v>43055</v>
       </c>
-      <c r="E78" s="3">
+      <c r="F78" s="3">
         <v>3821</v>
       </c>
-      <c r="F78" s="3">
+      <c r="G78" s="3">
         <v>10091</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>7.47</v>
       </c>
-      <c r="H78" s="3">
+      <c r="I78" s="3">
         <v>7</v>
       </c>
-      <c r="I78" s="3">
+      <c r="J78" s="3">
         <v>796</v>
       </c>
-      <c r="J78" s="3">
+      <c r="K78" s="3">
         <v>337</v>
       </c>
-      <c r="K78" s="3">
+      <c r="L78" s="3">
         <v>33</v>
       </c>
-      <c r="L78" s="3">
+      <c r="M78" s="3">
         <v>50</v>
       </c>
-      <c r="M78" s="3">
+      <c r="N78" s="3">
         <v>2282</v>
       </c>
-      <c r="N78" t="str">
+      <c r="O78" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O78" t="str">
+      <c r="P78" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P78" t="str">
+      <c r="Q78" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q78" t="str">
+      <c r="R78" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R78" t="str">
+      <c r="S78" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43056</v>
       </c>
@@ -5693,58 +5931,61 @@
       <c r="C79" s="2">
         <v>13565</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
+        <v>78</v>
+      </c>
+      <c r="E79" s="1">
         <v>43056</v>
       </c>
-      <c r="E79" s="3">
+      <c r="F79" s="3">
         <v>4066</v>
       </c>
-      <c r="F79" s="3">
+      <c r="G79" s="3">
         <v>13565</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>10.46</v>
       </c>
-      <c r="H79" s="3">
+      <c r="I79" s="3">
         <v>8</v>
       </c>
-      <c r="I79" s="3">
+      <c r="J79" s="3">
         <v>520</v>
       </c>
-      <c r="J79" s="3">
+      <c r="K79" s="3">
         <v>412</v>
       </c>
-      <c r="K79" s="3">
+      <c r="L79" s="3">
         <v>23</v>
       </c>
-      <c r="L79" s="3">
+      <c r="M79" s="3">
         <v>45</v>
       </c>
-      <c r="M79" s="3">
+      <c r="N79" s="3">
         <v>2602</v>
       </c>
-      <c r="N79" t="str">
+      <c r="O79" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O79" t="str">
+      <c r="P79" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P79" t="str">
+      <c r="Q79" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q79" t="str">
+      <c r="R79" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R79" t="str">
+      <c r="S79" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43057</v>
       </c>
@@ -5754,58 +5995,61 @@
       <c r="C80" s="2">
         <v>5920</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
+        <v>79</v>
+      </c>
+      <c r="E80" s="1">
         <v>43057</v>
       </c>
-      <c r="E80" s="3">
+      <c r="F80" s="3">
         <v>2987</v>
       </c>
-      <c r="F80" s="3">
+      <c r="G80" s="3">
         <v>5920</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>4.62</v>
       </c>
-      <c r="H80" s="3">
-        <v>0</v>
-      </c>
       <c r="I80" s="3">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
         <v>696</v>
       </c>
-      <c r="J80" s="3">
+      <c r="K80" s="3">
         <v>312</v>
       </c>
-      <c r="K80" s="3">
-        <v>0</v>
-      </c>
       <c r="L80" s="3">
         <v>0</v>
       </c>
       <c r="M80" s="3">
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
         <v>1296</v>
       </c>
-      <c r="N80" t="str">
+      <c r="O80" t="str">
         <f t="shared" si="7"/>
         <v>No</v>
       </c>
-      <c r="O80" t="str">
+      <c r="P80" t="str">
         <f t="shared" si="8"/>
         <v>No</v>
       </c>
-      <c r="P80" t="str">
+      <c r="Q80" t="str">
         <f t="shared" si="9"/>
         <v>No</v>
       </c>
-      <c r="Q80" t="str">
+      <c r="R80" t="str">
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="R80" t="str">
+      <c r="S80" t="str">
         <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43058</v>
       </c>
@@ -5815,58 +6059,61 @@
       <c r="C81" s="2">
         <v>6708</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
+        <v>80</v>
+      </c>
+      <c r="E81" s="1">
         <v>43058</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3106</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6708</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>4.95</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>758</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>228</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1396</v>
       </c>
-      <c r="N81" t="str">
+      <c r="O81" t="str">
         <f t="shared" si="7"/>
         <v>No</v>
       </c>
-      <c r="O81" t="str">
+      <c r="P81" t="str">
         <f t="shared" si="8"/>
         <v>No</v>
       </c>
-      <c r="P81" t="str">
+      <c r="Q81" t="str">
         <f t="shared" si="9"/>
         <v>No</v>
       </c>
-      <c r="Q81" t="str">
+      <c r="R81" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R81" t="str">
+      <c r="S81" t="str">
         <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43059</v>
       </c>
@@ -5876,58 +6123,61 @@
       <c r="C82" s="2">
         <v>11094</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82">
+        <v>81</v>
+      </c>
+      <c r="E82" s="1">
         <v>43059</v>
       </c>
-      <c r="E82" s="3">
+      <c r="F82" s="3">
         <v>3975</v>
       </c>
-      <c r="F82" s="3">
+      <c r="G82" s="3">
         <v>11094</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>8.56</v>
       </c>
-      <c r="H82" s="3">
+      <c r="I82" s="3">
         <v>6</v>
       </c>
-      <c r="I82" s="3">
+      <c r="J82" s="3">
         <v>618</v>
       </c>
-      <c r="J82" s="3">
+      <c r="K82" s="3">
         <v>292</v>
       </c>
-      <c r="K82" s="3">
+      <c r="L82" s="3">
         <v>30</v>
       </c>
-      <c r="L82" s="3">
+      <c r="M82" s="3">
         <v>66</v>
       </c>
-      <c r="M82" s="3">
+      <c r="N82" s="3">
         <v>2341</v>
       </c>
-      <c r="N82" t="str">
+      <c r="O82" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O82" t="str">
+      <c r="P82" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P82" t="str">
+      <c r="Q82" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q82" t="str">
+      <c r="R82" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R82" t="str">
+      <c r="S82" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43060</v>
       </c>
@@ -5937,58 +6187,61 @@
       <c r="C83" s="2">
         <v>9984</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83">
+        <v>82</v>
+      </c>
+      <c r="E83" s="1">
         <v>43060</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3897</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9984</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>7.8</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>682</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>285</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>73</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2236</v>
       </c>
-      <c r="N83" t="str">
+      <c r="O83" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O83" t="str">
+      <c r="P83" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P83" t="str">
+      <c r="Q83" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q83" t="str">
+      <c r="R83" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R83" t="str">
+      <c r="S83" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43061</v>
       </c>
@@ -5998,58 +6251,61 @@
       <c r="C84" s="2">
         <v>7346</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84">
+        <v>83</v>
+      </c>
+      <c r="E84" s="1">
         <v>43061</v>
       </c>
-      <c r="E84" s="3">
+      <c r="F84" s="3">
         <v>3063</v>
       </c>
-      <c r="F84" s="3">
+      <c r="G84" s="3">
         <v>7346</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>5.73</v>
       </c>
-      <c r="H84" s="3">
+      <c r="I84" s="3">
         <v>15</v>
       </c>
-      <c r="I84" s="3">
+      <c r="J84" s="3">
         <v>713</v>
       </c>
-      <c r="J84" s="3">
+      <c r="K84" s="3">
         <v>302</v>
       </c>
-      <c r="K84" s="3">
-        <v>0</v>
-      </c>
       <c r="L84" s="3">
         <v>0</v>
       </c>
       <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
         <v>1351</v>
       </c>
-      <c r="N84" t="str">
+      <c r="O84" t="str">
         <f t="shared" si="7"/>
         <v>No</v>
       </c>
-      <c r="O84" t="str">
+      <c r="P84" t="str">
         <f t="shared" si="8"/>
         <v>No</v>
       </c>
-      <c r="P84" t="str">
+      <c r="Q84" t="str">
         <f t="shared" si="9"/>
         <v>No</v>
       </c>
-      <c r="Q84" t="str">
+      <c r="R84" t="str">
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="R84" t="str">
+      <c r="S84" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43062</v>
       </c>
@@ -6059,58 +6315,61 @@
       <c r="C85" s="2">
         <v>12596</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85">
+        <v>84</v>
+      </c>
+      <c r="E85" s="1">
         <v>43062</v>
       </c>
-      <c r="E85" s="3">
+      <c r="F85" s="3">
         <v>3889</v>
       </c>
-      <c r="F85" s="3">
+      <c r="G85" s="3">
         <v>12596</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>9.4499999999999993</v>
       </c>
-      <c r="H85" s="3">
+      <c r="I85" s="3">
         <v>11</v>
       </c>
-      <c r="I85" s="3">
+      <c r="J85" s="3">
         <v>570</v>
       </c>
-      <c r="J85" s="3">
+      <c r="K85" s="3">
         <v>394</v>
       </c>
-      <c r="K85" s="3">
+      <c r="L85" s="3">
         <v>37</v>
       </c>
-      <c r="L85" s="3">
+      <c r="M85" s="3">
         <v>27</v>
       </c>
-      <c r="M85" s="3">
+      <c r="N85" s="3">
         <v>2381</v>
       </c>
-      <c r="N85" t="str">
+      <c r="O85" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O85" t="str">
+      <c r="P85" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P85" t="str">
+      <c r="Q85" t="str">
         <f t="shared" si="9"/>
         <v>No</v>
       </c>
-      <c r="Q85" t="str">
+      <c r="R85" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R85" t="str">
+      <c r="S85" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43063</v>
       </c>
@@ -6120,58 +6379,61 @@
       <c r="C86" s="2">
         <v>9755</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86">
+        <v>85</v>
+      </c>
+      <c r="E86" s="1">
         <v>43063</v>
       </c>
-      <c r="E86" s="3">
+      <c r="F86" s="3">
         <v>3617</v>
       </c>
-      <c r="F86" s="3">
+      <c r="G86" s="3">
         <v>9755</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>7.52</v>
       </c>
-      <c r="H86" s="3">
+      <c r="I86" s="3">
         <v>5</v>
       </c>
-      <c r="I86" s="3">
+      <c r="J86" s="3">
         <v>679</v>
       </c>
-      <c r="J86" s="3">
+      <c r="K86" s="3">
         <v>265</v>
       </c>
-      <c r="K86" s="3">
+      <c r="L86" s="3">
         <v>26</v>
       </c>
-      <c r="L86" s="3">
+      <c r="M86" s="3">
         <v>49</v>
       </c>
-      <c r="M86" s="3">
+      <c r="N86" s="3">
         <v>1967</v>
       </c>
-      <c r="N86" t="str">
+      <c r="O86" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O86" t="str">
+      <c r="P86" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P86" t="str">
+      <c r="Q86" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q86" t="str">
+      <c r="R86" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R86" t="str">
+      <c r="S86" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43064</v>
       </c>
@@ -6181,58 +6443,61 @@
       <c r="C87" s="2">
         <v>13141</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87">
+        <v>86</v>
+      </c>
+      <c r="E87" s="1">
         <v>43064</v>
       </c>
-      <c r="E87" s="3">
+      <c r="F87" s="3">
         <v>4028</v>
       </c>
-      <c r="F87" s="3">
+      <c r="G87" s="3">
         <v>13141</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>9.86</v>
       </c>
-      <c r="H87" s="3">
+      <c r="I87" s="3">
         <v>7</v>
       </c>
-      <c r="I87" s="3">
+      <c r="J87" s="3">
         <v>560</v>
       </c>
-      <c r="J87" s="3">
+      <c r="K87" s="3">
         <v>415</v>
       </c>
-      <c r="K87" s="3">
+      <c r="L87" s="3">
         <v>33</v>
       </c>
-      <c r="L87" s="3">
+      <c r="M87" s="3">
         <v>43</v>
       </c>
-      <c r="M87" s="3">
+      <c r="N87" s="3">
         <v>2565</v>
       </c>
-      <c r="N87" t="str">
+      <c r="O87" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O87" t="str">
+      <c r="P87" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P87" t="str">
+      <c r="Q87" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q87" t="str">
+      <c r="R87" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R87" t="str">
+      <c r="S87" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43065</v>
       </c>
@@ -6242,58 +6507,61 @@
       <c r="C88" s="2">
         <v>10559</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88">
+        <v>87</v>
+      </c>
+      <c r="E88" s="1">
         <v>43065</v>
       </c>
-      <c r="E88" s="3">
+      <c r="F88" s="3">
         <v>3372</v>
       </c>
-      <c r="F88" s="3">
+      <c r="G88" s="3">
         <v>10559</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>8.24</v>
       </c>
-      <c r="H88" s="3">
+      <c r="I88" s="3">
         <v>3</v>
       </c>
-      <c r="I88" s="3">
+      <c r="J88" s="3">
         <v>774</v>
       </c>
-      <c r="J88" s="3">
+      <c r="K88" s="3">
         <v>370</v>
       </c>
-      <c r="K88" s="3">
-        <v>0</v>
-      </c>
       <c r="L88" s="3">
         <v>0</v>
       </c>
       <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
         <v>1741</v>
       </c>
-      <c r="N88" t="str">
+      <c r="O88" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O88" t="str">
+      <c r="P88" t="str">
         <f t="shared" si="8"/>
         <v>No</v>
       </c>
-      <c r="P88" t="str">
+      <c r="Q88" t="str">
         <f t="shared" si="9"/>
         <v>No</v>
       </c>
-      <c r="Q88" t="str">
+      <c r="R88" t="str">
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="R88" t="str">
+      <c r="S88" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43066</v>
       </c>
@@ -6303,58 +6571,61 @@
       <c r="C89" s="2">
         <v>10634</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89">
+        <v>88</v>
+      </c>
+      <c r="E89" s="1">
         <v>43066</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3712</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10634</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>7.94</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>531</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>318</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>50</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2146</v>
       </c>
-      <c r="N89" t="str">
+      <c r="O89" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O89" t="str">
+      <c r="P89" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P89" t="str">
+      <c r="Q89" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q89" t="str">
+      <c r="R89" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R89" t="str">
+      <c r="S89" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43067</v>
       </c>
@@ -6364,58 +6635,61 @@
       <c r="C90" s="2">
         <v>15373</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90">
+        <v>89</v>
+      </c>
+      <c r="E90" s="1">
         <v>43067</v>
       </c>
-      <c r="E90" s="3">
+      <c r="F90" s="3">
         <v>4376</v>
       </c>
-      <c r="F90" s="3">
+      <c r="G90" s="3">
         <v>15373</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>11.87</v>
       </c>
-      <c r="H90" s="3">
+      <c r="I90" s="3">
         <v>6</v>
       </c>
-      <c r="I90" s="3">
+      <c r="J90" s="3">
         <v>526</v>
       </c>
-      <c r="J90" s="3">
+      <c r="K90" s="3">
         <v>409</v>
       </c>
-      <c r="K90" s="3">
+      <c r="L90" s="3">
         <v>17</v>
       </c>
-      <c r="L90" s="3">
+      <c r="M90" s="3">
         <v>83</v>
       </c>
-      <c r="M90" s="3">
+      <c r="N90" s="3">
         <v>2954</v>
       </c>
-      <c r="N90" t="str">
+      <c r="O90" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O90" t="str">
+      <c r="P90" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P90" t="str">
+      <c r="Q90" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q90" t="str">
+      <c r="R90" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R90" t="str">
+      <c r="S90" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43068</v>
       </c>
@@ -6425,58 +6699,61 @@
       <c r="C91" s="2">
         <v>9700</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91">
+        <v>90</v>
+      </c>
+      <c r="E91" s="1">
         <v>43068</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>3411</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>9700</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>7.57</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>1</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>577</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>454</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>1917</v>
       </c>
-      <c r="N91" t="str">
+      <c r="O91" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O91" t="str">
+      <c r="P91" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P91" t="str">
+      <c r="Q91" t="str">
         <f t="shared" si="9"/>
         <v>No</v>
       </c>
-      <c r="Q91" t="str">
+      <c r="R91" t="str">
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="R91" t="str">
+      <c r="S91" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43069</v>
       </c>
@@ -6486,53 +6763,56 @@
       <c r="C92" s="2">
         <v>15834</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92">
+        <v>91</v>
+      </c>
+      <c r="E92" s="1">
         <v>43069</v>
       </c>
-      <c r="E92" s="3">
+      <c r="F92" s="3">
         <v>4445</v>
       </c>
-      <c r="F92" s="3">
+      <c r="G92" s="3">
         <v>15834</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>11.91</v>
       </c>
-      <c r="H92" s="3">
+      <c r="I92" s="3">
         <v>8</v>
       </c>
-      <c r="I92" s="3">
+      <c r="J92" s="3">
         <v>389</v>
       </c>
-      <c r="J92" s="3">
+      <c r="K92" s="3">
         <v>486</v>
       </c>
-      <c r="K92" s="3">
+      <c r="L92" s="3">
         <v>36</v>
       </c>
-      <c r="L92" s="3">
+      <c r="M92" s="3">
         <v>60</v>
       </c>
-      <c r="M92" s="3">
+      <c r="N92" s="3">
         <v>3139</v>
       </c>
-      <c r="N92" t="str">
+      <c r="O92" t="str">
         <f t="shared" si="7"/>
         <v>Yes</v>
       </c>
-      <c r="O92" t="str">
+      <c r="P92" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="P92" t="str">
+      <c r="Q92" t="str">
         <f t="shared" si="9"/>
         <v>Yes</v>
       </c>
-      <c r="Q92" t="str">
+      <c r="R92" t="str">
         <f t="shared" si="10"/>
         <v>No</v>
       </c>
-      <c r="R92" t="str">
+      <c r="S92" t="str">
         <f t="shared" si="11"/>
         <v>Yes</v>
       </c>

--- a/datasets/TotalExercise.xlsx
+++ b/datasets/TotalExercise.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -552,11 +552,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -913,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O123"/>
+  <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O109" sqref="O109:O123"/>
+      <selection activeCell="O123" sqref="O123:O154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4394,19 +4395,19 @@
         <v>1436</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K123" si="5">IF(C67&gt;8000,"Yes","No")</f>
+        <f t="shared" ref="K67:K130" si="5">IF(C67&gt;8000,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L123" si="6">IF(B67&gt;3400,"Yes","No")</f>
+        <f t="shared" ref="L67:L130" si="6">IF(B67&gt;3400,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M123" si="7">IF(I67&gt;30,"Yes","No")</f>
+        <f t="shared" ref="M67:M130" si="7">IF(I67&gt;30,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67:N123" si="8">IF(I67+H67&lt;30,"Yes","No")</f>
+        <f t="shared" ref="N67:N130" si="8">IF(I67+H67&lt;30,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="O67" t="str">
@@ -5710,7 +5711,7 @@
         <v>No</v>
       </c>
       <c r="O92" t="str">
-        <f>IF(D92&gt;5,"Yes","No")</f>
+        <f t="shared" ref="O92:O109" si="10">IF(D92&gt;5,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5762,7 +5763,7 @@
         <v>No</v>
       </c>
       <c r="O93" t="str">
-        <f>IF(D93&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5814,7 +5815,7 @@
         <v>Yes</v>
       </c>
       <c r="O94" t="str">
-        <f>IF(D94&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5866,7 +5867,7 @@
         <v>No</v>
       </c>
       <c r="O95" t="str">
-        <f>IF(D95&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5918,7 +5919,7 @@
         <v>No</v>
       </c>
       <c r="O96" t="str">
-        <f>IF(D96&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5970,7 +5971,7 @@
         <v>Yes</v>
       </c>
       <c r="O97" t="str">
-        <f>IF(D97&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6022,7 +6023,7 @@
         <v>No</v>
       </c>
       <c r="O98" t="str">
-        <f>IF(D98&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6074,7 +6075,7 @@
         <v>No</v>
       </c>
       <c r="O99" t="str">
-        <f>IF(D99&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
         <v>Yes</v>
       </c>
       <c r="O100" t="str">
-        <f>IF(D100&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6178,7 +6179,7 @@
         <v>No</v>
       </c>
       <c r="O101" t="str">
-        <f>IF(D101&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6230,7 +6231,7 @@
         <v>Yes</v>
       </c>
       <c r="O102" t="str">
-        <f>IF(D102&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6282,7 +6283,7 @@
         <v>No</v>
       </c>
       <c r="O103" t="str">
-        <f>IF(D103&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6334,7 +6335,7 @@
         <v>No</v>
       </c>
       <c r="O104" t="str">
-        <f>IF(D104&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6386,7 +6387,7 @@
         <v>Yes</v>
       </c>
       <c r="O105" t="str">
-        <f>IF(D105&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
     </row>
@@ -6438,7 +6439,7 @@
         <v>No</v>
       </c>
       <c r="O106" t="str">
-        <f>IF(D106&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6490,7 +6491,7 @@
         <v>Yes</v>
       </c>
       <c r="O107" t="str">
-        <f>IF(D107&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
     </row>
@@ -6542,7 +6543,7 @@
         <v>Yes</v>
       </c>
       <c r="O108" t="str">
-        <f>IF(D108&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
     </row>
@@ -6594,7 +6595,7 @@
         <v>Yes</v>
       </c>
       <c r="O109" t="str">
-        <f>IF(D109&gt;5,"Yes","No")</f>
+        <f t="shared" si="10"/>
         <v>No</v>
       </c>
     </row>
@@ -6646,7 +6647,7 @@
         <v>Yes</v>
       </c>
       <c r="O110" t="str">
-        <f t="shared" ref="O110:O123" si="10">IF(D110&gt;5,"Yes","No")</f>
+        <f t="shared" ref="O110:O154" si="11">IF(D110&gt;5,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -6698,7 +6699,7 @@
         <v>Yes</v>
       </c>
       <c r="O111" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6750,7 +6751,7 @@
         <v>No</v>
       </c>
       <c r="O112" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6802,7 +6803,7 @@
         <v>No</v>
       </c>
       <c r="O113" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6854,7 +6855,7 @@
         <v>Yes</v>
       </c>
       <c r="O114" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
         <v>No</v>
       </c>
       <c r="O115" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -6958,7 +6959,7 @@
         <v>No</v>
       </c>
       <c r="O116" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -7010,7 +7011,7 @@
         <v>Yes</v>
       </c>
       <c r="O117" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>No</v>
       </c>
     </row>
@@ -7062,7 +7063,7 @@
         <v>Yes</v>
       </c>
       <c r="O118" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -7114,7 +7115,7 @@
         <v>No</v>
       </c>
       <c r="O119" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -7166,7 +7167,7 @@
         <v>No</v>
       </c>
       <c r="O120" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -7218,7 +7219,7 @@
         <v>No</v>
       </c>
       <c r="O121" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -7270,7 +7271,7 @@
         <v>Yes</v>
       </c>
       <c r="O122" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>
@@ -7322,7 +7323,1619 @@
         <v>Yes</v>
       </c>
       <c r="O123" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B124" s="2">
+        <v>3006</v>
+      </c>
+      <c r="C124" s="2">
+        <v>6574</v>
+      </c>
+      <c r="D124" s="3">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>699</v>
+      </c>
+      <c r="G124">
+        <v>295</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0</v>
+      </c>
+      <c r="I124" s="2">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2">
+        <v>1265</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="L124" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="M124" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="N124" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O124" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>43102</v>
+      </c>
+      <c r="B125" s="2">
+        <v>3262</v>
+      </c>
+      <c r="C125" s="2">
+        <v>8239</v>
+      </c>
+      <c r="D125" s="3">
+        <v>6.43</v>
+      </c>
+      <c r="E125" s="2">
+        <v>16</v>
+      </c>
+      <c r="F125">
+        <v>812</v>
+      </c>
+      <c r="G125">
+        <v>312</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0</v>
+      </c>
+      <c r="I125" s="2">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2">
+        <v>1485</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="L125" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="M125" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="N125" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O125" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>43103</v>
+      </c>
+      <c r="B126" s="2">
+        <v>3372</v>
+      </c>
+      <c r="C126" s="2">
+        <v>6634</v>
+      </c>
+      <c r="D126" s="3">
+        <v>5.17</v>
+      </c>
+      <c r="E126" s="2">
+        <v>23</v>
+      </c>
+      <c r="F126">
+        <v>658</v>
+      </c>
+      <c r="G126">
+        <v>268</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2">
+        <v>1403</v>
+      </c>
+      <c r="K126" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="L126" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="M126" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="N126" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O126" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>43104</v>
+      </c>
+      <c r="B127" s="2">
+        <v>3765</v>
+      </c>
+      <c r="C127" s="2">
+        <v>15038</v>
+      </c>
+      <c r="D127" s="3">
+        <v>11.73</v>
+      </c>
+      <c r="E127" s="2">
+        <v>4</v>
+      </c>
+      <c r="F127">
+        <v>582</v>
+      </c>
+      <c r="G127">
+        <v>228</v>
+      </c>
+      <c r="H127" s="2">
+        <v>29</v>
+      </c>
+      <c r="I127" s="2">
+        <v>67</v>
+      </c>
+      <c r="J127" s="2">
+        <v>1943</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="L127" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="M127" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="N127" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O127" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>43105</v>
+      </c>
+      <c r="B128" s="2">
+        <v>3195</v>
+      </c>
+      <c r="C128" s="2">
+        <v>7481</v>
+      </c>
+      <c r="D128" s="3">
+        <v>5.84</v>
+      </c>
+      <c r="E128" s="2">
+        <v>9</v>
+      </c>
+      <c r="F128">
+        <v>699</v>
+      </c>
+      <c r="G128">
+        <v>229</v>
+      </c>
+      <c r="H128" s="2">
+        <v>19</v>
+      </c>
+      <c r="I128" s="2">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2">
+        <v>1212</v>
+      </c>
+      <c r="K128" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="L128" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="M128" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="N128" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O128" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>43106</v>
+      </c>
+      <c r="B129" s="2">
+        <v>3870</v>
+      </c>
+      <c r="C129" s="2">
+        <v>10504</v>
+      </c>
+      <c r="D129" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="E129" s="2">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>685</v>
+      </c>
+      <c r="G129">
+        <v>289</v>
+      </c>
+      <c r="H129" s="2">
+        <v>37</v>
+      </c>
+      <c r="I129" s="2">
+        <v>58</v>
+      </c>
+      <c r="J129" s="2">
+        <v>2253</v>
+      </c>
+      <c r="K129" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="L129" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="M129" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="N129" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O129" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>43107</v>
+      </c>
+      <c r="B130" s="2">
+        <v>3795</v>
+      </c>
+      <c r="C130" s="2">
+        <v>9245</v>
+      </c>
+      <c r="D130" s="3">
+        <v>6.93</v>
+      </c>
+      <c r="E130" s="2">
+        <v>14</v>
+      </c>
+      <c r="F130">
+        <v>552</v>
+      </c>
+      <c r="G130">
+        <v>298</v>
+      </c>
+      <c r="H130" s="2">
+        <v>28</v>
+      </c>
+      <c r="I130" s="2">
+        <v>40</v>
+      </c>
+      <c r="J130" s="2">
+        <v>2105</v>
+      </c>
+      <c r="K130" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="L130" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="M130" t="str">
+        <f t="shared" si="7"/>
+        <v>Yes</v>
+      </c>
+      <c r="N130" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O130" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>43108</v>
+      </c>
+      <c r="B131" s="2">
+        <v>3674</v>
+      </c>
+      <c r="C131" s="2">
+        <v>10130</v>
+      </c>
+      <c r="D131" s="3">
+        <v>7.64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>9</v>
+      </c>
+      <c r="F131">
+        <v>738</v>
+      </c>
+      <c r="G131">
+        <v>282</v>
+      </c>
+      <c r="H131" s="2">
+        <v>16</v>
+      </c>
+      <c r="I131" s="2">
+        <v>54</v>
+      </c>
+      <c r="J131" s="2">
+        <v>2017</v>
+      </c>
+      <c r="K131" t="str">
+        <f t="shared" ref="K131:K154" si="12">IF(C131&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="L131" t="str">
+        <f t="shared" ref="L131:L154" si="13">IF(B131&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="M131" t="str">
+        <f t="shared" ref="M131:M154" si="14">IF(I131&gt;30,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="N131" t="str">
+        <f t="shared" ref="N131:N154" si="15">IF(I131+H131&lt;30,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O131" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>43109</v>
+      </c>
+      <c r="B132" s="2">
+        <v>3673</v>
+      </c>
+      <c r="C132" s="2">
+        <v>13366</v>
+      </c>
+      <c r="D132" s="3">
+        <v>10.41</v>
+      </c>
+      <c r="E132" s="2">
+        <v>4</v>
+      </c>
+      <c r="F132">
+        <v>559</v>
+      </c>
+      <c r="G132">
+        <v>382</v>
+      </c>
+      <c r="H132" s="2">
+        <v>3</v>
+      </c>
+      <c r="I132" s="2">
+        <v>24</v>
+      </c>
+      <c r="J132" s="2">
+        <v>2109</v>
+      </c>
+      <c r="K132" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L132" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M132" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N132" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O132" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>43110</v>
+      </c>
+      <c r="B133" s="2">
+        <v>4220</v>
+      </c>
+      <c r="C133" s="2">
+        <v>10799</v>
+      </c>
+      <c r="D133" s="3">
+        <v>7.99</v>
+      </c>
+      <c r="E133" s="2">
+        <v>9</v>
+      </c>
+      <c r="F133">
+        <v>568</v>
+      </c>
+      <c r="G133">
+        <v>337</v>
+      </c>
+      <c r="H133" s="2">
+        <v>29</v>
+      </c>
+      <c r="I133" s="2">
+        <v>65</v>
+      </c>
+      <c r="J133" s="2">
+        <v>2606</v>
+      </c>
+      <c r="K133" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L133" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M133" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N133" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O133" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>43111</v>
+      </c>
+      <c r="B134" s="2">
+        <v>4117</v>
+      </c>
+      <c r="C134" s="2">
+        <v>11812</v>
+      </c>
+      <c r="D134" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E134" s="2">
+        <v>7</v>
+      </c>
+      <c r="F134">
+        <v>605</v>
+      </c>
+      <c r="G134">
+        <v>286</v>
+      </c>
+      <c r="H134" s="2">
+        <v>37</v>
+      </c>
+      <c r="I134" s="2">
+        <v>83</v>
+      </c>
+      <c r="J134" s="2">
+        <v>2528</v>
+      </c>
+      <c r="K134" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L134" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M134" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N134" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O134" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>43112</v>
+      </c>
+      <c r="B135" s="2">
+        <v>3692</v>
+      </c>
+      <c r="C135" s="2">
+        <v>13322</v>
+      </c>
+      <c r="D135" s="3">
+        <v>10.33</v>
+      </c>
+      <c r="E135" s="2">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>674</v>
+      </c>
+      <c r="G135">
+        <v>325</v>
+      </c>
+      <c r="H135" s="2">
+        <v>1</v>
+      </c>
+      <c r="I135" s="2">
+        <v>48</v>
+      </c>
+      <c r="J135" s="2">
+        <v>2084</v>
+      </c>
+      <c r="K135" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L135" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M135" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N135" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O135" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>43113</v>
+      </c>
+      <c r="B136" s="2">
+        <v>4149</v>
+      </c>
+      <c r="C136" s="2">
+        <v>9426</v>
+      </c>
+      <c r="D136" s="3">
+        <v>6.94</v>
+      </c>
+      <c r="E136" s="2">
+        <v>8</v>
+      </c>
+      <c r="F136">
+        <v>546</v>
+      </c>
+      <c r="G136">
+        <v>269</v>
+      </c>
+      <c r="H136" s="2">
+        <v>13</v>
+      </c>
+      <c r="I136" s="2">
+        <v>96</v>
+      </c>
+      <c r="J136" s="2">
+        <v>2513</v>
+      </c>
+      <c r="K136" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L136" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M136" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N136" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O136" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>43114</v>
+      </c>
+      <c r="B137" s="2">
+        <v>3862</v>
+      </c>
+      <c r="C137" s="2">
+        <v>11402</v>
+      </c>
+      <c r="D137" s="3">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E137" s="2">
+        <v>14</v>
+      </c>
+      <c r="F137">
+        <v>611</v>
+      </c>
+      <c r="G137">
+        <v>298</v>
+      </c>
+      <c r="H137" s="2">
+        <v>29</v>
+      </c>
+      <c r="I137" s="2">
+        <v>55</v>
+      </c>
+      <c r="J137" s="2">
+        <v>2249</v>
+      </c>
+      <c r="K137" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L137" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M137" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N137" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O137" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>43115</v>
+      </c>
+      <c r="B138" s="2">
+        <v>4394</v>
+      </c>
+      <c r="C138" s="2">
+        <v>15077</v>
+      </c>
+      <c r="D138" s="3">
+        <v>11.42</v>
+      </c>
+      <c r="E138" s="2">
+        <v>25</v>
+      </c>
+      <c r="F138">
+        <v>456</v>
+      </c>
+      <c r="G138">
+        <v>421</v>
+      </c>
+      <c r="H138" s="2">
+        <v>28</v>
+      </c>
+      <c r="I138" s="2">
+        <v>66</v>
+      </c>
+      <c r="J138" s="2">
+        <v>2959</v>
+      </c>
+      <c r="K138" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L138" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M138" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N138" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O138" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>43116</v>
+      </c>
+      <c r="B139" s="2">
+        <v>3853</v>
+      </c>
+      <c r="C139" s="2">
+        <v>14420</v>
+      </c>
+      <c r="D139" s="3">
+        <v>11.24</v>
+      </c>
+      <c r="E139" s="2">
+        <v>20</v>
+      </c>
+      <c r="F139">
+        <v>531</v>
+      </c>
+      <c r="G139">
+        <v>360</v>
+      </c>
+      <c r="H139" s="2">
+        <v>1</v>
+      </c>
+      <c r="I139" s="2">
+        <v>51</v>
+      </c>
+      <c r="J139" s="2">
+        <v>2299</v>
+      </c>
+      <c r="K139" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L139" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M139" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N139" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O139" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>43117</v>
+      </c>
+      <c r="B140" s="2">
+        <v>4537</v>
+      </c>
+      <c r="C140" s="2">
+        <v>14452</v>
+      </c>
+      <c r="D140" s="3">
+        <v>10.77</v>
+      </c>
+      <c r="E140" s="2">
+        <v>20</v>
+      </c>
+      <c r="F140">
+        <v>512</v>
+      </c>
+      <c r="G140">
+        <v>349</v>
+      </c>
+      <c r="H140" s="2">
+        <v>25</v>
+      </c>
+      <c r="I140" s="2">
+        <v>102</v>
+      </c>
+      <c r="J140" s="2">
+        <v>3047</v>
+      </c>
+      <c r="K140" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L140" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M140" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N140" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O140" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>43118</v>
+      </c>
+      <c r="B141" s="2">
+        <v>4204</v>
+      </c>
+      <c r="C141" s="2">
+        <v>13200</v>
+      </c>
+      <c r="D141" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="E141" s="2">
+        <v>12</v>
+      </c>
+      <c r="F141">
+        <v>332</v>
+      </c>
+      <c r="G141">
+        <v>396</v>
+      </c>
+      <c r="H141" s="2">
+        <v>29</v>
+      </c>
+      <c r="I141" s="2">
+        <v>68</v>
+      </c>
+      <c r="J141" s="2">
+        <v>2747</v>
+      </c>
+      <c r="K141" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L141" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M141" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N141" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O141" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>43119</v>
+      </c>
+      <c r="B142" s="2">
+        <v>4315</v>
+      </c>
+      <c r="C142" s="2">
+        <v>13618</v>
+      </c>
+      <c r="D142" s="3">
+        <v>10.16</v>
+      </c>
+      <c r="E142" s="2">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>660</v>
+      </c>
+      <c r="G142">
+        <v>394</v>
+      </c>
+      <c r="H142" s="2">
+        <v>29</v>
+      </c>
+      <c r="I142" s="2">
+        <v>73</v>
+      </c>
+      <c r="J142" s="2">
+        <v>2862</v>
+      </c>
+      <c r="K142" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L142" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M142" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N142" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O142" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>43120</v>
+      </c>
+      <c r="B143" s="2">
+        <v>3607</v>
+      </c>
+      <c r="C143" s="2">
+        <v>11996</v>
+      </c>
+      <c r="D143" s="3">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="E143" s="2">
+        <v>13</v>
+      </c>
+      <c r="F143">
+        <v>539</v>
+      </c>
+      <c r="G143">
+        <v>317</v>
+      </c>
+      <c r="H143" s="2">
+        <v>2</v>
+      </c>
+      <c r="I143" s="2">
+        <v>50</v>
+      </c>
+      <c r="J143" s="2">
+        <v>2003</v>
+      </c>
+      <c r="K143" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L143" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M143" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N143" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O143" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>43121</v>
+      </c>
+      <c r="B144" s="2">
+        <v>3701</v>
+      </c>
+      <c r="C144" s="2">
+        <v>10698</v>
+      </c>
+      <c r="D144" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E144" s="2">
+        <v>10</v>
+      </c>
+      <c r="F144">
+        <v>577</v>
+      </c>
+      <c r="G144">
+        <v>320</v>
+      </c>
+      <c r="H144" s="2">
+        <v>25</v>
+      </c>
+      <c r="I144" s="2">
+        <v>45</v>
+      </c>
+      <c r="J144" s="2">
+        <v>2128</v>
+      </c>
+      <c r="K144" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L144" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M144" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N144" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O144" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>43122</v>
+      </c>
+      <c r="B145" s="2">
+        <v>4195</v>
+      </c>
+      <c r="C145" s="2">
+        <v>13754</v>
+      </c>
+      <c r="D145" s="3">
+        <v>10.31</v>
+      </c>
+      <c r="E145" s="2">
+        <v>10</v>
+      </c>
+      <c r="F145">
+        <v>468</v>
+      </c>
+      <c r="G145">
+        <v>419</v>
+      </c>
+      <c r="H145" s="2">
+        <v>43</v>
+      </c>
+      <c r="I145" s="2">
+        <v>51</v>
+      </c>
+      <c r="J145" s="2">
+        <v>2756</v>
+      </c>
+      <c r="K145" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L145" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M145" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N145" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O145" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>43123</v>
+      </c>
+      <c r="B146" s="2">
+        <v>3152</v>
+      </c>
+      <c r="C146" s="2">
+        <v>8121</v>
+      </c>
+      <c r="D146" s="3">
+        <v>6.33</v>
+      </c>
+      <c r="E146" s="2">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>640</v>
+      </c>
+      <c r="G146">
+        <v>336</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0</v>
+      </c>
+      <c r="I146" s="2">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2">
+        <v>1504</v>
+      </c>
+      <c r="K146" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L146" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M146" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N146" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O146" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>43124</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2531</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1331</v>
+      </c>
+      <c r="D147" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="E147" s="2">
+        <v>7</v>
+      </c>
+      <c r="F147">
+        <v>735</v>
+      </c>
+      <c r="G147">
+        <v>87</v>
+      </c>
+      <c r="H147" s="2">
+        <v>0</v>
+      </c>
+      <c r="I147" s="2">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2">
+        <v>379</v>
+      </c>
+      <c r="K147" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="L147" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M147" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N147" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O147" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>43125</v>
+      </c>
+      <c r="B148" s="2">
+        <v>2859</v>
+      </c>
+      <c r="C148" s="2">
+        <v>5871</v>
+      </c>
+      <c r="D148" s="3">
+        <v>4.58</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>614</v>
+      </c>
+      <c r="G148">
+        <v>233</v>
+      </c>
+      <c r="H148" s="2">
+        <v>0</v>
+      </c>
+      <c r="I148" s="2">
+        <v>0</v>
+      </c>
+      <c r="J148" s="2">
+        <v>1075</v>
+      </c>
+      <c r="K148" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="L148" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M148" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N148" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O148" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>43126</v>
+      </c>
+      <c r="B149" s="2">
+        <v>3434</v>
+      </c>
+      <c r="C149" s="2">
+        <v>11191</v>
+      </c>
+      <c r="D149" s="3">
+        <v>8.73</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>537</v>
+      </c>
+      <c r="G149">
+        <v>406</v>
+      </c>
+      <c r="H149" s="2">
+        <v>11</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2">
+        <v>1917</v>
+      </c>
+      <c r="K149" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L149" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M149" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N149" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O149" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>43127</v>
+      </c>
+      <c r="B150" s="2">
+        <v>3442</v>
+      </c>
+      <c r="C150" s="2">
+        <v>10370</v>
+      </c>
+      <c r="D150" s="3">
+        <v>8.09</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>638</v>
+      </c>
+      <c r="G150">
+        <v>453</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0</v>
+      </c>
+      <c r="I150" s="2">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2">
+        <v>1952</v>
+      </c>
+      <c r="K150" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L150" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M150" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N150" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O150" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>43128</v>
+      </c>
+      <c r="B151" s="2">
+        <v>3036</v>
+      </c>
+      <c r="C151" s="2">
+        <v>7198</v>
+      </c>
+      <c r="D151" s="3">
+        <v>5.61</v>
+      </c>
+      <c r="E151" s="2">
+        <v>3</v>
+      </c>
+      <c r="F151">
+        <v>615</v>
+      </c>
+      <c r="G151">
+        <v>252</v>
+      </c>
+      <c r="H151" s="2">
+        <v>0</v>
+      </c>
+      <c r="I151" s="2">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2">
+        <v>1208</v>
+      </c>
+      <c r="K151" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="L151" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M151" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N151" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O151" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>43129</v>
+      </c>
+      <c r="B152" s="2">
+        <v>2544</v>
+      </c>
+      <c r="C152" s="2">
+        <v>3834</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="E152" s="2">
+        <v>4</v>
+      </c>
+      <c r="F152" s="4">
+        <v>1345</v>
+      </c>
+      <c r="G152">
+        <v>86</v>
+      </c>
+      <c r="H152" s="2">
+        <v>5</v>
+      </c>
+      <c r="I152" s="2">
+        <v>4</v>
+      </c>
+      <c r="J152" s="2">
+        <v>536</v>
+      </c>
+      <c r="K152" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="L152" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M152" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N152" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O152" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>43130</v>
+      </c>
+      <c r="B153" s="2">
+        <v>3396</v>
+      </c>
+      <c r="C153" s="2">
+        <v>10480</v>
+      </c>
+      <c r="D153" s="3">
+        <v>8.17</v>
+      </c>
+      <c r="E153" s="2">
+        <v>17</v>
+      </c>
+      <c r="F153" s="4">
+        <v>1070</v>
+      </c>
+      <c r="G153">
+        <v>243</v>
+      </c>
+      <c r="H153" s="2">
+        <v>17</v>
+      </c>
+      <c r="I153" s="2">
+        <v>40</v>
+      </c>
+      <c r="J153" s="2">
+        <v>1685</v>
+      </c>
+      <c r="K153" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L153" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M153" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N153" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O153" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B154" s="2">
+        <v>4390</v>
+      </c>
+      <c r="C154" s="2">
+        <v>12902</v>
+      </c>
+      <c r="D154" s="3">
+        <v>9.92</v>
+      </c>
+      <c r="E154" s="2">
+        <v>20</v>
+      </c>
+      <c r="F154">
+        <v>506</v>
+      </c>
+      <c r="G154">
+        <v>291</v>
+      </c>
+      <c r="H154" s="2">
+        <v>68</v>
+      </c>
+      <c r="I154" s="2">
+        <v>92</v>
+      </c>
+      <c r="J154" s="2">
+        <v>2862</v>
+      </c>
+      <c r="K154" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L154" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M154" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N154" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O154" t="str">
+        <f t="shared" si="11"/>
         <v>Yes</v>
       </c>
     </row>

--- a/datasets/TotalExercise.xlsx
+++ b/datasets/TotalExercise.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -208,6 +208,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -914,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O154"/>
+  <dimension ref="A1:O182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O123" sqref="O123:O154"/>
+      <selection activeCell="O154" sqref="O154:O182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6647,7 +6648,7 @@
         <v>Yes</v>
       </c>
       <c r="O110" t="str">
-        <f t="shared" ref="O110:O154" si="11">IF(D110&gt;5,"Yes","No")</f>
+        <f t="shared" ref="O110:O173" si="11">IF(D110&gt;5,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -7723,19 +7724,19 @@
         <v>2017</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" ref="K131:K154" si="12">IF(C131&gt;8000,"Yes","No")</f>
+        <f t="shared" ref="K131:K182" si="12">IF(C131&gt;8000,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="L131" t="str">
-        <f t="shared" ref="L131:L154" si="13">IF(B131&gt;3400,"Yes","No")</f>
+        <f t="shared" ref="L131:L182" si="13">IF(B131&gt;3400,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="M131" t="str">
-        <f t="shared" ref="M131:M154" si="14">IF(I131&gt;30,"Yes","No")</f>
+        <f t="shared" ref="M131:M182" si="14">IF(I131&gt;30,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="N131" t="str">
-        <f t="shared" ref="N131:N154" si="15">IF(I131+H131&lt;30,"Yes","No")</f>
+        <f t="shared" ref="N131:N182" si="15">IF(I131+H131&lt;30,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="O131" t="str">
@@ -8936,6 +8937,1462 @@
       </c>
       <c r="O154" t="str">
         <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B155" s="2">
+        <v>3133</v>
+      </c>
+      <c r="C155" s="2">
+        <v>7442</v>
+      </c>
+      <c r="D155" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="E155" s="2">
+        <v>6</v>
+      </c>
+      <c r="F155" s="2">
+        <v>911</v>
+      </c>
+      <c r="G155" s="2">
+        <v>281</v>
+      </c>
+      <c r="H155" s="2">
+        <v>7</v>
+      </c>
+      <c r="I155" s="2">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2">
+        <v>1376</v>
+      </c>
+      <c r="K155" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="L155" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M155" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N155" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O155" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>43133</v>
+      </c>
+      <c r="B156" s="2">
+        <v>3535</v>
+      </c>
+      <c r="C156" s="2">
+        <v>8304</v>
+      </c>
+      <c r="D156" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="E156" s="2">
+        <v>10</v>
+      </c>
+      <c r="F156" s="2">
+        <v>698</v>
+      </c>
+      <c r="G156" s="2">
+        <v>298</v>
+      </c>
+      <c r="H156" s="2">
+        <v>22</v>
+      </c>
+      <c r="I156" s="2">
+        <v>13</v>
+      </c>
+      <c r="J156" s="2">
+        <v>1778</v>
+      </c>
+      <c r="K156" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L156" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M156" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N156" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O156" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>43134</v>
+      </c>
+      <c r="B157" s="2">
+        <v>3322</v>
+      </c>
+      <c r="C157" s="2">
+        <v>10198</v>
+      </c>
+      <c r="D157" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="E157" s="2">
+        <v>1</v>
+      </c>
+      <c r="F157" s="2">
+        <v>678</v>
+      </c>
+      <c r="G157" s="2">
+        <v>331</v>
+      </c>
+      <c r="H157" s="2">
+        <v>13</v>
+      </c>
+      <c r="I157" s="2">
+        <v>13</v>
+      </c>
+      <c r="J157" s="2">
+        <v>1684</v>
+      </c>
+      <c r="K157" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L157" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M157" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N157" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O157" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>43135</v>
+      </c>
+      <c r="B158" s="2">
+        <v>3030</v>
+      </c>
+      <c r="C158" s="2">
+        <v>6184</v>
+      </c>
+      <c r="D158" s="2">
+        <v>4.82</v>
+      </c>
+      <c r="E158" s="2">
+        <v>3</v>
+      </c>
+      <c r="F158" s="2">
+        <v>832</v>
+      </c>
+      <c r="G158" s="2">
+        <v>275</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2">
+        <v>1241</v>
+      </c>
+      <c r="K158" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="L158" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M158" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N158" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O158" t="str">
+        <f t="shared" si="11"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>43136</v>
+      </c>
+      <c r="B159" s="2">
+        <v>4186</v>
+      </c>
+      <c r="C159" s="2">
+        <v>9442</v>
+      </c>
+      <c r="D159" s="2">
+        <v>7.07</v>
+      </c>
+      <c r="E159" s="2">
+        <v>13</v>
+      </c>
+      <c r="F159" s="2">
+        <v>697</v>
+      </c>
+      <c r="G159" s="2">
+        <v>289</v>
+      </c>
+      <c r="H159" s="2">
+        <v>8</v>
+      </c>
+      <c r="I159" s="2">
+        <v>100</v>
+      </c>
+      <c r="J159" s="2">
+        <v>2573</v>
+      </c>
+      <c r="K159" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L159" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M159" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N159" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O159" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>43137</v>
+      </c>
+      <c r="B160" s="2">
+        <v>4257</v>
+      </c>
+      <c r="C160" s="2">
+        <v>10638</v>
+      </c>
+      <c r="D160" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="E160" s="2">
+        <v>14</v>
+      </c>
+      <c r="F160" s="2">
+        <v>563</v>
+      </c>
+      <c r="G160" s="2">
+        <v>283</v>
+      </c>
+      <c r="H160" s="2">
+        <v>62</v>
+      </c>
+      <c r="I160" s="2">
+        <v>69</v>
+      </c>
+      <c r="J160" s="2">
+        <v>2661</v>
+      </c>
+      <c r="K160" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L160" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M160" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N160" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O160" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>43138</v>
+      </c>
+      <c r="B161" s="2">
+        <v>3455</v>
+      </c>
+      <c r="C161" s="2">
+        <v>12744</v>
+      </c>
+      <c r="D161" s="2">
+        <v>9.94</v>
+      </c>
+      <c r="E161" s="2">
+        <v>17</v>
+      </c>
+      <c r="F161" s="2">
+        <v>734</v>
+      </c>
+      <c r="G161" s="2">
+        <v>249</v>
+      </c>
+      <c r="H161" s="2">
+        <v>18</v>
+      </c>
+      <c r="I161" s="2">
+        <v>44</v>
+      </c>
+      <c r="J161" s="2">
+        <v>1768</v>
+      </c>
+      <c r="K161" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L161" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M161" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N161" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O161" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>43139</v>
+      </c>
+      <c r="B162" s="2">
+        <v>4186</v>
+      </c>
+      <c r="C162" s="2">
+        <v>11519</v>
+      </c>
+      <c r="D162" s="2">
+        <v>8.69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>16</v>
+      </c>
+      <c r="F162" s="2">
+        <v>693</v>
+      </c>
+      <c r="G162" s="2">
+        <v>306</v>
+      </c>
+      <c r="H162" s="2">
+        <v>29</v>
+      </c>
+      <c r="I162" s="2">
+        <v>75</v>
+      </c>
+      <c r="J162" s="2">
+        <v>2584</v>
+      </c>
+      <c r="K162" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L162" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M162" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N162" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O162" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>43140</v>
+      </c>
+      <c r="B163" s="2">
+        <v>4036</v>
+      </c>
+      <c r="C163" s="2">
+        <v>10010</v>
+      </c>
+      <c r="D163" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E163" s="2">
+        <v>10</v>
+      </c>
+      <c r="F163" s="2">
+        <v>579</v>
+      </c>
+      <c r="G163" s="2">
+        <v>315</v>
+      </c>
+      <c r="H163" s="2">
+        <v>36</v>
+      </c>
+      <c r="I163" s="2">
+        <v>61</v>
+      </c>
+      <c r="J163" s="2">
+        <v>2459</v>
+      </c>
+      <c r="K163" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L163" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M163" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N163" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O163" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>43141</v>
+      </c>
+      <c r="B164" s="2">
+        <v>3291</v>
+      </c>
+      <c r="C164" s="2">
+        <v>9633</v>
+      </c>
+      <c r="D164" s="2">
+        <v>7.51</v>
+      </c>
+      <c r="E164" s="2">
+        <v>17</v>
+      </c>
+      <c r="F164" s="2">
+        <v>620</v>
+      </c>
+      <c r="G164" s="2">
+        <v>340</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0</v>
+      </c>
+      <c r="I164" s="2">
+        <v>0</v>
+      </c>
+      <c r="J164" s="2">
+        <v>1631</v>
+      </c>
+      <c r="K164" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L164" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M164" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N164" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O164" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>43142</v>
+      </c>
+      <c r="B165" s="2">
+        <v>4034</v>
+      </c>
+      <c r="C165" s="2">
+        <v>10468</v>
+      </c>
+      <c r="D165" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="E165" s="2">
+        <v>7</v>
+      </c>
+      <c r="F165" s="2">
+        <v>513</v>
+      </c>
+      <c r="G165" s="2">
+        <v>324</v>
+      </c>
+      <c r="H165" s="2">
+        <v>69</v>
+      </c>
+      <c r="I165" s="2">
+        <v>52</v>
+      </c>
+      <c r="J165" s="2">
+        <v>2522</v>
+      </c>
+      <c r="K165" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L165" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M165" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N165" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O165" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>43143</v>
+      </c>
+      <c r="B166" s="2">
+        <v>3754</v>
+      </c>
+      <c r="C166" s="2">
+        <v>9452</v>
+      </c>
+      <c r="D166" s="2">
+        <v>7.37</v>
+      </c>
+      <c r="E166" s="2">
+        <v>12</v>
+      </c>
+      <c r="F166" s="2">
+        <v>531</v>
+      </c>
+      <c r="G166" s="2">
+        <v>328</v>
+      </c>
+      <c r="H166" s="2">
+        <v>15</v>
+      </c>
+      <c r="I166" s="2">
+        <v>29</v>
+      </c>
+      <c r="J166" s="2">
+        <v>2013</v>
+      </c>
+      <c r="K166" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L166" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M166" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N166" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O166" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>43144</v>
+      </c>
+      <c r="B167" s="2">
+        <v>4613</v>
+      </c>
+      <c r="C167" s="2">
+        <v>14111</v>
+      </c>
+      <c r="D167" s="2">
+        <v>11.01</v>
+      </c>
+      <c r="E167" s="2">
+        <v>18</v>
+      </c>
+      <c r="F167" s="2">
+        <v>637</v>
+      </c>
+      <c r="G167" s="2">
+        <v>322</v>
+      </c>
+      <c r="H167" s="2">
+        <v>99</v>
+      </c>
+      <c r="I167" s="2">
+        <v>84</v>
+      </c>
+      <c r="J167" s="2">
+        <v>3109</v>
+      </c>
+      <c r="K167" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L167" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M167" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N167" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O167" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>43145</v>
+      </c>
+      <c r="B168" s="2">
+        <v>3437</v>
+      </c>
+      <c r="C168" s="2">
+        <v>9294</v>
+      </c>
+      <c r="D168" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="E168" s="2">
+        <v>9</v>
+      </c>
+      <c r="F168" s="2">
+        <v>928</v>
+      </c>
+      <c r="G168" s="2">
+        <v>354</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2">
+        <v>1703</v>
+      </c>
+      <c r="K168" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L168" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M168" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N168" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O168" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>43146</v>
+      </c>
+      <c r="B169" s="2">
+        <v>3742</v>
+      </c>
+      <c r="C169" s="2">
+        <v>10974</v>
+      </c>
+      <c r="D169" s="2">
+        <v>8.35</v>
+      </c>
+      <c r="E169" s="2">
+        <v>12</v>
+      </c>
+      <c r="F169" s="2">
+        <v>621</v>
+      </c>
+      <c r="G169" s="2">
+        <v>284</v>
+      </c>
+      <c r="H169" s="2">
+        <v>27</v>
+      </c>
+      <c r="I169" s="2">
+        <v>43</v>
+      </c>
+      <c r="J169" s="2">
+        <v>2053</v>
+      </c>
+      <c r="K169" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L169" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M169" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N169" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O169" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>43147</v>
+      </c>
+      <c r="B170" s="2">
+        <v>3682</v>
+      </c>
+      <c r="C170" s="2">
+        <v>11452</v>
+      </c>
+      <c r="D170" s="2">
+        <v>8.93</v>
+      </c>
+      <c r="E170" s="2">
+        <v>13</v>
+      </c>
+      <c r="F170" s="2">
+        <v>678</v>
+      </c>
+      <c r="G170" s="2">
+        <v>351</v>
+      </c>
+      <c r="H170" s="2">
+        <v>15</v>
+      </c>
+      <c r="I170" s="2">
+        <v>19</v>
+      </c>
+      <c r="J170" s="2">
+        <v>2009</v>
+      </c>
+      <c r="K170" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L170" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M170" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N170" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O170" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>43148</v>
+      </c>
+      <c r="B171" s="2">
+        <v>3969</v>
+      </c>
+      <c r="C171" s="2">
+        <v>15867</v>
+      </c>
+      <c r="D171" s="2">
+        <v>12.38</v>
+      </c>
+      <c r="E171" s="2">
+        <v>25</v>
+      </c>
+      <c r="F171" s="2">
+        <v>574</v>
+      </c>
+      <c r="G171" s="2">
+        <v>365</v>
+      </c>
+      <c r="H171" s="2">
+        <v>64</v>
+      </c>
+      <c r="I171" s="2">
+        <v>22</v>
+      </c>
+      <c r="J171" s="2">
+        <v>2463</v>
+      </c>
+      <c r="K171" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L171" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M171" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N171" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O171" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>43149</v>
+      </c>
+      <c r="B172" s="2">
+        <v>4594</v>
+      </c>
+      <c r="C172" s="2">
+        <v>13462</v>
+      </c>
+      <c r="D172" s="2">
+        <v>10.24</v>
+      </c>
+      <c r="E172" s="2">
+        <v>23</v>
+      </c>
+      <c r="F172" s="2">
+        <v>543</v>
+      </c>
+      <c r="G172" s="2">
+        <v>344</v>
+      </c>
+      <c r="H172" s="2">
+        <v>59</v>
+      </c>
+      <c r="I172" s="2">
+        <v>78</v>
+      </c>
+      <c r="J172" s="2">
+        <v>3098</v>
+      </c>
+      <c r="K172" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L172" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M172" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N172" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O172" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>43150</v>
+      </c>
+      <c r="B173" s="2">
+        <v>3636</v>
+      </c>
+      <c r="C173" s="2">
+        <v>8309</v>
+      </c>
+      <c r="D173" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="E173" s="2">
+        <v>15</v>
+      </c>
+      <c r="F173" s="2">
+        <v>711</v>
+      </c>
+      <c r="G173" s="2">
+        <v>257</v>
+      </c>
+      <c r="H173" s="2">
+        <v>27</v>
+      </c>
+      <c r="I173" s="2">
+        <v>59</v>
+      </c>
+      <c r="J173" s="2">
+        <v>1962</v>
+      </c>
+      <c r="K173" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L173" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M173" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N173" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O173" t="str">
+        <f t="shared" si="11"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>43151</v>
+      </c>
+      <c r="B174" s="2">
+        <v>3798</v>
+      </c>
+      <c r="C174" s="2">
+        <v>8373</v>
+      </c>
+      <c r="D174" s="2">
+        <v>6.19</v>
+      </c>
+      <c r="E174" s="2">
+        <v>10</v>
+      </c>
+      <c r="F174" s="2">
+        <v>721</v>
+      </c>
+      <c r="G174" s="2">
+        <v>212</v>
+      </c>
+      <c r="H174" s="2">
+        <v>33</v>
+      </c>
+      <c r="I174" s="2">
+        <v>77</v>
+      </c>
+      <c r="J174" s="2">
+        <v>2078</v>
+      </c>
+      <c r="K174" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L174" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M174" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N174" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O174" t="str">
+        <f t="shared" ref="O174:O182" si="16">IF(D174&gt;5,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>43152</v>
+      </c>
+      <c r="B175" s="2">
+        <v>3093</v>
+      </c>
+      <c r="C175" s="2">
+        <v>7791</v>
+      </c>
+      <c r="D175" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="E175" s="2">
+        <v>13</v>
+      </c>
+      <c r="F175" s="2">
+        <v>789</v>
+      </c>
+      <c r="G175" s="2">
+        <v>286</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0</v>
+      </c>
+      <c r="I175" s="2">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2">
+        <v>1321</v>
+      </c>
+      <c r="K175" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="L175" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M175" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N175" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O175" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>43153</v>
+      </c>
+      <c r="B176" s="2">
+        <v>3704</v>
+      </c>
+      <c r="C176" s="2">
+        <v>9824</v>
+      </c>
+      <c r="D176" s="2">
+        <v>7.38</v>
+      </c>
+      <c r="E176" s="2">
+        <v>9</v>
+      </c>
+      <c r="F176" s="2">
+        <v>706</v>
+      </c>
+      <c r="G176" s="2">
+        <v>308</v>
+      </c>
+      <c r="H176" s="2">
+        <v>24</v>
+      </c>
+      <c r="I176" s="2">
+        <v>28</v>
+      </c>
+      <c r="J176" s="2">
+        <v>1999</v>
+      </c>
+      <c r="K176" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L176" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M176" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N176" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O176" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>43154</v>
+      </c>
+      <c r="B177" s="2">
+        <v>3596</v>
+      </c>
+      <c r="C177" s="2">
+        <v>13194</v>
+      </c>
+      <c r="D177" s="2">
+        <v>10.29</v>
+      </c>
+      <c r="E177" s="2">
+        <v>19</v>
+      </c>
+      <c r="F177" s="2">
+        <v>643</v>
+      </c>
+      <c r="G177" s="2">
+        <v>302</v>
+      </c>
+      <c r="H177" s="2">
+        <v>14</v>
+      </c>
+      <c r="I177" s="2">
+        <v>32</v>
+      </c>
+      <c r="J177" s="2">
+        <v>1913</v>
+      </c>
+      <c r="K177" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L177" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M177" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N177" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O177" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>43155</v>
+      </c>
+      <c r="B178" s="2">
+        <v>5110</v>
+      </c>
+      <c r="C178" s="2">
+        <v>13202</v>
+      </c>
+      <c r="D178" s="2">
+        <v>10.09</v>
+      </c>
+      <c r="E178" s="2">
+        <v>20</v>
+      </c>
+      <c r="F178" s="2">
+        <v>398</v>
+      </c>
+      <c r="G178" s="2">
+        <v>321</v>
+      </c>
+      <c r="H178" s="2">
+        <v>107</v>
+      </c>
+      <c r="I178" s="2">
+        <v>125</v>
+      </c>
+      <c r="J178" s="2">
+        <v>3746</v>
+      </c>
+      <c r="K178" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L178" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M178" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N178" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O178" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>43156</v>
+      </c>
+      <c r="B179" s="2">
+        <v>4171</v>
+      </c>
+      <c r="C179" s="2">
+        <v>10451</v>
+      </c>
+      <c r="D179" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="E179" s="2">
+        <v>14</v>
+      </c>
+      <c r="F179" s="2">
+        <v>677</v>
+      </c>
+      <c r="G179" s="2">
+        <v>300</v>
+      </c>
+      <c r="H179" s="2">
+        <v>42</v>
+      </c>
+      <c r="I179" s="2">
+        <v>75</v>
+      </c>
+      <c r="J179" s="2">
+        <v>2549</v>
+      </c>
+      <c r="K179" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L179" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M179" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N179" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O179" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>43157</v>
+      </c>
+      <c r="B180" s="2">
+        <v>3387</v>
+      </c>
+      <c r="C180" s="2">
+        <v>7661</v>
+      </c>
+      <c r="D180" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="E180" s="2">
+        <v>11</v>
+      </c>
+      <c r="F180" s="2">
+        <v>717</v>
+      </c>
+      <c r="G180" s="2">
+        <v>244</v>
+      </c>
+      <c r="H180" s="2">
+        <v>18</v>
+      </c>
+      <c r="I180" s="2">
+        <v>32</v>
+      </c>
+      <c r="J180" s="2">
+        <v>1599</v>
+      </c>
+      <c r="K180" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="L180" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M180" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N180" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O180" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>43158</v>
+      </c>
+      <c r="B181" s="2">
+        <v>3008</v>
+      </c>
+      <c r="C181" s="2">
+        <v>6607</v>
+      </c>
+      <c r="D181" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="E181" s="2">
+        <v>6</v>
+      </c>
+      <c r="F181" s="2">
+        <v>727</v>
+      </c>
+      <c r="G181" s="2">
+        <v>296</v>
+      </c>
+      <c r="H181" s="2">
+        <v>0</v>
+      </c>
+      <c r="I181" s="2">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2">
+        <v>1282</v>
+      </c>
+      <c r="K181" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="L181" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M181" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N181" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O181" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B182" s="2">
+        <v>4129</v>
+      </c>
+      <c r="C182" s="2">
+        <v>11370</v>
+      </c>
+      <c r="D182" s="2">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="E182" s="2">
+        <v>17</v>
+      </c>
+      <c r="F182" s="2">
+        <v>629</v>
+      </c>
+      <c r="G182" s="2">
+        <v>283</v>
+      </c>
+      <c r="H182" s="2">
+        <v>32</v>
+      </c>
+      <c r="I182" s="2">
+        <v>84</v>
+      </c>
+      <c r="J182" s="2">
+        <v>2516</v>
+      </c>
+      <c r="K182" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L182" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M182" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N182" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O182" t="str">
+        <f t="shared" si="16"/>
         <v>Yes</v>
       </c>
     </row>

--- a/datasets/TotalExercise.xlsx
+++ b/datasets/TotalExercise.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\Data Science\My Projects\My Data Project\mydata\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AB10F9-4783-452F-AE8F-411BC46F9B80}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,6 +71,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -508,7 +512,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -552,15 +556,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -588,6 +595,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="43" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -915,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O182"/>
+  <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O154" sqref="O154:O182"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7724,19 +7732,19 @@
         <v>2017</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" ref="K131:K182" si="12">IF(C131&gt;8000,"Yes","No")</f>
+        <f t="shared" ref="K131:K194" si="12">IF(C131&gt;8000,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="L131" t="str">
-        <f t="shared" ref="L131:L182" si="13">IF(B131&gt;3400,"Yes","No")</f>
+        <f t="shared" ref="L131:L194" si="13">IF(B131&gt;3400,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="M131" t="str">
-        <f t="shared" ref="M131:M182" si="14">IF(I131&gt;30,"Yes","No")</f>
+        <f t="shared" ref="M131:M194" si="14">IF(I131&gt;30,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="N131" t="str">
-        <f t="shared" ref="N131:N182" si="15">IF(I131+H131&lt;30,"Yes","No")</f>
+        <f t="shared" ref="N131:N194" si="15">IF(I131+H131&lt;30,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="O131" t="str">
@@ -9976,7 +9984,7 @@
         <v>No</v>
       </c>
       <c r="O174" t="str">
-        <f t="shared" ref="O174:O182" si="16">IF(D174&gt;5,"Yes","No")</f>
+        <f t="shared" ref="O174:O212" si="16">IF(D174&gt;5,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -10392,6 +10400,1566 @@
         <v>No</v>
       </c>
       <c r="O182" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B183" s="6">
+        <v>3583</v>
+      </c>
+      <c r="C183" s="6">
+        <v>9942</v>
+      </c>
+      <c r="D183" s="5">
+        <v>7.57</v>
+      </c>
+      <c r="E183" s="5">
+        <v>16</v>
+      </c>
+      <c r="F183" s="5">
+        <v>688</v>
+      </c>
+      <c r="G183" s="5">
+        <v>278</v>
+      </c>
+      <c r="H183" s="5">
+        <v>17</v>
+      </c>
+      <c r="I183" s="5">
+        <v>39</v>
+      </c>
+      <c r="J183" s="2">
+        <v>1878</v>
+      </c>
+      <c r="K183" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L183" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M183" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N183" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O183" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>43161</v>
+      </c>
+      <c r="B184" s="6">
+        <v>3224</v>
+      </c>
+      <c r="C184" s="6">
+        <v>7813</v>
+      </c>
+      <c r="D184" s="5">
+        <v>6.09</v>
+      </c>
+      <c r="E184" s="5">
+        <v>12</v>
+      </c>
+      <c r="F184" s="5">
+        <v>693</v>
+      </c>
+      <c r="G184" s="5">
+        <v>330</v>
+      </c>
+      <c r="H184" s="5">
+        <v>0</v>
+      </c>
+      <c r="I184" s="5">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2">
+        <v>1488</v>
+      </c>
+      <c r="K184" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="L184" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M184" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N184" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O184" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>43162</v>
+      </c>
+      <c r="B185" s="6">
+        <v>3004</v>
+      </c>
+      <c r="C185" s="6">
+        <v>7596</v>
+      </c>
+      <c r="D185" s="5">
+        <v>5.92</v>
+      </c>
+      <c r="E185" s="5">
+        <v>21</v>
+      </c>
+      <c r="F185" s="5">
+        <v>779</v>
+      </c>
+      <c r="G185" s="5">
+        <v>281</v>
+      </c>
+      <c r="H185" s="5">
+        <v>0</v>
+      </c>
+      <c r="I185" s="5">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2">
+        <v>1307</v>
+      </c>
+      <c r="K185" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="L185" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M185" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N185" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O185" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>43163</v>
+      </c>
+      <c r="B186" s="6">
+        <v>3844</v>
+      </c>
+      <c r="C186" s="6">
+        <v>10040</v>
+      </c>
+      <c r="D186" s="5">
+        <v>7.62</v>
+      </c>
+      <c r="E186" s="5">
+        <v>12</v>
+      </c>
+      <c r="F186" s="5">
+        <v>535</v>
+      </c>
+      <c r="G186" s="5">
+        <v>344</v>
+      </c>
+      <c r="H186" s="5">
+        <v>30</v>
+      </c>
+      <c r="I186" s="5">
+        <v>33</v>
+      </c>
+      <c r="J186" s="2">
+        <v>2247</v>
+      </c>
+      <c r="K186" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L186" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M186" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N186" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O186" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>43164</v>
+      </c>
+      <c r="B187" s="6">
+        <v>3842</v>
+      </c>
+      <c r="C187" s="6">
+        <v>10375</v>
+      </c>
+      <c r="D187" s="5">
+        <v>7.67</v>
+      </c>
+      <c r="E187" s="5">
+        <v>7</v>
+      </c>
+      <c r="F187" s="5">
+        <v>701</v>
+      </c>
+      <c r="G187" s="5">
+        <v>262</v>
+      </c>
+      <c r="H187" s="5">
+        <v>21</v>
+      </c>
+      <c r="I187" s="5">
+        <v>63</v>
+      </c>
+      <c r="J187" s="2">
+        <v>2142</v>
+      </c>
+      <c r="K187" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L187" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M187" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N187" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O187" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>43165</v>
+      </c>
+      <c r="B188" s="6">
+        <v>3721</v>
+      </c>
+      <c r="C188" s="6">
+        <v>10819</v>
+      </c>
+      <c r="D188" s="5">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E188" s="5">
+        <v>13</v>
+      </c>
+      <c r="F188" s="5">
+        <v>663</v>
+      </c>
+      <c r="G188" s="5">
+        <v>265</v>
+      </c>
+      <c r="H188" s="5">
+        <v>18</v>
+      </c>
+      <c r="I188" s="5">
+        <v>57</v>
+      </c>
+      <c r="J188" s="2">
+        <v>2038</v>
+      </c>
+      <c r="K188" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L188" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M188" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N188" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O188" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>43166</v>
+      </c>
+      <c r="B189" s="6">
+        <v>4001</v>
+      </c>
+      <c r="C189" s="6">
+        <v>12897</v>
+      </c>
+      <c r="D189" s="5">
+        <v>9.85</v>
+      </c>
+      <c r="E189" s="5">
+        <v>19</v>
+      </c>
+      <c r="F189" s="5">
+        <v>661</v>
+      </c>
+      <c r="G189" s="5">
+        <v>276</v>
+      </c>
+      <c r="H189" s="5">
+        <v>20</v>
+      </c>
+      <c r="I189" s="5">
+        <v>58</v>
+      </c>
+      <c r="J189" s="2">
+        <v>2252</v>
+      </c>
+      <c r="K189" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L189" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M189" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N189" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O189" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>43167</v>
+      </c>
+      <c r="B190" s="6">
+        <v>3291</v>
+      </c>
+      <c r="C190" s="6">
+        <v>10806</v>
+      </c>
+      <c r="D190" s="5">
+        <v>8.43</v>
+      </c>
+      <c r="E190" s="5">
+        <v>17</v>
+      </c>
+      <c r="F190" s="5">
+        <v>647</v>
+      </c>
+      <c r="G190" s="5">
+        <v>363</v>
+      </c>
+      <c r="H190" s="5">
+        <v>3</v>
+      </c>
+      <c r="I190" s="5">
+        <v>8</v>
+      </c>
+      <c r="J190" s="2">
+        <v>1702</v>
+      </c>
+      <c r="K190" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L190" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M190" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N190" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O190" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>43168</v>
+      </c>
+      <c r="B191" s="6">
+        <v>3424</v>
+      </c>
+      <c r="C191" s="6">
+        <v>9328</v>
+      </c>
+      <c r="D191" s="5">
+        <v>7.09</v>
+      </c>
+      <c r="E191" s="5">
+        <v>7</v>
+      </c>
+      <c r="F191" s="5">
+        <v>675</v>
+      </c>
+      <c r="G191" s="5">
+        <v>334</v>
+      </c>
+      <c r="H191" s="5">
+        <v>0</v>
+      </c>
+      <c r="I191" s="5">
+        <v>0</v>
+      </c>
+      <c r="J191" s="2">
+        <v>1686</v>
+      </c>
+      <c r="K191" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L191" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M191" t="str">
+        <f t="shared" si="14"/>
+        <v>No</v>
+      </c>
+      <c r="N191" t="str">
+        <f t="shared" si="15"/>
+        <v>Yes</v>
+      </c>
+      <c r="O191" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>43169</v>
+      </c>
+      <c r="B192" s="6">
+        <v>3158</v>
+      </c>
+      <c r="C192" s="6">
+        <v>8934</v>
+      </c>
+      <c r="D192" s="5">
+        <v>6.97</v>
+      </c>
+      <c r="E192" s="5">
+        <v>31</v>
+      </c>
+      <c r="F192" s="5">
+        <v>682</v>
+      </c>
+      <c r="G192" s="5">
+        <v>139</v>
+      </c>
+      <c r="H192" s="5">
+        <v>17</v>
+      </c>
+      <c r="I192" s="5">
+        <v>51</v>
+      </c>
+      <c r="J192" s="2">
+        <v>1285</v>
+      </c>
+      <c r="K192" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L192" t="str">
+        <f t="shared" si="13"/>
+        <v>No</v>
+      </c>
+      <c r="M192" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N192" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O192" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>43170</v>
+      </c>
+      <c r="B193" s="6">
+        <v>3712</v>
+      </c>
+      <c r="C193" s="6">
+        <v>11932</v>
+      </c>
+      <c r="D193" s="5">
+        <v>9.09</v>
+      </c>
+      <c r="E193" s="5">
+        <v>24</v>
+      </c>
+      <c r="F193" s="5">
+        <v>571</v>
+      </c>
+      <c r="G193" s="5">
+        <v>286</v>
+      </c>
+      <c r="H193" s="5">
+        <v>29</v>
+      </c>
+      <c r="I193" s="5">
+        <v>41</v>
+      </c>
+      <c r="J193" s="2">
+        <v>2076</v>
+      </c>
+      <c r="K193" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L193" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M193" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N193" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O193" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>43171</v>
+      </c>
+      <c r="B194" s="6">
+        <v>3593</v>
+      </c>
+      <c r="C194" s="6">
+        <v>9689</v>
+      </c>
+      <c r="D194" s="5">
+        <v>7.24</v>
+      </c>
+      <c r="E194" s="5">
+        <v>12</v>
+      </c>
+      <c r="F194" s="5">
+        <v>646</v>
+      </c>
+      <c r="G194" s="5">
+        <v>242</v>
+      </c>
+      <c r="H194" s="5">
+        <v>32</v>
+      </c>
+      <c r="I194" s="5">
+        <v>53</v>
+      </c>
+      <c r="J194" s="2">
+        <v>1937</v>
+      </c>
+      <c r="K194" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="L194" t="str">
+        <f t="shared" si="13"/>
+        <v>Yes</v>
+      </c>
+      <c r="M194" t="str">
+        <f t="shared" si="14"/>
+        <v>Yes</v>
+      </c>
+      <c r="N194" t="str">
+        <f t="shared" si="15"/>
+        <v>No</v>
+      </c>
+      <c r="O194" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>43172</v>
+      </c>
+      <c r="B195" s="6">
+        <v>3618</v>
+      </c>
+      <c r="C195" s="6">
+        <v>11921</v>
+      </c>
+      <c r="D195" s="5">
+        <v>9</v>
+      </c>
+      <c r="E195" s="5">
+        <v>17</v>
+      </c>
+      <c r="F195" s="5">
+        <v>651</v>
+      </c>
+      <c r="G195" s="5">
+        <v>293</v>
+      </c>
+      <c r="H195" s="5">
+        <v>18</v>
+      </c>
+      <c r="I195" s="5">
+        <v>37</v>
+      </c>
+      <c r="J195" s="2">
+        <v>1954</v>
+      </c>
+      <c r="K195" t="str">
+        <f t="shared" ref="K195:K212" si="17">IF(C195&gt;8000,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="L195" t="str">
+        <f t="shared" ref="L195:L212" si="18">IF(B195&gt;3400,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="M195" t="str">
+        <f t="shared" ref="M195:M212" si="19">IF(I195&gt;30,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="N195" t="str">
+        <f t="shared" ref="N195:N212" si="20">IF(I195+H195&lt;30,"Yes","No")</f>
+        <v>No</v>
+      </c>
+      <c r="O195" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>43173</v>
+      </c>
+      <c r="B196" s="6">
+        <v>2981</v>
+      </c>
+      <c r="C196" s="6">
+        <v>7605</v>
+      </c>
+      <c r="D196" s="5">
+        <v>5.93</v>
+      </c>
+      <c r="E196" s="5">
+        <v>11</v>
+      </c>
+      <c r="F196" s="5">
+        <v>738</v>
+      </c>
+      <c r="G196" s="5">
+        <v>284</v>
+      </c>
+      <c r="H196" s="5">
+        <v>0</v>
+      </c>
+      <c r="I196" s="5">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2">
+        <v>1261</v>
+      </c>
+      <c r="K196" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L196" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M196" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N196" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O196" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>43174</v>
+      </c>
+      <c r="B197" s="6">
+        <v>3656</v>
+      </c>
+      <c r="C197" s="6">
+        <v>11236</v>
+      </c>
+      <c r="D197" s="5">
+        <v>8.36</v>
+      </c>
+      <c r="E197" s="5">
+        <v>13</v>
+      </c>
+      <c r="F197" s="5">
+        <v>664</v>
+      </c>
+      <c r="G197" s="5">
+        <v>261</v>
+      </c>
+      <c r="H197" s="5">
+        <v>24</v>
+      </c>
+      <c r="I197" s="5">
+        <v>49</v>
+      </c>
+      <c r="J197" s="2">
+        <v>1960</v>
+      </c>
+      <c r="K197" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L197" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M197" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N197" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O197" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>43175</v>
+      </c>
+      <c r="B198" s="6">
+        <v>2872</v>
+      </c>
+      <c r="C198" s="6">
+        <v>5716</v>
+      </c>
+      <c r="D198" s="5">
+        <v>4.46</v>
+      </c>
+      <c r="E198" s="5">
+        <v>8</v>
+      </c>
+      <c r="F198" s="5">
+        <v>743</v>
+      </c>
+      <c r="G198" s="5">
+        <v>239</v>
+      </c>
+      <c r="H198" s="5">
+        <v>0</v>
+      </c>
+      <c r="I198" s="5">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2">
+        <v>1043</v>
+      </c>
+      <c r="K198" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L198" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M198" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N198" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O198" t="str">
+        <f t="shared" si="16"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>43176</v>
+      </c>
+      <c r="B199" s="6">
+        <v>3783</v>
+      </c>
+      <c r="C199" s="6">
+        <v>9595</v>
+      </c>
+      <c r="D199" s="5">
+        <v>7.14</v>
+      </c>
+      <c r="E199" s="5">
+        <v>16</v>
+      </c>
+      <c r="F199" s="5">
+        <v>544</v>
+      </c>
+      <c r="G199" s="5">
+        <v>314</v>
+      </c>
+      <c r="H199" s="5">
+        <v>15</v>
+      </c>
+      <c r="I199" s="5">
+        <v>64</v>
+      </c>
+      <c r="J199" s="2">
+        <v>2219</v>
+      </c>
+      <c r="K199" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L199" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M199" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N199" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O199" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>43177</v>
+      </c>
+      <c r="B200" s="6">
+        <v>3753</v>
+      </c>
+      <c r="C200" s="6">
+        <v>9883</v>
+      </c>
+      <c r="D200" s="5">
+        <v>7.44</v>
+      </c>
+      <c r="E200" s="5">
+        <v>14</v>
+      </c>
+      <c r="F200" s="5">
+        <v>583</v>
+      </c>
+      <c r="G200" s="5">
+        <v>326</v>
+      </c>
+      <c r="H200" s="5">
+        <v>25</v>
+      </c>
+      <c r="I200" s="5">
+        <v>49</v>
+      </c>
+      <c r="J200" s="2">
+        <v>2178</v>
+      </c>
+      <c r="K200" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L200" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M200" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N200" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O200" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>43178</v>
+      </c>
+      <c r="B201" s="6">
+        <v>3700</v>
+      </c>
+      <c r="C201" s="6">
+        <v>11533</v>
+      </c>
+      <c r="D201" s="5">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="E201" s="5">
+        <v>12</v>
+      </c>
+      <c r="F201" s="5">
+        <v>615</v>
+      </c>
+      <c r="G201" s="5">
+        <v>320</v>
+      </c>
+      <c r="H201" s="5">
+        <v>21</v>
+      </c>
+      <c r="I201" s="5">
+        <v>41</v>
+      </c>
+      <c r="J201" s="2">
+        <v>2089</v>
+      </c>
+      <c r="K201" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L201" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M201" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N201" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O201" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>43179</v>
+      </c>
+      <c r="B202" s="6">
+        <v>3321</v>
+      </c>
+      <c r="C202" s="6">
+        <v>10848</v>
+      </c>
+      <c r="D202" s="5">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="E202" s="5">
+        <v>22</v>
+      </c>
+      <c r="F202" s="5">
+        <v>756</v>
+      </c>
+      <c r="G202" s="5">
+        <v>257</v>
+      </c>
+      <c r="H202" s="5">
+        <v>20</v>
+      </c>
+      <c r="I202" s="5">
+        <v>32</v>
+      </c>
+      <c r="J202" s="2">
+        <v>1602</v>
+      </c>
+      <c r="K202" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L202" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M202" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N202" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O202" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>43180</v>
+      </c>
+      <c r="B203" s="6">
+        <v>3408</v>
+      </c>
+      <c r="C203" s="6">
+        <v>10575</v>
+      </c>
+      <c r="D203" s="5">
+        <v>8.02</v>
+      </c>
+      <c r="E203" s="5">
+        <v>15</v>
+      </c>
+      <c r="F203" s="5">
+        <v>652</v>
+      </c>
+      <c r="G203" s="5">
+        <v>307</v>
+      </c>
+      <c r="H203" s="5">
+        <v>16</v>
+      </c>
+      <c r="I203" s="5">
+        <v>27</v>
+      </c>
+      <c r="J203" s="2">
+        <v>1802</v>
+      </c>
+      <c r="K203" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L203" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M203" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N203" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O203" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>43181</v>
+      </c>
+      <c r="B204" s="6">
+        <v>3009</v>
+      </c>
+      <c r="C204" s="6">
+        <v>8778</v>
+      </c>
+      <c r="D204" s="5">
+        <v>6.85</v>
+      </c>
+      <c r="E204" s="5">
+        <v>9</v>
+      </c>
+      <c r="F204" s="5">
+        <v>755</v>
+      </c>
+      <c r="G204" s="5">
+        <v>287</v>
+      </c>
+      <c r="H204" s="5">
+        <v>6</v>
+      </c>
+      <c r="I204" s="5">
+        <v>4</v>
+      </c>
+      <c r="J204" s="2">
+        <v>1334</v>
+      </c>
+      <c r="K204" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L204" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M204" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N204" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O204" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>43182</v>
+      </c>
+      <c r="B205" s="6">
+        <v>4519</v>
+      </c>
+      <c r="C205" s="6">
+        <v>15803</v>
+      </c>
+      <c r="D205" s="5">
+        <v>12.02</v>
+      </c>
+      <c r="E205" s="5">
+        <v>17</v>
+      </c>
+      <c r="F205" s="5">
+        <v>576</v>
+      </c>
+      <c r="G205" s="5">
+        <v>362</v>
+      </c>
+      <c r="H205" s="5">
+        <v>40</v>
+      </c>
+      <c r="I205" s="5">
+        <v>92</v>
+      </c>
+      <c r="J205" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K205" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L205" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M205" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N205" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O205" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>43183</v>
+      </c>
+      <c r="B206" s="6">
+        <v>4036</v>
+      </c>
+      <c r="C206" s="6">
+        <v>8660</v>
+      </c>
+      <c r="D206" s="5">
+        <v>6.75</v>
+      </c>
+      <c r="E206" s="5">
+        <v>10</v>
+      </c>
+      <c r="F206" s="5">
+        <v>968</v>
+      </c>
+      <c r="G206" s="5">
+        <v>172</v>
+      </c>
+      <c r="H206" s="5">
+        <v>30</v>
+      </c>
+      <c r="I206" s="5">
+        <v>115</v>
+      </c>
+      <c r="J206" s="2">
+        <v>2304</v>
+      </c>
+      <c r="K206" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L206" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M206" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N206" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O206" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>43184</v>
+      </c>
+      <c r="B207" s="6">
+        <v>3560</v>
+      </c>
+      <c r="C207" s="6">
+        <v>10349</v>
+      </c>
+      <c r="D207" s="5">
+        <v>7.77</v>
+      </c>
+      <c r="E207" s="5">
+        <v>8</v>
+      </c>
+      <c r="F207" s="5">
+        <v>509</v>
+      </c>
+      <c r="G207" s="5">
+        <v>333</v>
+      </c>
+      <c r="H207" s="5">
+        <v>27</v>
+      </c>
+      <c r="I207" s="5">
+        <v>27</v>
+      </c>
+      <c r="J207" s="2">
+        <v>1984</v>
+      </c>
+      <c r="K207" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L207" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M207" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N207" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O207" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>43185</v>
+      </c>
+      <c r="B208" s="6">
+        <v>3847</v>
+      </c>
+      <c r="C208" s="6">
+        <v>13145</v>
+      </c>
+      <c r="D208" s="5">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="E208" s="5">
+        <v>8</v>
+      </c>
+      <c r="F208" s="5">
+        <v>695</v>
+      </c>
+      <c r="G208" s="5">
+        <v>289</v>
+      </c>
+      <c r="H208" s="5">
+        <v>17</v>
+      </c>
+      <c r="I208" s="5">
+        <v>50</v>
+      </c>
+      <c r="J208" s="2">
+        <v>2150</v>
+      </c>
+      <c r="K208" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L208" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M208" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N208" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O208" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>43186</v>
+      </c>
+      <c r="B209" s="6">
+        <v>3694</v>
+      </c>
+      <c r="C209" s="6">
+        <v>13497</v>
+      </c>
+      <c r="D209" s="5">
+        <v>10.53</v>
+      </c>
+      <c r="E209" s="5">
+        <v>23</v>
+      </c>
+      <c r="F209" s="5">
+        <v>672</v>
+      </c>
+      <c r="G209" s="5">
+        <v>298</v>
+      </c>
+      <c r="H209" s="5">
+        <v>37</v>
+      </c>
+      <c r="I209" s="5">
+        <v>33</v>
+      </c>
+      <c r="J209" s="2">
+        <v>1982</v>
+      </c>
+      <c r="K209" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L209" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M209" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N209" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O209" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>43187</v>
+      </c>
+      <c r="B210" s="6">
+        <v>3935</v>
+      </c>
+      <c r="C210" s="6">
+        <v>12884</v>
+      </c>
+      <c r="D210" s="5">
+        <v>9.68</v>
+      </c>
+      <c r="E210" s="5">
+        <v>10</v>
+      </c>
+      <c r="F210" s="5">
+        <v>638</v>
+      </c>
+      <c r="G210" s="5">
+        <v>336</v>
+      </c>
+      <c r="H210" s="5">
+        <v>12</v>
+      </c>
+      <c r="I210" s="5">
+        <v>68</v>
+      </c>
+      <c r="J210" s="2">
+        <v>2404</v>
+      </c>
+      <c r="K210" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L210" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M210" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N210" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O210" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>43188</v>
+      </c>
+      <c r="B211" s="6">
+        <v>3248</v>
+      </c>
+      <c r="C211" s="6">
+        <v>10560</v>
+      </c>
+      <c r="D211" s="5">
+        <v>8.24</v>
+      </c>
+      <c r="E211" s="5">
+        <v>10</v>
+      </c>
+      <c r="F211" s="5">
+        <v>710</v>
+      </c>
+      <c r="G211" s="5">
+        <v>344</v>
+      </c>
+      <c r="H211" s="5">
+        <v>4</v>
+      </c>
+      <c r="I211" s="5">
+        <v>5</v>
+      </c>
+      <c r="J211" s="2">
+        <v>1620</v>
+      </c>
+      <c r="K211" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L211" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M211" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N211" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O211" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>43189</v>
+      </c>
+      <c r="B212" s="6">
+        <v>3269</v>
+      </c>
+      <c r="C212" s="6">
+        <v>9181</v>
+      </c>
+      <c r="D212" s="5">
+        <v>6.95</v>
+      </c>
+      <c r="E212" s="5">
+        <v>18</v>
+      </c>
+      <c r="F212" s="5">
+        <v>737</v>
+      </c>
+      <c r="G212" s="5">
+        <v>318</v>
+      </c>
+      <c r="H212" s="5">
+        <v>7</v>
+      </c>
+      <c r="I212" s="5">
+        <v>2</v>
+      </c>
+      <c r="J212" s="2">
+        <v>1604</v>
+      </c>
+      <c r="K212" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L212" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M212" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N212" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O212" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
       </c>

--- a/datasets/TotalExercise.xlsx
+++ b/datasets/TotalExercise.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\Data Science\My Projects\My Data Project\mydata\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AB10F9-4783-452F-AE8F-411BC46F9B80}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6867F0E-93A6-423E-9141-C4D7F00EB7AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalExercise" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -74,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +213,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -512,7 +522,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -557,8 +567,9 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -566,8 +577,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -607,6 +619,7 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -923,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O212"/>
+  <dimension ref="A1:O213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9984,7 +9997,7 @@
         <v>No</v>
       </c>
       <c r="O174" t="str">
-        <f t="shared" ref="O174:O212" si="16">IF(D174&gt;5,"Yes","No")</f>
+        <f t="shared" ref="O174:O213" si="16">IF(D174&gt;5,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -11060,19 +11073,19 @@
         <v>1954</v>
       </c>
       <c r="K195" t="str">
-        <f t="shared" ref="K195:K212" si="17">IF(C195&gt;8000,"Yes","No")</f>
+        <f t="shared" ref="K195:K213" si="17">IF(C195&gt;8000,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="L195" t="str">
-        <f t="shared" ref="L195:L212" si="18">IF(B195&gt;3400,"Yes","No")</f>
+        <f t="shared" ref="L195:L213" si="18">IF(B195&gt;3400,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="M195" t="str">
-        <f t="shared" ref="M195:M212" si="19">IF(I195&gt;30,"Yes","No")</f>
+        <f t="shared" ref="M195:M213" si="19">IF(I195&gt;30,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="N195" t="str">
-        <f t="shared" ref="N195:N212" si="20">IF(I195+H195&lt;30,"Yes","No")</f>
+        <f t="shared" ref="N195:N213" si="20">IF(I195+H195&lt;30,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="O195" t="str">
@@ -11960,6 +11973,58 @@
         <v>Yes</v>
       </c>
       <c r="O212" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B213" s="7">
+        <v>2934</v>
+      </c>
+      <c r="C213" s="7">
+        <v>7461</v>
+      </c>
+      <c r="D213" s="7">
+        <v>5.82</v>
+      </c>
+      <c r="E213" s="7">
+        <v>11</v>
+      </c>
+      <c r="F213" s="7">
+        <v>691</v>
+      </c>
+      <c r="G213" s="7">
+        <v>302</v>
+      </c>
+      <c r="H213" s="7">
+        <v>0</v>
+      </c>
+      <c r="I213" s="7">
+        <v>0</v>
+      </c>
+      <c r="J213" s="7">
+        <v>1274</v>
+      </c>
+      <c r="K213" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L213" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M213" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N213" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O213" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
       </c>

--- a/datasets/TotalExercise.xlsx
+++ b/datasets/TotalExercise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\Data Science\My Projects\My Data Project\mydata\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6867F0E-93A6-423E-9141-C4D7F00EB7AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8823D9-6F38-452E-B162-3BCB50613DB4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -578,6 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="44" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -936,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O213"/>
+  <dimension ref="A1:O243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L237" sqref="L237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9997,7 +9998,7 @@
         <v>No</v>
       </c>
       <c r="O174" t="str">
-        <f t="shared" ref="O174:O213" si="16">IF(D174&gt;5,"Yes","No")</f>
+        <f t="shared" ref="O174:O237" si="16">IF(D174&gt;5,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -11073,19 +11074,19 @@
         <v>1954</v>
       </c>
       <c r="K195" t="str">
-        <f t="shared" ref="K195:K213" si="17">IF(C195&gt;8000,"Yes","No")</f>
+        <f t="shared" ref="K195:K243" si="17">IF(C195&gt;8000,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="L195" t="str">
-        <f t="shared" ref="L195:L213" si="18">IF(B195&gt;3400,"Yes","No")</f>
+        <f t="shared" ref="L195:L243" si="18">IF(B195&gt;3400,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="M195" t="str">
-        <f t="shared" ref="M195:M213" si="19">IF(I195&gt;30,"Yes","No")</f>
+        <f t="shared" ref="M195:M243" si="19">IF(I195&gt;30,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="N195" t="str">
-        <f t="shared" ref="N195:N213" si="20">IF(I195+H195&lt;30,"Yes","No")</f>
+        <f t="shared" ref="N195:N243" si="20">IF(I195+H195&lt;30,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="O195" t="str">
@@ -12026,6 +12027,1566 @@
       </c>
       <c r="O213" t="str">
         <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B214" s="8">
+        <v>3582</v>
+      </c>
+      <c r="C214" s="8">
+        <v>8001</v>
+      </c>
+      <c r="D214" s="8">
+        <v>6</v>
+      </c>
+      <c r="E214" s="8">
+        <v>15</v>
+      </c>
+      <c r="F214" s="8">
+        <v>730</v>
+      </c>
+      <c r="G214" s="8">
+        <v>244</v>
+      </c>
+      <c r="H214" s="8">
+        <v>19</v>
+      </c>
+      <c r="I214" s="8">
+        <v>45</v>
+      </c>
+      <c r="J214" s="8">
+        <v>1751</v>
+      </c>
+      <c r="K214" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L214" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M214" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N214" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O214" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>43192</v>
+      </c>
+      <c r="B215" s="8">
+        <v>3753</v>
+      </c>
+      <c r="C215" s="8">
+        <v>10213</v>
+      </c>
+      <c r="D215" s="8">
+        <v>7.56</v>
+      </c>
+      <c r="E215" s="8">
+        <v>11</v>
+      </c>
+      <c r="F215" s="8">
+        <v>674</v>
+      </c>
+      <c r="G215" s="8">
+        <v>264</v>
+      </c>
+      <c r="H215" s="8">
+        <v>23</v>
+      </c>
+      <c r="I215" s="8">
+        <v>61</v>
+      </c>
+      <c r="J215" s="8">
+        <v>2116</v>
+      </c>
+      <c r="K215" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L215" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M215" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N215" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O215" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>43193</v>
+      </c>
+      <c r="B216" s="8">
+        <v>2940</v>
+      </c>
+      <c r="C216" s="8">
+        <v>7319</v>
+      </c>
+      <c r="D216" s="8">
+        <v>5.71</v>
+      </c>
+      <c r="E216" s="8">
+        <v>10</v>
+      </c>
+      <c r="F216" s="8">
+        <v>769</v>
+      </c>
+      <c r="G216" s="8">
+        <v>289</v>
+      </c>
+      <c r="H216" s="8">
+        <v>0</v>
+      </c>
+      <c r="I216" s="8">
+        <v>0</v>
+      </c>
+      <c r="J216" s="8">
+        <v>1244</v>
+      </c>
+      <c r="K216" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L216" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M216" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N216" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O216" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>43194</v>
+      </c>
+      <c r="B217" s="8">
+        <v>3838</v>
+      </c>
+      <c r="C217" s="8">
+        <v>11694</v>
+      </c>
+      <c r="D217" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="E217" s="8">
+        <v>17</v>
+      </c>
+      <c r="F217" s="8">
+        <v>1113</v>
+      </c>
+      <c r="G217" s="8">
+        <v>242</v>
+      </c>
+      <c r="H217" s="8">
+        <v>9</v>
+      </c>
+      <c r="I217" s="8">
+        <v>76</v>
+      </c>
+      <c r="J217" s="8">
+        <v>2121</v>
+      </c>
+      <c r="K217" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L217" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M217" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N217" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O217" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>43195</v>
+      </c>
+      <c r="B218" s="8">
+        <v>3279</v>
+      </c>
+      <c r="C218" s="8">
+        <v>8322</v>
+      </c>
+      <c r="D218" s="8">
+        <v>6.39</v>
+      </c>
+      <c r="E218" s="8">
+        <v>18</v>
+      </c>
+      <c r="F218" s="8">
+        <v>879</v>
+      </c>
+      <c r="G218" s="8">
+        <v>259</v>
+      </c>
+      <c r="H218" s="8">
+        <v>22</v>
+      </c>
+      <c r="I218" s="8">
+        <v>29</v>
+      </c>
+      <c r="J218" s="8">
+        <v>1609</v>
+      </c>
+      <c r="K218" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L218" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M218" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N218" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O218" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>43196</v>
+      </c>
+      <c r="B219" s="8">
+        <v>2887</v>
+      </c>
+      <c r="C219" s="8">
+        <v>6694</v>
+      </c>
+      <c r="D219" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="E219" s="8">
+        <v>15</v>
+      </c>
+      <c r="F219" s="8">
+        <v>817</v>
+      </c>
+      <c r="G219" s="8">
+        <v>228</v>
+      </c>
+      <c r="H219" s="8">
+        <v>1</v>
+      </c>
+      <c r="I219" s="8">
+        <v>7</v>
+      </c>
+      <c r="J219" s="8">
+        <v>1094</v>
+      </c>
+      <c r="K219" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L219" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M219" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N219" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O219" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>43197</v>
+      </c>
+      <c r="B220" s="8">
+        <v>3844</v>
+      </c>
+      <c r="C220" s="8">
+        <v>10909</v>
+      </c>
+      <c r="D220" s="8">
+        <v>8.31</v>
+      </c>
+      <c r="E220" s="8">
+        <v>19</v>
+      </c>
+      <c r="F220" s="8">
+        <v>575</v>
+      </c>
+      <c r="G220" s="8">
+        <v>385</v>
+      </c>
+      <c r="H220" s="8">
+        <v>30</v>
+      </c>
+      <c r="I220" s="8">
+        <v>5</v>
+      </c>
+      <c r="J220" s="8">
+        <v>2247</v>
+      </c>
+      <c r="K220" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L220" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M220" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N220" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O220" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>43198</v>
+      </c>
+      <c r="B221" s="8">
+        <v>3739</v>
+      </c>
+      <c r="C221" s="8">
+        <v>11277</v>
+      </c>
+      <c r="D221" s="8">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="E221" s="8">
+        <v>7</v>
+      </c>
+      <c r="F221" s="8">
+        <v>677</v>
+      </c>
+      <c r="G221" s="8">
+        <v>337</v>
+      </c>
+      <c r="H221" s="8">
+        <v>18</v>
+      </c>
+      <c r="I221" s="8">
+        <v>49</v>
+      </c>
+      <c r="J221" s="8">
+        <v>2177</v>
+      </c>
+      <c r="K221" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L221" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M221" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N221" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O221" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>43199</v>
+      </c>
+      <c r="B222" s="8">
+        <v>2804</v>
+      </c>
+      <c r="C222" s="8">
+        <v>5519</v>
+      </c>
+      <c r="D222" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="E222" s="8">
+        <v>11</v>
+      </c>
+      <c r="F222" s="8">
+        <v>776</v>
+      </c>
+      <c r="G222" s="8">
+        <v>224</v>
+      </c>
+      <c r="H222" s="8">
+        <v>0</v>
+      </c>
+      <c r="I222" s="8">
+        <v>0</v>
+      </c>
+      <c r="J222" s="8">
+        <v>990</v>
+      </c>
+      <c r="K222" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L222" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M222" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N222" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O222" t="str">
+        <f t="shared" si="16"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>43200</v>
+      </c>
+      <c r="B223" s="8">
+        <v>3671</v>
+      </c>
+      <c r="C223" s="8">
+        <v>9550</v>
+      </c>
+      <c r="D223" s="8">
+        <v>7.21</v>
+      </c>
+      <c r="E223" s="8">
+        <v>18</v>
+      </c>
+      <c r="F223" s="8">
+        <v>763</v>
+      </c>
+      <c r="G223" s="8">
+        <v>225</v>
+      </c>
+      <c r="H223" s="8">
+        <v>19</v>
+      </c>
+      <c r="I223" s="8">
+        <v>61</v>
+      </c>
+      <c r="J223" s="8">
+        <v>1892</v>
+      </c>
+      <c r="K223" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L223" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M223" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N223" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O223" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>43201</v>
+      </c>
+      <c r="B224" s="8">
+        <v>2795</v>
+      </c>
+      <c r="C224" s="8">
+        <v>5718</v>
+      </c>
+      <c r="D224" s="8">
+        <v>4.46</v>
+      </c>
+      <c r="E224" s="8">
+        <v>14</v>
+      </c>
+      <c r="F224" s="8">
+        <v>726</v>
+      </c>
+      <c r="G224" s="8">
+        <v>243</v>
+      </c>
+      <c r="H224" s="8">
+        <v>0</v>
+      </c>
+      <c r="I224" s="8">
+        <v>0</v>
+      </c>
+      <c r="J224" s="8">
+        <v>1022</v>
+      </c>
+      <c r="K224" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L224" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M224" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N224" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O224" t="str">
+        <f t="shared" si="16"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>43202</v>
+      </c>
+      <c r="B225" s="8">
+        <v>2999</v>
+      </c>
+      <c r="C225" s="8">
+        <v>6793</v>
+      </c>
+      <c r="D225" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="E225" s="8">
+        <v>25</v>
+      </c>
+      <c r="F225" s="8">
+        <v>822</v>
+      </c>
+      <c r="G225" s="8">
+        <v>288</v>
+      </c>
+      <c r="H225" s="8">
+        <v>0</v>
+      </c>
+      <c r="I225" s="8">
+        <v>0</v>
+      </c>
+      <c r="J225" s="8">
+        <v>1263</v>
+      </c>
+      <c r="K225" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L225" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M225" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N225" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O225" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>43203</v>
+      </c>
+      <c r="B226" s="8">
+        <v>3753</v>
+      </c>
+      <c r="C226" s="8">
+        <v>10787</v>
+      </c>
+      <c r="D226" s="8">
+        <v>8.33</v>
+      </c>
+      <c r="E226" s="8">
+        <v>23</v>
+      </c>
+      <c r="F226" s="8">
+        <v>733</v>
+      </c>
+      <c r="G226" s="8">
+        <v>259</v>
+      </c>
+      <c r="H226" s="8">
+        <v>15</v>
+      </c>
+      <c r="I226" s="8">
+        <v>44</v>
+      </c>
+      <c r="J226" s="8">
+        <v>1960</v>
+      </c>
+      <c r="K226" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L226" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M226" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N226" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O226" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>43204</v>
+      </c>
+      <c r="B227" s="8">
+        <v>3099</v>
+      </c>
+      <c r="C227" s="8">
+        <v>8364</v>
+      </c>
+      <c r="D227" s="8">
+        <v>6.52</v>
+      </c>
+      <c r="E227" s="8">
+        <v>9</v>
+      </c>
+      <c r="F227" s="8">
+        <v>653</v>
+      </c>
+      <c r="G227" s="8">
+        <v>316</v>
+      </c>
+      <c r="H227" s="8">
+        <v>0</v>
+      </c>
+      <c r="I227" s="8">
+        <v>0</v>
+      </c>
+      <c r="J227" s="8">
+        <v>1430</v>
+      </c>
+      <c r="K227" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L227" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M227" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N227" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O227" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>43205</v>
+      </c>
+      <c r="B228" s="8">
+        <v>2822</v>
+      </c>
+      <c r="C228" s="8">
+        <v>6278</v>
+      </c>
+      <c r="D228" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E228" s="8">
+        <v>13</v>
+      </c>
+      <c r="F228" s="8">
+        <v>806</v>
+      </c>
+      <c r="G228" s="8">
+        <v>259</v>
+      </c>
+      <c r="H228" s="8">
+        <v>0</v>
+      </c>
+      <c r="I228" s="8">
+        <v>0</v>
+      </c>
+      <c r="J228" s="8">
+        <v>1090</v>
+      </c>
+      <c r="K228" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L228" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M228" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N228" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O228" t="str">
+        <f t="shared" si="16"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>43206</v>
+      </c>
+      <c r="B229" s="8">
+        <v>3871</v>
+      </c>
+      <c r="C229" s="8">
+        <v>11645</v>
+      </c>
+      <c r="D229" s="8">
+        <v>8.67</v>
+      </c>
+      <c r="E229" s="8">
+        <v>11</v>
+      </c>
+      <c r="F229" s="8">
+        <v>688</v>
+      </c>
+      <c r="G229" s="8">
+        <v>315</v>
+      </c>
+      <c r="H229" s="8">
+        <v>6</v>
+      </c>
+      <c r="I229" s="8">
+        <v>50</v>
+      </c>
+      <c r="J229" s="8">
+        <v>2188</v>
+      </c>
+      <c r="K229" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L229" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M229" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N229" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O229" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>43207</v>
+      </c>
+      <c r="B230" s="8">
+        <v>3468</v>
+      </c>
+      <c r="C230" s="8">
+        <v>8667</v>
+      </c>
+      <c r="D230" s="8">
+        <v>6.55</v>
+      </c>
+      <c r="E230" s="8">
+        <v>16</v>
+      </c>
+      <c r="F230" s="8">
+        <v>800</v>
+      </c>
+      <c r="G230" s="8">
+        <v>200</v>
+      </c>
+      <c r="H230" s="8">
+        <v>24</v>
+      </c>
+      <c r="I230" s="8">
+        <v>47</v>
+      </c>
+      <c r="J230" s="8">
+        <v>1640</v>
+      </c>
+      <c r="K230" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L230" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M230" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N230" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O230" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>43208</v>
+      </c>
+      <c r="B231" s="8">
+        <v>3549</v>
+      </c>
+      <c r="C231" s="8">
+        <v>11007</v>
+      </c>
+      <c r="D231" s="8">
+        <v>8.59</v>
+      </c>
+      <c r="E231" s="8">
+        <v>30</v>
+      </c>
+      <c r="F231" s="8">
+        <v>683</v>
+      </c>
+      <c r="G231" s="8">
+        <v>336</v>
+      </c>
+      <c r="H231" s="8">
+        <v>16</v>
+      </c>
+      <c r="I231" s="8">
+        <v>26</v>
+      </c>
+      <c r="J231" s="8">
+        <v>1952</v>
+      </c>
+      <c r="K231" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L231" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M231" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N231" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O231" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>43209</v>
+      </c>
+      <c r="B232" s="8">
+        <v>3560</v>
+      </c>
+      <c r="C232" s="8">
+        <v>10258</v>
+      </c>
+      <c r="D232" s="8">
+        <v>7.76</v>
+      </c>
+      <c r="E232" s="8">
+        <v>19</v>
+      </c>
+      <c r="F232" s="8">
+        <v>681</v>
+      </c>
+      <c r="G232" s="8">
+        <v>260</v>
+      </c>
+      <c r="H232" s="8">
+        <v>22</v>
+      </c>
+      <c r="I232" s="8">
+        <v>47</v>
+      </c>
+      <c r="J232" s="8">
+        <v>1895</v>
+      </c>
+      <c r="K232" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L232" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M232" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N232" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O232" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>43210</v>
+      </c>
+      <c r="B233" s="8">
+        <v>3420</v>
+      </c>
+      <c r="C233" s="8">
+        <v>10856</v>
+      </c>
+      <c r="D233" s="8">
+        <v>8.33</v>
+      </c>
+      <c r="E233" s="8">
+        <v>28</v>
+      </c>
+      <c r="F233" s="8">
+        <v>684</v>
+      </c>
+      <c r="G233" s="8">
+        <v>278</v>
+      </c>
+      <c r="H233" s="8">
+        <v>28</v>
+      </c>
+      <c r="I233" s="8">
+        <v>23</v>
+      </c>
+      <c r="J233" s="8">
+        <v>1752</v>
+      </c>
+      <c r="K233" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L233" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M233" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N233" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O233" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>43211</v>
+      </c>
+      <c r="B234" s="8">
+        <v>3625</v>
+      </c>
+      <c r="C234" s="8">
+        <v>9681</v>
+      </c>
+      <c r="D234" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="E234" s="8">
+        <v>8</v>
+      </c>
+      <c r="F234" s="8">
+        <v>673</v>
+      </c>
+      <c r="G234" s="8">
+        <v>154</v>
+      </c>
+      <c r="H234" s="8">
+        <v>25</v>
+      </c>
+      <c r="I234" s="8">
+        <v>79</v>
+      </c>
+      <c r="J234" s="8">
+        <v>1873</v>
+      </c>
+      <c r="K234" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L234" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M234" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N234" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O234" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>43212</v>
+      </c>
+      <c r="B235" s="8">
+        <v>2876</v>
+      </c>
+      <c r="C235" s="8">
+        <v>7091</v>
+      </c>
+      <c r="D235" s="8">
+        <v>5.53</v>
+      </c>
+      <c r="E235" s="8">
+        <v>12</v>
+      </c>
+      <c r="F235" s="8">
+        <v>710</v>
+      </c>
+      <c r="G235" s="8">
+        <v>254</v>
+      </c>
+      <c r="H235" s="8">
+        <v>5</v>
+      </c>
+      <c r="I235" s="8">
+        <v>2</v>
+      </c>
+      <c r="J235" s="8">
+        <v>1160</v>
+      </c>
+      <c r="K235" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L235" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M235" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N235" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O235" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>43213</v>
+      </c>
+      <c r="B236" s="8">
+        <v>3673</v>
+      </c>
+      <c r="C236" s="8">
+        <v>9868</v>
+      </c>
+      <c r="D236" s="8">
+        <v>7.52</v>
+      </c>
+      <c r="E236" s="8">
+        <v>16</v>
+      </c>
+      <c r="F236" s="8">
+        <v>722</v>
+      </c>
+      <c r="G236" s="8">
+        <v>189</v>
+      </c>
+      <c r="H236" s="8">
+        <v>21</v>
+      </c>
+      <c r="I236" s="8">
+        <v>75</v>
+      </c>
+      <c r="J236" s="8">
+        <v>1928</v>
+      </c>
+      <c r="K236" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L236" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M236" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N236" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O236" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>43214</v>
+      </c>
+      <c r="B237" s="8">
+        <v>2971</v>
+      </c>
+      <c r="C237" s="8">
+        <v>6821</v>
+      </c>
+      <c r="D237" s="8">
+        <v>5.32</v>
+      </c>
+      <c r="E237" s="8">
+        <v>10</v>
+      </c>
+      <c r="F237" s="8">
+        <v>773</v>
+      </c>
+      <c r="G237" s="8">
+        <v>196</v>
+      </c>
+      <c r="H237" s="8">
+        <v>4</v>
+      </c>
+      <c r="I237" s="8">
+        <v>20</v>
+      </c>
+      <c r="J237" s="8">
+        <v>1095</v>
+      </c>
+      <c r="K237" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L237" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M237" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N237" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O237" t="str">
+        <f t="shared" si="16"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>43215</v>
+      </c>
+      <c r="B238" s="8">
+        <v>3020</v>
+      </c>
+      <c r="C238" s="8">
+        <v>6183</v>
+      </c>
+      <c r="D238" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="E238" s="8">
+        <v>7</v>
+      </c>
+      <c r="F238" s="8">
+        <v>681</v>
+      </c>
+      <c r="G238" s="8">
+        <v>169</v>
+      </c>
+      <c r="H238" s="8">
+        <v>26</v>
+      </c>
+      <c r="I238" s="8">
+        <v>7</v>
+      </c>
+      <c r="J238" s="8">
+        <v>1113</v>
+      </c>
+      <c r="K238" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L238" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M238" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N238" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O238" t="str">
+        <f t="shared" ref="O238:O243" si="21">IF(D238&gt;5,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>43216</v>
+      </c>
+      <c r="B239" s="8">
+        <v>3555</v>
+      </c>
+      <c r="C239" s="8">
+        <v>9294</v>
+      </c>
+      <c r="D239" s="8">
+        <v>6.89</v>
+      </c>
+      <c r="E239" s="8">
+        <v>10</v>
+      </c>
+      <c r="F239" s="8">
+        <v>734</v>
+      </c>
+      <c r="G239" s="8">
+        <v>211</v>
+      </c>
+      <c r="H239" s="8">
+        <v>23</v>
+      </c>
+      <c r="I239" s="8">
+        <v>48</v>
+      </c>
+      <c r="J239" s="8">
+        <v>1741</v>
+      </c>
+      <c r="K239" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L239" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M239" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N239" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O239" t="str">
+        <f t="shared" si="21"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>43217</v>
+      </c>
+      <c r="B240" s="8">
+        <v>2846</v>
+      </c>
+      <c r="C240" s="8">
+        <v>7313</v>
+      </c>
+      <c r="D240" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="E240" s="8">
+        <v>16</v>
+      </c>
+      <c r="F240" s="8">
+        <v>807</v>
+      </c>
+      <c r="G240" s="8">
+        <v>212</v>
+      </c>
+      <c r="H240" s="8">
+        <v>5</v>
+      </c>
+      <c r="I240" s="8">
+        <v>4</v>
+      </c>
+      <c r="J240" s="8">
+        <v>1051</v>
+      </c>
+      <c r="K240" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L240" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M240" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N240" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O240" t="str">
+        <f t="shared" si="21"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>43218</v>
+      </c>
+      <c r="B241" s="8">
+        <v>2919</v>
+      </c>
+      <c r="C241" s="8">
+        <v>6986</v>
+      </c>
+      <c r="D241" s="8">
+        <v>5.45</v>
+      </c>
+      <c r="E241" s="8">
+        <v>33</v>
+      </c>
+      <c r="F241" s="8">
+        <v>824</v>
+      </c>
+      <c r="G241" s="8">
+        <v>245</v>
+      </c>
+      <c r="H241" s="8">
+        <v>0</v>
+      </c>
+      <c r="I241" s="8">
+        <v>0</v>
+      </c>
+      <c r="J241" s="8">
+        <v>1149</v>
+      </c>
+      <c r="K241" t="str">
+        <f t="shared" si="17"/>
+        <v>No</v>
+      </c>
+      <c r="L241" t="str">
+        <f t="shared" si="18"/>
+        <v>No</v>
+      </c>
+      <c r="M241" t="str">
+        <f t="shared" si="19"/>
+        <v>No</v>
+      </c>
+      <c r="N241" t="str">
+        <f t="shared" si="20"/>
+        <v>Yes</v>
+      </c>
+      <c r="O241" t="str">
+        <f t="shared" si="21"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B242" s="8">
+        <v>3402</v>
+      </c>
+      <c r="C242" s="8">
+        <v>8474</v>
+      </c>
+      <c r="D242" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="E242" s="8">
+        <v>15</v>
+      </c>
+      <c r="F242" s="8">
+        <v>713</v>
+      </c>
+      <c r="G242" s="8">
+        <v>166</v>
+      </c>
+      <c r="H242" s="8">
+        <v>36</v>
+      </c>
+      <c r="I242" s="8">
+        <v>55</v>
+      </c>
+      <c r="J242" s="8">
+        <v>1611</v>
+      </c>
+      <c r="K242" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L242" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M242" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N242" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O242" t="str">
+        <f t="shared" si="21"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B243" s="8">
+        <v>3597</v>
+      </c>
+      <c r="C243" s="8">
+        <v>8258</v>
+      </c>
+      <c r="D243" s="8">
+        <v>6.14</v>
+      </c>
+      <c r="E243" s="8">
+        <v>14</v>
+      </c>
+      <c r="F243" s="8">
+        <v>712</v>
+      </c>
+      <c r="G243" s="8">
+        <v>238</v>
+      </c>
+      <c r="H243" s="8">
+        <v>18</v>
+      </c>
+      <c r="I243" s="8">
+        <v>55</v>
+      </c>
+      <c r="J243" s="8">
+        <v>1863</v>
+      </c>
+      <c r="K243" t="str">
+        <f t="shared" si="17"/>
+        <v>Yes</v>
+      </c>
+      <c r="L243" t="str">
+        <f t="shared" si="18"/>
+        <v>Yes</v>
+      </c>
+      <c r="M243" t="str">
+        <f t="shared" si="19"/>
+        <v>Yes</v>
+      </c>
+      <c r="N243" t="str">
+        <f t="shared" si="20"/>
+        <v>No</v>
+      </c>
+      <c r="O243" t="str">
+        <f t="shared" si="21"/>
         <v>Yes</v>
       </c>
     </row>
